--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/jgarza25_illinois_edu/Documents/Stock Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1260" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1963021-46F3-4E7A-8502-5ED16630F467}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF20FC-4313-B54E-B217-8F52C3B4229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="500" windowWidth="29860" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -606,9 +606,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$B$2:$S$2</c:f>
+              <c:f>Model!$B$2:$T$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -662,16 +662,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q323</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$3:$S$3</c:f>
+              <c:f>Model!$B$3:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>66633</c:v>
                 </c:pt>
@@ -725,6 +728,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>75570</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,9 +821,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$B$2:$S$2</c:f>
+              <c:f>Model!$B$2:$T$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -871,16 +877,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q323</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$4:$S$4</c:f>
+              <c:f>Model!$B$4:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>42542</c:v>
                 </c:pt>
@@ -934,6 +943,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>79810</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,9 +1036,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$B$2:$S$2</c:f>
+              <c:f>Model!$B$2:$T$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -1080,16 +1092,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q323</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$5:$S$5</c:f>
+              <c:f>Model!$B$5:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>27547</c:v>
                 </c:pt>
@@ -1143,6 +1158,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42470</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,9 +1251,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$B$2:$S$2</c:f>
+              <c:f>Model!$B$2:$T$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -1289,16 +1307,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q323</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$6:$S$6</c:f>
+              <c:f>Model!$B$6:$T$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>12141</c:v>
                 </c:pt>
@@ -1352,6 +1373,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>40550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,7 +1621,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$C$103:$D$103</c:f>
+              <c:f>Model!$C$104:$D$104</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1623,7 +1647,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$E$102:$U$102</c:f>
+              <c:f>Model!$E$103:$U$103</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -1682,7 +1706,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$E$103:$U$103</c:f>
+              <c:f>Model!$E$104:$U$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1752,7 +1776,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$C$104:$D$104</c:f>
+              <c:f>Model!$C$105:$D$105</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1778,7 +1802,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$E$102:$U$102</c:f>
+              <c:f>Model!$E$103:$U$103</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -1837,7 +1861,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$E$104:$U$104</c:f>
+              <c:f>Model!$E$105:$U$105</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1907,7 +1931,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$C$105:$D$105</c:f>
+              <c:f>Model!$C$106:$D$106</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1933,7 +1957,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$E$102:$U$102</c:f>
+              <c:f>Model!$E$103:$U$103</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -1992,7 +2016,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$E$105:$U$105</c:f>
+              <c:f>Model!$E$106:$U$106</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2062,7 +2086,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$C$106:$D$106</c:f>
+              <c:f>Model!$C$107:$D$107</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2088,7 +2112,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$E$102:$U$102</c:f>
+              <c:f>Model!$E$103:$U$103</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -2147,7 +2171,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$E$106:$U$106</c:f>
+              <c:f>Model!$E$107:$U$107</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2843,7 +2867,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$C$103:$D$103</c:f>
+              <c:f>Model!$C$104:$D$104</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2869,7 +2893,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$E$102:$T$102</c:f>
+              <c:f>Model!$E$103:$T$103</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -2925,7 +2949,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$E$103:$T$103</c:f>
+              <c:f>Model!$E$104:$T$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2992,7 +3016,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$C$104:$D$104</c:f>
+              <c:f>Model!$C$105:$D$105</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3018,7 +3042,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$E$102:$T$102</c:f>
+              <c:f>Model!$E$103:$T$103</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -3074,7 +3098,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$E$104:$T$104</c:f>
+              <c:f>Model!$E$105:$T$105</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3141,7 +3165,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$C$105:$D$105</c:f>
+              <c:f>Model!$C$106:$D$106</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3167,7 +3191,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$E$102:$T$102</c:f>
+              <c:f>Model!$E$103:$T$103</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -3223,7 +3247,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$E$105:$T$105</c:f>
+              <c:f>Model!$E$106:$T$106</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3290,7 +3314,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$C$106:$D$106</c:f>
+              <c:f>Model!$C$107:$D$107</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3316,7 +3340,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$E$102:$T$102</c:f>
+              <c:f>Model!$E$103:$T$103</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -3372,7 +3396,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$E$106:$T$106</c:f>
+              <c:f>Model!$E$107:$T$107</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3705,7 +3729,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$C$121</c:f>
+              <c:f>Model!$C$122</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3794,7 +3818,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$D$120:$W$120</c:f>
+              <c:f>Model!$D$121:$W$121</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -3862,7 +3886,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$D$121:$W$121</c:f>
+              <c:f>Model!$D$122:$W$122</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -9421,16 +9445,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9445,8 +9469,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11563350" y="85725"/>
-          <a:ext cx="0" cy="6924675"/>
+          <a:off x="14605000" y="60325"/>
+          <a:ext cx="0" cy="11306175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9479,7 +9503,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9523,13 +9547,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9559,13 +9583,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
       <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9601,7 +9625,7 @@
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9631,13 +9655,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9669,13 +9693,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9711,7 +9735,7 @@
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9781,14 +9805,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9826,7 +9846,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9932,7 +9952,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10074,7 +10094,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10084,13 +10104,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10098,51 +10118,51 @@
         <v>2</v>
       </c>
       <c r="J1">
-        <v>401</v>
+        <v>482.95</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="J2">
-        <v>444.536</v>
+        <v>437.67899999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="2">
         <f>J1*J2</f>
-        <v>178258.93599999999</v>
+        <v>211377.07304999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
         <v>5</v>
       </c>
       <c r="J4">
-        <f>6714+1112</f>
-        <v>7826</v>
+        <f>7353+514</f>
+        <v>7867</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>6</v>
       </c>
       <c r="J5">
-        <f>399+14037</f>
-        <v>14436</v>
+        <f>399+13900</f>
+        <v>14299</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="2">
         <f>J3-J4+J5</f>
-        <v>184868.93599999999</v>
+        <v>217809.07304999998</v>
       </c>
     </row>
   </sheetData>
@@ -10156,29 +10176,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737D987D-22E7-4019-B3A4-EE21D5F14553}">
-  <dimension ref="A1:MW123"/>
+  <dimension ref="A1:MW124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -10291,7 +10311,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -10349,6 +10369,9 @@
       <c r="S3" s="2">
         <v>75570</v>
       </c>
+      <c r="T3" s="2">
+        <v>77321</v>
+      </c>
       <c r="Y3" s="2">
         <v>67662</v>
       </c>
@@ -10362,7 +10385,7 @@
         <v>74296</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -10420,6 +10443,9 @@
       <c r="S4" s="2">
         <v>79810</v>
       </c>
+      <c r="T4" s="2">
+        <v>83760</v>
+      </c>
       <c r="Y4" s="2">
         <v>51778</v>
       </c>
@@ -10433,7 +10459,7 @@
         <v>76729</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -10490,6 +10516,9 @@
       </c>
       <c r="S5" s="2">
         <v>42470</v>
+      </c>
+      <c r="T5" s="2">
+        <v>43645</v>
       </c>
       <c r="Y5" s="2">
         <v>31417</v>
@@ -10519,7 +10548,7 @@
       <c r="BR5" s="2"/>
       <c r="BS5" s="2"/>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -10577,6 +10606,9 @@
       <c r="S6" s="2">
         <v>40550</v>
       </c>
+      <c r="T6" s="2">
+        <v>42427</v>
+      </c>
       <c r="Y6" s="2">
         <v>16233</v>
       </c>
@@ -10590,7 +10622,7 @@
         <v>38023</v>
       </c>
     </row>
-    <row r="7" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -10615,7 +10647,7 @@
         <v>182856</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" ref="G7:S7" si="3">SUM(G3:G6)</f>
+        <f t="shared" ref="G7:T7" si="3">SUM(G3:G6)</f>
         <v>192947</v>
       </c>
       <c r="H7" s="5">
@@ -10666,6 +10698,10 @@
         <f t="shared" si="3"/>
         <v>238400</v>
       </c>
+      <c r="T7" s="5">
+        <f t="shared" si="3"/>
+        <v>247153</v>
+      </c>
       <c r="X7" s="5">
         <v>139260</v>
       </c>
@@ -10686,52 +10722,52 @@
         <v>230747</v>
       </c>
       <c r="AC7" s="5">
-        <f>AB7*0.975</f>
-        <v>224978.32499999998</v>
+        <f>AB7*1.08</f>
+        <v>249206.76</v>
       </c>
       <c r="AD7" s="5">
-        <f>AC7*1.02</f>
-        <v>229477.8915</v>
+        <f t="shared" ref="AD7:AL7" si="5">AC7*1.08</f>
+        <v>269143.30080000003</v>
       </c>
       <c r="AE7" s="5">
-        <f>AD7*1.03</f>
-        <v>236362.22824500001</v>
+        <f t="shared" si="5"/>
+        <v>290674.76486400003</v>
       </c>
       <c r="AF7" s="5">
-        <f t="shared" ref="AF7:AL7" si="5">AE7*1.03</f>
-        <v>243453.09509235001</v>
+        <f t="shared" si="5"/>
+        <v>313928.74605312006</v>
       </c>
       <c r="AG7" s="5">
         <f t="shared" si="5"/>
-        <v>250756.6879451205</v>
+        <v>339043.04573736968</v>
       </c>
       <c r="AH7" s="5">
         <f t="shared" si="5"/>
-        <v>258279.38858347412</v>
+        <v>366166.48939635931</v>
       </c>
       <c r="AI7" s="5">
         <f t="shared" si="5"/>
-        <v>266027.77024097834</v>
+        <v>395459.8085480681</v>
       </c>
       <c r="AJ7" s="5">
         <f t="shared" si="5"/>
-        <v>274008.60334820772</v>
+        <v>427096.59323191358</v>
       </c>
       <c r="AK7" s="5">
         <f t="shared" si="5"/>
-        <v>282228.86144865397</v>
+        <v>461264.32069046667</v>
       </c>
       <c r="AL7" s="5">
         <f t="shared" si="5"/>
-        <v>290695.72729211359</v>
+        <v>498165.46634570404</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="13">
-        <f t="shared" ref="B8:Q8" si="6">B9/(B7/1000)</f>
+        <f t="shared" ref="B8:Q8" si="6">B10/(B7/1000)</f>
         <v>30.363488576745063</v>
       </c>
       <c r="C8" s="13">
@@ -10795,21 +10831,24 @@
         <v>34.028611422900404</v>
       </c>
       <c r="R8" s="13">
-        <f>R9/(R7/1000)</f>
+        <f>R10/(R7/1000)</f>
         <v>35.101377216148094</v>
       </c>
       <c r="S8" s="13">
-        <f>S9/(S7/1000)</f>
+        <f>S10/(S7/1000)</f>
         <v>34.341442953020135</v>
       </c>
-      <c r="T8" s="13"/>
+      <c r="T8" s="13">
+        <f>T10/(T7/1000)</f>
+        <v>34.557541280097752</v>
+      </c>
       <c r="U8" s="13"/>
       <c r="X8" s="4">
-        <f>X9/(X7/1000)</f>
+        <f>X10/(X7/1000)</f>
         <v>113.41375843745513</v>
       </c>
       <c r="Y8" s="4">
-        <f t="shared" ref="Y8:AB8" si="7">Y9/(Y7/1000)</f>
+        <f t="shared" ref="Y8:AB8" si="7">Y10/(Y7/1000)</f>
         <v>120.62960081393261</v>
       </c>
       <c r="Z8" s="4">
@@ -10865,5349 +10904,5483 @@
         <v>206.04500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>4520</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>4923</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>5244</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>5467</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>5767</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <v>6148</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>6435</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10" s="2">
         <v>6644</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10" s="2">
         <v>7163</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10" s="2">
         <v>7341</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10" s="2">
         <v>7483</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10" s="2">
         <v>7709</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10" s="2">
         <v>7867</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10" s="2">
         <v>7970</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10" s="2">
         <v>7925</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10" s="2">
         <v>7852</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R10" s="2">
         <v>8161</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S10" s="2">
         <v>8187</v>
       </c>
-      <c r="T9" s="2">
-        <v>8520</v>
-      </c>
-      <c r="X9" s="2">
+      <c r="T10" s="2">
+        <v>8541</v>
+      </c>
+      <c r="X10" s="2">
         <v>15794</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y10" s="2">
         <v>20156</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z10" s="2">
         <v>24996</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA10" s="2">
         <v>29697</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB10" s="2">
         <v>31615</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AC10" s="2">
         <f>AC7*AC8/1000</f>
-        <v>34119.76281285</v>
-      </c>
-      <c r="AD9" s="2">
-        <f t="shared" ref="AD9:AL9" si="8">AD7*AD8/1000</f>
-        <v>36188.892967441505</v>
-      </c>
-      <c r="AE9" s="2">
+        <v>37794.19880808</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" ref="AD10:AL10" si="8">AD7*AD8/1000</f>
+        <v>42444.167679460807</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="8"/>
-        <v>38702.896701749283</v>
-      </c>
-      <c r="AF9" s="2">
+        <v>47596.24869789082</v>
+      </c>
+      <c r="AF10" s="2">
         <f t="shared" si="8"/>
-        <v>41335.170656444832</v>
-      </c>
-      <c r="AG9" s="2">
+        <v>53301.0200061211</v>
+      </c>
+      <c r="AG10" s="2">
         <f t="shared" si="8"/>
-        <v>44090.548441390543</v>
-      </c>
-      <c r="AH9" s="2">
+        <v>59613.938732001712</v>
+      </c>
+      <c r="AH10" s="2">
         <f t="shared" si="8"/>
-        <v>46974.047239842184</v>
-      </c>
-      <c r="AI9" s="2">
+        <v>66595.79792598405</v>
+      </c>
+      <c r="AI10" s="2">
         <f t="shared" si="8"/>
-        <v>49990.874472603689</v>
-      </c>
-      <c r="AJ9" s="2">
+        <v>74313.22538311877</v>
+      </c>
+      <c r="AJ10" s="2">
         <f t="shared" si="8"/>
-        <v>53146.43469681502</v>
-      </c>
-      <c r="AK9" s="2">
+        <v>82839.228126668721</v>
+      </c>
+      <c r="AK10" s="2">
         <f t="shared" si="8"/>
-        <v>56446.336747453694</v>
-      </c>
-      <c r="AL9" s="2">
+        <v>92253.786666734726</v>
+      </c>
+      <c r="AL10" s="2">
         <f t="shared" si="8"/>
-        <v>59896.401129903548</v>
+        <v>102644.5035132006</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>2870</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>3005</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>3097</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>3466</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>3599</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>3643</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>3867</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I11" s="2">
         <v>4165</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J11" s="2">
         <v>3868</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K11" s="2">
         <v>4018</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L11" s="2">
         <v>4206</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M11" s="2">
         <v>5239</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N11" s="2">
         <v>4284</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O11" s="2">
         <v>4690</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P11" s="2">
         <v>4788</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q11" s="2">
         <v>5404</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R11" s="2">
         <v>4803</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S11" s="2">
         <v>4673</v>
       </c>
-      <c r="X10" s="2">
+      <c r="T11" s="2">
+        <v>4930</v>
+      </c>
+      <c r="X11" s="2">
         <v>9967</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y11" s="2">
         <v>12440</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z11" s="2">
         <v>15276</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA11" s="2">
         <v>17332</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB11" s="2">
         <v>19168</v>
       </c>
-      <c r="AC10" s="2">
-        <f>AC9-AC11</f>
-        <v>20130.660059581503</v>
-      </c>
-      <c r="AD10" s="2">
-        <f t="shared" ref="AD10:AL10" si="9">AD9-AD11</f>
-        <v>21351.446850790489</v>
-      </c>
-      <c r="AE10" s="2">
+      <c r="AC11" s="2">
+        <f>AC10-AC12</f>
+        <v>22298.577296767202</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" ref="AD11:AL11" si="9">AD10-AD12</f>
+        <v>25042.058930881878</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="9"/>
-        <v>22834.709054032079</v>
-      </c>
-      <c r="AF10" s="2">
+        <v>28081.786731755587</v>
+      </c>
+      <c r="AF11" s="2">
         <f t="shared" si="9"/>
-        <v>24387.75068730245</v>
-      </c>
-      <c r="AG10" s="2">
+        <v>31447.601803611451</v>
+      </c>
+      <c r="AG11" s="2">
         <f t="shared" si="9"/>
-        <v>26013.423580420422</v>
-      </c>
-      <c r="AH10" s="2">
+        <v>35172.223851881012</v>
+      </c>
+      <c r="AH11" s="2">
         <f t="shared" si="9"/>
-        <v>27714.687871506889</v>
-      </c>
-      <c r="AI10" s="2">
+        <v>39291.520776330595</v>
+      </c>
+      <c r="AI11" s="2">
         <f t="shared" si="9"/>
-        <v>29494.615938836178</v>
-      </c>
-      <c r="AJ10" s="2">
+        <v>43844.802976040075</v>
+      </c>
+      <c r="AJ11" s="2">
         <f t="shared" si="9"/>
-        <v>31356.396471120865</v>
-      </c>
-      <c r="AK10" s="2">
+        <v>48875.144594734549</v>
+      </c>
+      <c r="AK11" s="2">
         <f t="shared" si="9"/>
-        <v>33303.33868099768</v>
-      </c>
-      <c r="AL10" s="2">
+        <v>54429.734133373488</v>
+      </c>
+      <c r="AL11" s="2">
         <f t="shared" si="9"/>
-        <v>35338.876666643097</v>
+        <v>60560.257072788358</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="5">
-        <f t="shared" ref="B11:D11" si="10">B9-B10</f>
+      <c r="B12" s="5">
+        <f t="shared" ref="B12:D12" si="10">B10-B11</f>
         <v>1650</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <f t="shared" si="10"/>
         <v>1918</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <f t="shared" si="10"/>
         <v>2147</v>
       </c>
-      <c r="E11" s="5">
-        <f t="shared" ref="E11:F11" si="11">E9-E10</f>
+      <c r="E12" s="5">
+        <f t="shared" ref="E12:F12" si="11">E10-E11</f>
         <v>2001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <f t="shared" si="11"/>
         <v>2168</v>
       </c>
-      <c r="G11" s="5">
-        <f t="shared" ref="G11:S11" si="12">G9-G10</f>
+      <c r="G12" s="5">
+        <f t="shared" ref="G12:S12" si="12">G10-G11</f>
         <v>2505</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="5">
         <f t="shared" si="12"/>
         <v>2568</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I12" s="5">
         <f t="shared" si="12"/>
         <v>2479</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="5">
         <f t="shared" si="12"/>
         <v>3295</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K12" s="5">
         <f t="shared" si="12"/>
         <v>3323</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L12" s="5">
         <f t="shared" si="12"/>
         <v>3277</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M12" s="5">
         <f t="shared" si="12"/>
         <v>2470</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N12" s="5">
         <f t="shared" si="12"/>
         <v>3583</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O12" s="5">
         <f t="shared" si="12"/>
         <v>3280</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P12" s="5">
         <f t="shared" si="12"/>
         <v>3137</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q12" s="5">
         <f t="shared" si="12"/>
         <v>2448</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R12" s="5">
         <f t="shared" si="12"/>
         <v>3358</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S12" s="5">
         <f t="shared" si="12"/>
         <v>3514</v>
       </c>
-      <c r="X11" s="5">
-        <f>X9-X10</f>
+      <c r="T12" s="5">
+        <f t="shared" ref="T12" si="13">T10-T11</f>
+        <v>3611</v>
+      </c>
+      <c r="X12" s="5">
+        <f>X10-X11</f>
         <v>5827</v>
       </c>
-      <c r="Y11" s="5">
-        <f>Y9-Y10</f>
+      <c r="Y12" s="5">
+        <f>Y10-Y11</f>
         <v>7716</v>
       </c>
-      <c r="Z11" s="5">
-        <f>Z9-Z10</f>
+      <c r="Z12" s="5">
+        <f>Z10-Z11</f>
         <v>9720</v>
       </c>
-      <c r="AA11" s="5">
-        <f>AA9-AA10</f>
+      <c r="AA12" s="5">
+        <f>AA10-AA11</f>
         <v>12365</v>
       </c>
-      <c r="AB11" s="5">
-        <f>AB9-AB10</f>
+      <c r="AB12" s="5">
+        <f>AB10-AB11</f>
         <v>12447</v>
       </c>
-      <c r="AC11" s="5">
-        <f>AC9*0.41</f>
-        <v>13989.102753268498</v>
-      </c>
-      <c r="AD11" s="5">
-        <f t="shared" ref="AD11:AL11" si="13">AD9*0.41</f>
-        <v>14837.446116651015</v>
-      </c>
-      <c r="AE11" s="5">
-        <f t="shared" si="13"/>
-        <v>15868.187647717205</v>
-      </c>
-      <c r="AF11" s="5">
-        <f t="shared" si="13"/>
-        <v>16947.419969142382</v>
-      </c>
-      <c r="AG11" s="5">
-        <f t="shared" si="13"/>
-        <v>18077.124860970122</v>
-      </c>
-      <c r="AH11" s="5">
-        <f t="shared" si="13"/>
-        <v>19259.359368335296</v>
-      </c>
-      <c r="AI11" s="5">
-        <f t="shared" si="13"/>
-        <v>20496.258533767512</v>
-      </c>
-      <c r="AJ11" s="5">
-        <f t="shared" si="13"/>
-        <v>21790.038225694156</v>
-      </c>
-      <c r="AK11" s="5">
-        <f t="shared" si="13"/>
-        <v>23142.998066456013</v>
-      </c>
-      <c r="AL11" s="5">
-        <f t="shared" si="13"/>
-        <v>24557.524463260452</v>
+      <c r="AC12" s="5">
+        <f>AC10*0.41</f>
+        <v>15495.621511312798</v>
+      </c>
+      <c r="AD12" s="5">
+        <f t="shared" ref="AD12:AL12" si="14">AD10*0.41</f>
+        <v>17402.108748578928</v>
+      </c>
+      <c r="AE12" s="5">
+        <f t="shared" si="14"/>
+        <v>19514.461966135234</v>
+      </c>
+      <c r="AF12" s="5">
+        <f t="shared" si="14"/>
+        <v>21853.418202509649</v>
+      </c>
+      <c r="AG12" s="5">
+        <f t="shared" si="14"/>
+        <v>24441.7148801207</v>
+      </c>
+      <c r="AH12" s="5">
+        <f t="shared" si="14"/>
+        <v>27304.277149653459</v>
+      </c>
+      <c r="AI12" s="5">
+        <f t="shared" si="14"/>
+        <v>30468.422407078695</v>
+      </c>
+      <c r="AJ12" s="5">
+        <f t="shared" si="14"/>
+        <v>33964.083531934171</v>
+      </c>
+      <c r="AK12" s="5">
+        <f t="shared" si="14"/>
+        <v>37824.052533361239</v>
+      </c>
+      <c r="AL12" s="5">
+        <f t="shared" si="14"/>
+        <v>42084.246440412244</v>
       </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>616</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>603</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>553</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>878</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>503</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>434</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>527</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I13" s="2">
         <v>762</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J13" s="2">
         <v>512</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K13" s="2">
         <v>603</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L13" s="2">
         <v>635</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M13" s="2">
         <v>792</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N13" s="2">
         <v>555</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O13" s="2">
         <v>574</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P13" s="2">
         <v>567</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q13" s="2">
         <v>831</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R13" s="2">
         <v>555</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S13" s="2">
         <v>627</v>
       </c>
-      <c r="X12" s="2">
+      <c r="T13" s="2">
+        <v>558</v>
+      </c>
+      <c r="X13" s="2">
         <v>2369</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y13" s="2">
         <v>2652</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z13" s="2">
         <v>2228</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA13" s="2">
         <v>2545</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB13" s="2">
         <v>2530</v>
       </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>372</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>383</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>379</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>409</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>453</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>435</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>453</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I14" s="2">
         <v>486</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J14" s="2">
         <v>525</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K14" s="2">
         <v>537</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L14" s="2">
         <v>563</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M14" s="2">
         <v>647</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N14" s="2">
         <v>657</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O14" s="2">
         <v>716</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P14" s="2">
         <v>662</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q14" s="2">
         <v>673</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R14" s="2">
         <v>687</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S14" s="2">
         <v>658</v>
       </c>
-      <c r="X13" s="2">
+      <c r="T14" s="2">
+        <v>657</v>
+      </c>
+      <c r="X14" s="2">
         <v>1221</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y14" s="2">
         <v>1545</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z14" s="2">
         <v>1829</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA14" s="2">
         <v>2273</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AB14" s="2">
         <v>2711</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>201</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>224</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>233</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>254</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>252</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>277</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>271</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I15" s="2">
         <v>275</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J15" s="2">
         <v>297</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K15" s="2">
         <v>334</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L15" s="2">
         <v>321</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M15" s="2">
         <v>397</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N15" s="2">
         <v>397</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O15" s="2">
         <v>409</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P15" s="2">
         <v>373</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q15" s="2">
         <v>392</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R15" s="2">
         <v>400</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S15" s="2">
         <v>401</v>
       </c>
-      <c r="X14" s="2">
+      <c r="T15" s="2">
+        <v>478</v>
+      </c>
+      <c r="X15" s="2">
         <v>630</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y15" s="2">
         <v>915</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z15" s="2">
         <v>1076</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA15" s="2">
         <v>1351</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AB15" s="2">
         <v>1572</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2">
-        <f t="shared" ref="B15:D15" si="14">SUM(B12:B14)</f>
+      <c r="B16" s="2">
+        <f t="shared" ref="B16:D16" si="15">SUM(B13:B15)</f>
         <v>1189</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="14"/>
+      <c r="C16" s="2">
+        <f t="shared" si="15"/>
         <v>1210</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="14"/>
+      <c r="D16" s="2">
+        <f t="shared" si="15"/>
         <v>1165</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" ref="E15:F15" si="15">SUM(E12:E14)</f>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:F16" si="16">SUM(E13:E15)</f>
         <v>1541</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="15"/>
+      <c r="F16" s="2">
+        <f t="shared" si="16"/>
         <v>1208</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" ref="G15:S15" si="16">SUM(G12:G14)</f>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16:S16" si="17">SUM(G13:G15)</f>
         <v>1146</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="16"/>
+      <c r="H16" s="2">
+        <f t="shared" si="17"/>
         <v>1251</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="16"/>
+      <c r="I16" s="2">
+        <f t="shared" si="17"/>
         <v>1523</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" si="16"/>
+      <c r="J16" s="2">
+        <f t="shared" si="17"/>
         <v>1334</v>
       </c>
-      <c r="K15" s="2">
-        <f t="shared" si="16"/>
+      <c r="K16" s="2">
+        <f t="shared" si="17"/>
         <v>1474</v>
       </c>
-      <c r="L15" s="2">
-        <f t="shared" si="16"/>
+      <c r="L16" s="2">
+        <f t="shared" si="17"/>
         <v>1519</v>
       </c>
-      <c r="M15" s="2">
-        <f t="shared" si="16"/>
+      <c r="M16" s="2">
+        <f t="shared" si="17"/>
         <v>1836</v>
       </c>
-      <c r="N15" s="2">
-        <f t="shared" si="16"/>
+      <c r="N16" s="2">
+        <f t="shared" si="17"/>
         <v>1609</v>
       </c>
-      <c r="O15" s="2">
-        <f t="shared" si="16"/>
+      <c r="O16" s="2">
+        <f t="shared" si="17"/>
         <v>1699</v>
       </c>
-      <c r="P15" s="2">
-        <f t="shared" si="16"/>
+      <c r="P16" s="2">
+        <f t="shared" si="17"/>
         <v>1602</v>
       </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="16"/>
+      <c r="Q16" s="2">
+        <f t="shared" si="17"/>
         <v>1896</v>
       </c>
-      <c r="R15" s="2">
-        <f t="shared" si="16"/>
+      <c r="R16" s="2">
+        <f t="shared" si="17"/>
         <v>1642</v>
       </c>
-      <c r="S15" s="2">
-        <f t="shared" si="16"/>
+      <c r="S16" s="2">
+        <f t="shared" si="17"/>
         <v>1686</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="X15" s="2">
-        <f>SUM(X12:X14)</f>
+      <c r="T16" s="2">
+        <f t="shared" ref="T16" si="18">SUM(T13:T15)</f>
+        <v>1693</v>
+      </c>
+      <c r="X16" s="2">
+        <f>SUM(X13:X15)</f>
         <v>4220</v>
       </c>
-      <c r="Y15" s="2">
-        <f>SUM(Y12:Y14)</f>
+      <c r="Y16" s="2">
+        <f>SUM(Y13:Y15)</f>
         <v>5112</v>
       </c>
-      <c r="Z15" s="2">
-        <f>SUM(Z12:Z14)</f>
+      <c r="Z16" s="2">
+        <f>SUM(Z13:Z15)</f>
         <v>5133</v>
       </c>
-      <c r="AA15" s="2">
-        <f>SUM(AA12:AA14)</f>
+      <c r="AA16" s="2">
+        <f>SUM(AA13:AA15)</f>
         <v>6169</v>
       </c>
-      <c r="AB15" s="2">
-        <f>SUM(AB12:AB14)</f>
+      <c r="AB16" s="2">
+        <f>SUM(AB13:AB15)</f>
         <v>6813</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2">
-        <f t="shared" ref="B16:D16" si="17">B11-B15</f>
+      <c r="B17" s="2">
+        <f t="shared" ref="B17:D17" si="19">B12-B16</f>
         <v>461</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="17"/>
+      <c r="C17" s="2">
+        <f t="shared" si="19"/>
         <v>708</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="17"/>
+      <c r="D17" s="2">
+        <f t="shared" si="19"/>
         <v>982</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:F16" si="18">E11-E15</f>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:F17" si="20">E12-E16</f>
         <v>460</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="18"/>
+      <c r="F17" s="2">
+        <f t="shared" si="20"/>
         <v>960</v>
       </c>
-      <c r="G16" s="2">
-        <f t="shared" ref="G16:R16" si="19">G11-G15</f>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:R17" si="21">G12-G16</f>
         <v>1359</v>
       </c>
-      <c r="H16" s="2">
-        <f t="shared" si="19"/>
+      <c r="H17" s="2">
+        <f t="shared" si="21"/>
         <v>1317</v>
       </c>
-      <c r="I16" s="2">
-        <f t="shared" si="19"/>
+      <c r="I17" s="2">
+        <f t="shared" si="21"/>
         <v>956</v>
       </c>
-      <c r="J16" s="2">
-        <f t="shared" si="19"/>
+      <c r="J17" s="2">
+        <f t="shared" si="21"/>
         <v>1961</v>
       </c>
-      <c r="K16" s="2">
-        <f t="shared" si="19"/>
+      <c r="K17" s="2">
+        <f t="shared" si="21"/>
         <v>1849</v>
       </c>
-      <c r="L16" s="2">
-        <f t="shared" si="19"/>
+      <c r="L17" s="2">
+        <f t="shared" si="21"/>
         <v>1758</v>
       </c>
-      <c r="M16" s="2">
-        <f t="shared" si="19"/>
+      <c r="M17" s="2">
+        <f t="shared" si="21"/>
         <v>634</v>
       </c>
-      <c r="N16" s="2">
-        <f t="shared" si="19"/>
+      <c r="N17" s="2">
+        <f t="shared" si="21"/>
         <v>1974</v>
       </c>
-      <c r="O16" s="2">
-        <f t="shared" si="19"/>
+      <c r="O17" s="2">
+        <f t="shared" si="21"/>
         <v>1581</v>
       </c>
-      <c r="P16" s="2">
-        <f t="shared" si="19"/>
+      <c r="P17" s="2">
+        <f t="shared" si="21"/>
         <v>1535</v>
       </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="19"/>
+      <c r="Q17" s="2">
+        <f t="shared" si="21"/>
         <v>552</v>
       </c>
-      <c r="R16" s="2">
-        <f t="shared" si="19"/>
+      <c r="R17" s="2">
+        <f t="shared" si="21"/>
         <v>1716</v>
       </c>
-      <c r="S16" s="2">
-        <f>S11-S15</f>
+      <c r="S17" s="2">
+        <f>S12-S16</f>
         <v>1828</v>
       </c>
-      <c r="X16" s="2">
-        <f>X11-X15</f>
+      <c r="T17" s="2">
+        <f>T12-T16</f>
+        <v>1918</v>
+      </c>
+      <c r="X17" s="2">
+        <f>X12-X16</f>
         <v>1607</v>
       </c>
-      <c r="Y16" s="2">
-        <f>Y11-Y15</f>
+      <c r="Y17" s="2">
+        <f>Y12-Y16</f>
         <v>2604</v>
       </c>
-      <c r="Z16" s="2">
-        <f>Z11-Z15</f>
+      <c r="Z17" s="2">
+        <f>Z12-Z16</f>
         <v>4587</v>
       </c>
-      <c r="AA16" s="2">
-        <f>AA11-AA15</f>
+      <c r="AA17" s="2">
+        <f>AA12-AA16</f>
         <v>6196</v>
       </c>
-      <c r="AB16" s="2">
-        <f>AB11-AB15</f>
+      <c r="AB17" s="2">
+        <f>AB12-AB16</f>
         <v>5634</v>
       </c>
-      <c r="AC16" s="2">
-        <f>AC9*0.19</f>
-        <v>6482.7549344415002</v>
-      </c>
-      <c r="AD16" s="2">
-        <f t="shared" ref="AD16:AL16" si="20">AD9*0.19</f>
-        <v>6875.8896638138858</v>
-      </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="20"/>
-        <v>7353.550373332364</v>
-      </c>
-      <c r="AF16" s="2">
-        <f t="shared" si="20"/>
-        <v>7853.6824247245186</v>
-      </c>
-      <c r="AG16" s="2">
-        <f t="shared" si="20"/>
-        <v>8377.204203864203</v>
-      </c>
-      <c r="AH16" s="2">
-        <f t="shared" si="20"/>
-        <v>8925.068975570015</v>
-      </c>
-      <c r="AI16" s="2">
-        <f t="shared" si="20"/>
-        <v>9498.2661497947011</v>
-      </c>
-      <c r="AJ16" s="2">
-        <f t="shared" si="20"/>
-        <v>10097.822592394854</v>
-      </c>
-      <c r="AK16" s="2">
-        <f t="shared" si="20"/>
-        <v>10724.803982016201</v>
-      </c>
-      <c r="AL16" s="2">
-        <f t="shared" si="20"/>
-        <v>11380.316214681674</v>
+      <c r="AC17" s="2">
+        <f>AC10*0.2</f>
+        <v>7558.839761616</v>
+      </c>
+      <c r="AD17" s="2">
+        <f>AD10*0.24</f>
+        <v>10186.600243070594</v>
+      </c>
+      <c r="AE17" s="2">
+        <f t="shared" ref="AE17:AL17" si="22">AE10*0.24</f>
+        <v>11423.099687493795</v>
+      </c>
+      <c r="AF17" s="2">
+        <f t="shared" si="22"/>
+        <v>12792.244801469064</v>
+      </c>
+      <c r="AG17" s="2">
+        <f t="shared" si="22"/>
+        <v>14307.34529568041</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="22"/>
+        <v>15982.991502236171</v>
+      </c>
+      <c r="AI17" s="2">
+        <f t="shared" si="22"/>
+        <v>17835.174091948506</v>
+      </c>
+      <c r="AJ17" s="2">
+        <f t="shared" si="22"/>
+        <v>19881.41475040049</v>
+      </c>
+      <c r="AK17" s="2">
+        <f t="shared" si="22"/>
+        <v>22140.908800016332</v>
+      </c>
+      <c r="AL17" s="2">
+        <f t="shared" si="22"/>
+        <v>24634.680843168142</v>
       </c>
     </row>
-    <row r="17" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>-135</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>-152</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>-160</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>-177</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>-184</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>-189</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H18" s="2">
         <v>-197</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I18" s="2">
         <v>-197</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J18" s="2">
         <v>-194</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K18" s="2">
         <v>-191</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L18" s="2">
         <v>-190</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M18" s="2">
         <v>-189</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N18" s="2">
         <v>-187</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O18" s="2">
         <v>-175</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P18" s="2">
         <v>-172</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q18" s="2">
         <v>-170</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R18" s="2">
         <v>-174</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S18" s="2">
         <v>-174</v>
       </c>
-      <c r="X17" s="2">
+      <c r="T18" s="2">
+        <v>-175</v>
+      </c>
+      <c r="X18" s="2">
         <v>-420</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y18" s="2">
         <v>-626</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z18" s="2">
         <v>-767</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA18" s="2">
         <v>-765</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AB18" s="2">
         <v>-706</v>
       </c>
-      <c r="AC17" s="2">
-        <f>AC26*$AQ$36</f>
+      <c r="AC18" s="2">
+        <f>AC27*$AQ$37</f>
         <v>-63.51</v>
       </c>
-      <c r="AD17" s="2">
-        <f t="shared" ref="AD17:AL17" si="21">AD26*$AQ$36</f>
-        <v>107.37046626925559</v>
-      </c>
-      <c r="AE17" s="2">
-        <f t="shared" si="21"/>
-        <v>292.93963370345051</v>
-      </c>
-      <c r="AF17" s="2">
-        <f t="shared" si="21"/>
-        <v>500.399644889196</v>
-      </c>
-      <c r="AG17" s="2">
-        <f t="shared" si="21"/>
-        <v>725.22565527699805</v>
-      </c>
-      <c r="AH17" s="2">
-        <f t="shared" si="21"/>
-        <v>968.65340824582574</v>
-      </c>
-      <c r="AI17" s="2">
-        <f t="shared" si="21"/>
-        <v>1233.3990850379391</v>
-      </c>
-      <c r="AJ17" s="2">
-        <f t="shared" si="21"/>
-        <v>1520.8515295617394</v>
-      </c>
-      <c r="AK17" s="2">
-        <f t="shared" si="21"/>
-        <v>1831.356960536667</v>
-      </c>
-      <c r="AL17" s="2">
-        <f t="shared" si="21"/>
-        <v>2166.4855911766545</v>
+      <c r="AD18" s="2">
+        <f t="shared" ref="AD18:AL18" si="23">AD27*$AQ$37</f>
+        <v>117.661914278784</v>
+      </c>
+      <c r="AE18" s="2">
+        <f t="shared" si="23"/>
+        <v>366.06520605516903</v>
+      </c>
+      <c r="AF18" s="2">
+        <f t="shared" si="23"/>
+        <v>654.08941350034422</v>
+      </c>
+      <c r="AG18" s="2">
+        <f t="shared" si="23"/>
+        <v>980.69074715961005</v>
+      </c>
+      <c r="AH18" s="2">
+        <f t="shared" si="23"/>
+        <v>1350.4432528127704</v>
+      </c>
+      <c r="AI18" s="2">
+        <f t="shared" si="23"/>
+        <v>1769.674237715195</v>
+      </c>
+      <c r="AJ18" s="2">
+        <f t="shared" si="23"/>
+        <v>2243.9510361036864</v>
+      </c>
+      <c r="AK18" s="2">
+        <f t="shared" si="23"/>
+        <v>2778.3893005754899</v>
+      </c>
+      <c r="AL18" s="2">
+        <f t="shared" si="23"/>
+        <v>3379.7669838593224</v>
       </c>
     </row>
-    <row r="18" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>76</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>-53</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>192</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>-131</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="2">
         <v>21</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>-133</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>-256</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I19" s="2">
         <v>-250</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J19" s="2">
         <v>269</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K19" s="2">
         <v>-62</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L19" s="2">
         <v>96</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M19" s="2">
         <v>108</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N19" s="2">
         <v>195</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O19" s="2">
         <v>220</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P19" s="2">
         <v>261</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q19" s="2">
         <v>-339</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R19" s="2">
         <v>-71</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S19" s="2">
         <v>26.9</v>
       </c>
-      <c r="X18" s="2">
+      <c r="T19" s="2">
+        <v>168</v>
+      </c>
+      <c r="X19" s="2">
         <v>41</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y19" s="2">
         <v>84</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z19" s="2">
         <v>-618</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA19" s="2">
         <v>411</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AB19" s="2">
         <v>337</v>
       </c>
-      <c r="AC18" s="2">
-        <f>AVERAGE(Y18:AB18)</f>
+      <c r="AC19" s="2">
+        <f>AVERAGE(Y19:AB19)</f>
         <v>53.5</v>
       </c>
-      <c r="AD18" s="2">
-        <f t="shared" ref="AD18:AL18" si="22">AVERAGE(Z18:AC18)</f>
+      <c r="AD19" s="2">
+        <f t="shared" ref="AD19:AL19" si="24">AVERAGE(Z19:AC19)</f>
         <v>45.875</v>
       </c>
-      <c r="AE18" s="2">
-        <f t="shared" si="22"/>
+      <c r="AE19" s="2">
+        <f t="shared" si="24"/>
         <v>211.84375</v>
       </c>
-      <c r="AF18" s="2">
-        <f t="shared" si="22"/>
+      <c r="AF19" s="2">
+        <f t="shared" si="24"/>
         <v>162.0546875</v>
       </c>
-      <c r="AG18" s="2">
-        <f t="shared" si="22"/>
+      <c r="AG19" s="2">
+        <f t="shared" si="24"/>
         <v>118.318359375</v>
       </c>
-      <c r="AH18" s="2">
-        <f t="shared" si="22"/>
+      <c r="AH19" s="2">
+        <f t="shared" si="24"/>
         <v>134.52294921875</v>
       </c>
-      <c r="AI18" s="2">
-        <f t="shared" si="22"/>
+      <c r="AI19" s="2">
+        <f t="shared" si="24"/>
         <v>156.6849365234375</v>
       </c>
-      <c r="AJ18" s="2">
-        <f t="shared" si="22"/>
+      <c r="AJ19" s="2">
+        <f t="shared" si="24"/>
         <v>142.89523315429688</v>
       </c>
-      <c r="AK18" s="2">
-        <f t="shared" si="22"/>
+      <c r="AK19" s="2">
+        <f t="shared" si="24"/>
         <v>138.10536956787109</v>
       </c>
-      <c r="AL18" s="2">
-        <f t="shared" si="22"/>
+      <c r="AL19" s="2">
+        <f t="shared" si="24"/>
         <v>143.05212211608887</v>
       </c>
     </row>
-    <row r="19" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2">
-        <f t="shared" ref="B19:D19" si="23">B16+B17+B18</f>
+      <c r="B20" s="2">
+        <f t="shared" ref="B20:D20" si="25">B17+B18+B19</f>
         <v>402</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="23"/>
+      <c r="C20" s="2">
+        <f t="shared" si="25"/>
         <v>503</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="23"/>
+      <c r="D20" s="2">
+        <f t="shared" si="25"/>
         <v>1014</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" ref="E19:F19" si="24">E16+E17+E18</f>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20:F20" si="26">E17+E18+E19</f>
         <v>152</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="24"/>
+      <c r="F20" s="2">
+        <f t="shared" si="26"/>
         <v>797</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" ref="G19:S19" si="25">G16+G17+G18</f>
+      <c r="G20" s="2">
+        <f t="shared" ref="G20:S20" si="27">G17+G18+G19</f>
         <v>1037</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" si="25"/>
+      <c r="H20" s="2">
+        <f t="shared" si="27"/>
         <v>864</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" si="25"/>
+      <c r="I20" s="2">
+        <f t="shared" si="27"/>
         <v>509</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="25"/>
+      <c r="J20" s="2">
+        <f t="shared" si="27"/>
         <v>2036</v>
       </c>
-      <c r="K19" s="2">
-        <f t="shared" si="25"/>
+      <c r="K20" s="2">
+        <f t="shared" si="27"/>
         <v>1596</v>
       </c>
-      <c r="L19" s="2">
-        <f t="shared" si="25"/>
+      <c r="L20" s="2">
+        <f t="shared" si="27"/>
         <v>1664</v>
       </c>
-      <c r="M19" s="2">
-        <f t="shared" si="25"/>
+      <c r="M20" s="2">
+        <f t="shared" si="27"/>
         <v>553</v>
       </c>
-      <c r="N19" s="2">
-        <f t="shared" si="25"/>
+      <c r="N20" s="2">
+        <f t="shared" si="27"/>
         <v>1982</v>
       </c>
-      <c r="O19" s="2">
-        <f t="shared" si="25"/>
+      <c r="O20" s="2">
+        <f t="shared" si="27"/>
         <v>1626</v>
       </c>
-      <c r="P19" s="2">
-        <f t="shared" si="25"/>
+      <c r="P20" s="2">
+        <f t="shared" si="27"/>
         <v>1624</v>
       </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="25"/>
+      <c r="Q20" s="2">
+        <f t="shared" si="27"/>
         <v>43</v>
       </c>
-      <c r="R19" s="2">
-        <f t="shared" si="25"/>
+      <c r="R20" s="2">
+        <f t="shared" si="27"/>
         <v>1471</v>
       </c>
-      <c r="S19" s="2">
-        <f t="shared" si="25"/>
+      <c r="S20" s="2">
+        <f t="shared" si="27"/>
         <v>1680.9</v>
       </c>
-      <c r="X19" s="2">
-        <f t="shared" ref="X19:AC19" si="26">X16+X17+X18</f>
+      <c r="T20" s="2">
+        <f t="shared" ref="T20" si="28">T17+T18+T19</f>
+        <v>1911</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" ref="X20:AC20" si="29">X17+X18+X19</f>
         <v>1228</v>
       </c>
-      <c r="Y19" s="2">
-        <f t="shared" si="26"/>
+      <c r="Y20" s="2">
+        <f t="shared" si="29"/>
         <v>2062</v>
       </c>
-      <c r="Z19" s="2">
-        <f t="shared" si="26"/>
+      <c r="Z20" s="2">
+        <f t="shared" si="29"/>
         <v>3202</v>
       </c>
-      <c r="AA19" s="2">
-        <f t="shared" si="26"/>
+      <c r="AA20" s="2">
+        <f t="shared" si="29"/>
         <v>5842</v>
       </c>
-      <c r="AB19" s="2">
-        <f t="shared" si="26"/>
+      <c r="AB20" s="2">
+        <f t="shared" si="29"/>
         <v>5265</v>
       </c>
-      <c r="AC19" s="2">
-        <f t="shared" si="26"/>
-        <v>6472.7449344414999</v>
-      </c>
-      <c r="AD19" s="2">
-        <f t="shared" ref="AD19:AL19" si="27">AD16+AD17+AD18</f>
-        <v>7029.1351300831411</v>
-      </c>
-      <c r="AE19" s="2">
-        <f t="shared" si="27"/>
-        <v>7858.3337570358144</v>
-      </c>
-      <c r="AF19" s="2">
-        <f t="shared" si="27"/>
-        <v>8516.1367571137143</v>
-      </c>
-      <c r="AG19" s="2">
-        <f t="shared" si="27"/>
-        <v>9220.7482185162007</v>
-      </c>
-      <c r="AH19" s="2">
-        <f t="shared" si="27"/>
-        <v>10028.245333034591</v>
-      </c>
-      <c r="AI19" s="2">
-        <f t="shared" si="27"/>
-        <v>10888.350171356078</v>
-      </c>
-      <c r="AJ19" s="2">
-        <f t="shared" si="27"/>
-        <v>11761.569355110891</v>
-      </c>
-      <c r="AK19" s="2">
-        <f t="shared" si="27"/>
-        <v>12694.266312120739</v>
-      </c>
-      <c r="AL19" s="2">
-        <f t="shared" si="27"/>
-        <v>13689.853927974418</v>
+      <c r="AC20" s="2">
+        <f t="shared" si="29"/>
+        <v>7548.8297616159998</v>
+      </c>
+      <c r="AD20" s="2">
+        <f t="shared" ref="AD20:AL20" si="30">AD17+AD18+AD19</f>
+        <v>10350.137157349378</v>
+      </c>
+      <c r="AE20" s="2">
+        <f t="shared" si="30"/>
+        <v>12001.008643548965</v>
+      </c>
+      <c r="AF20" s="2">
+        <f t="shared" si="30"/>
+        <v>13608.388902469407</v>
+      </c>
+      <c r="AG20" s="2">
+        <f t="shared" si="30"/>
+        <v>15406.35440221502</v>
+      </c>
+      <c r="AH20" s="2">
+        <f t="shared" si="30"/>
+        <v>17467.95770426769</v>
+      </c>
+      <c r="AI20" s="2">
+        <f t="shared" si="30"/>
+        <v>19761.533266187136</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f t="shared" si="30"/>
+        <v>22268.261019658472</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" si="30"/>
+        <v>25057.403470159694</v>
+      </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="30"/>
+        <v>28157.499949143552</v>
       </c>
     </row>
-    <row r="20" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>55</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>230</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>347</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>-437</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <v>86</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <v>315</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <v>71</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I21" s="2">
         <v>-35</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J21" s="2">
         <v>327</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K21" s="2">
         <v>240</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L21" s="2">
         <v>221</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M21" s="2">
         <v>-56</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N21" s="2">
         <v>382</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O21" s="2">
         <v>182</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P21" s="2">
         <v>223</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q21" s="2">
         <v>-15</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R21" s="2">
         <v>163</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S21" s="2">
         <v>192</v>
       </c>
-      <c r="X20" s="2">
+      <c r="T21" s="2">
+        <v>231</v>
+      </c>
+      <c r="X21" s="2">
         <v>15</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y21" s="2">
         <v>195</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z21" s="2">
         <v>437</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA21" s="2">
         <v>723</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AB21" s="2">
         <v>772</v>
       </c>
-      <c r="AC20" s="2">
-        <f>AC19*0.12</f>
-        <v>776.72939213297991</v>
-      </c>
-      <c r="AD20" s="2">
-        <f t="shared" ref="AD20:AL20" si="28">AD19*0.12</f>
-        <v>843.49621560997696</v>
-      </c>
-      <c r="AE20" s="2">
-        <f t="shared" si="28"/>
-        <v>943.00005084429768</v>
-      </c>
-      <c r="AF20" s="2">
-        <f t="shared" si="28"/>
-        <v>1021.9364108536457</v>
-      </c>
-      <c r="AG20" s="2">
-        <f t="shared" si="28"/>
-        <v>1106.4897862219441</v>
-      </c>
-      <c r="AH20" s="2">
-        <f t="shared" si="28"/>
-        <v>1203.3894399641508</v>
-      </c>
-      <c r="AI20" s="2">
-        <f t="shared" si="28"/>
-        <v>1306.6020205627294</v>
-      </c>
-      <c r="AJ20" s="2">
-        <f t="shared" si="28"/>
-        <v>1411.3883226133069</v>
-      </c>
-      <c r="AK20" s="2">
-        <f t="shared" si="28"/>
-        <v>1523.3119574544885</v>
-      </c>
-      <c r="AL20" s="2">
-        <f t="shared" si="28"/>
-        <v>1642.78247135693</v>
+      <c r="AC21" s="2">
+        <f>AC20*0.2</f>
+        <v>1509.7659523232001</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" ref="AD21:AL21" si="31">AD20*0.2</f>
+        <v>2070.0274314698759</v>
+      </c>
+      <c r="AE21" s="2">
+        <f t="shared" si="31"/>
+        <v>2400.2017287097929</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="31"/>
+        <v>2721.6777804938815</v>
+      </c>
+      <c r="AG21" s="2">
+        <f t="shared" si="31"/>
+        <v>3081.270880443004</v>
+      </c>
+      <c r="AH21" s="2">
+        <f t="shared" si="31"/>
+        <v>3493.5915408535384</v>
+      </c>
+      <c r="AI21" s="2">
+        <f t="shared" si="31"/>
+        <v>3952.3066532374273</v>
+      </c>
+      <c r="AJ21" s="2">
+        <f t="shared" si="31"/>
+        <v>4453.6522039316942</v>
+      </c>
+      <c r="AK21" s="2">
+        <f t="shared" si="31"/>
+        <v>5011.4806940319395</v>
+      </c>
+      <c r="AL21" s="2">
+        <f t="shared" si="31"/>
+        <v>5631.4999898287106</v>
       </c>
     </row>
-    <row r="21" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2">
-        <f t="shared" ref="B21:D21" si="29">B19-B20</f>
+      <c r="B22" s="2">
+        <f t="shared" ref="B22:D22" si="32">B20-B21</f>
         <v>347</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" si="29"/>
+      <c r="C22" s="2">
+        <f t="shared" si="32"/>
         <v>273</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="29"/>
+      <c r="D22" s="2">
+        <f t="shared" si="32"/>
         <v>667</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" ref="E21:F21" si="30">E19-E20</f>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22:F22" si="33">E20-E21</f>
         <v>589</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="30"/>
+      <c r="F22" s="2">
+        <f t="shared" si="33"/>
         <v>711</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" ref="G21:S21" si="31">G19-G20</f>
+      <c r="G22" s="2">
+        <f t="shared" ref="G22:S22" si="34">G20-G21</f>
         <v>722</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="31"/>
+      <c r="H22" s="2">
+        <f t="shared" si="34"/>
         <v>793</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" si="31"/>
+      <c r="I22" s="2">
+        <f t="shared" si="34"/>
         <v>544</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="31"/>
+      <c r="J22" s="2">
+        <f t="shared" si="34"/>
         <v>1709</v>
       </c>
-      <c r="K21" s="2">
-        <f t="shared" si="31"/>
+      <c r="K22" s="2">
+        <f t="shared" si="34"/>
         <v>1356</v>
       </c>
-      <c r="L21" s="2">
-        <f t="shared" si="31"/>
+      <c r="L22" s="2">
+        <f t="shared" si="34"/>
         <v>1443</v>
       </c>
-      <c r="M21" s="2">
-        <f t="shared" si="31"/>
+      <c r="M22" s="2">
+        <f t="shared" si="34"/>
         <v>609</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" si="31"/>
+      <c r="N22" s="2">
+        <f t="shared" si="34"/>
         <v>1600</v>
       </c>
-      <c r="O21" s="2">
-        <f t="shared" si="31"/>
+      <c r="O22" s="2">
+        <f t="shared" si="34"/>
         <v>1444</v>
       </c>
-      <c r="P21" s="2">
-        <f t="shared" si="31"/>
+      <c r="P22" s="2">
+        <f t="shared" si="34"/>
         <v>1401</v>
       </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="31"/>
+      <c r="Q22" s="2">
+        <f t="shared" si="34"/>
         <v>58</v>
       </c>
-      <c r="R21" s="2">
-        <f t="shared" si="31"/>
+      <c r="R22" s="2">
+        <f t="shared" si="34"/>
         <v>1308</v>
       </c>
-      <c r="S21" s="2">
-        <f t="shared" si="31"/>
+      <c r="S22" s="2">
+        <f t="shared" si="34"/>
         <v>1488.9</v>
       </c>
-      <c r="X21" s="2">
-        <f>X19-X20</f>
+      <c r="T22" s="2">
+        <f t="shared" ref="T22" si="35">T20-T21</f>
+        <v>1680</v>
+      </c>
+      <c r="X22" s="2">
+        <f>X20-X21</f>
         <v>1213</v>
       </c>
-      <c r="Y21" s="2">
-        <f>Y19-Y20</f>
+      <c r="Y22" s="2">
+        <f>Y20-Y21</f>
         <v>1867</v>
       </c>
-      <c r="Z21" s="2">
-        <f>Z19-Z20</f>
+      <c r="Z22" s="2">
+        <f>Z20-Z21</f>
         <v>2765</v>
       </c>
-      <c r="AA21" s="2">
-        <f>AA19-AA20</f>
+      <c r="AA22" s="2">
+        <f>AA20-AA21</f>
         <v>5119</v>
       </c>
-      <c r="AB21" s="2">
-        <f>AB19-AB20</f>
+      <c r="AB22" s="2">
+        <f>AB20-AB21</f>
         <v>4493</v>
       </c>
-      <c r="AC21" s="2">
-        <f t="shared" ref="AC21:AL21" si="32">AC19-AC20</f>
-        <v>5696.0155423085198</v>
-      </c>
-      <c r="AD21" s="2">
-        <f t="shared" si="32"/>
-        <v>6185.6389144731638</v>
-      </c>
-      <c r="AE21" s="2">
-        <f t="shared" si="32"/>
-        <v>6915.3337061915172</v>
-      </c>
-      <c r="AF21" s="2">
-        <f t="shared" si="32"/>
-        <v>7494.2003462600687</v>
-      </c>
-      <c r="AG21" s="2">
-        <f t="shared" si="32"/>
-        <v>8114.2584322942566</v>
-      </c>
-      <c r="AH21" s="2">
-        <f t="shared" si="32"/>
-        <v>8824.8558930704403</v>
-      </c>
-      <c r="AI21" s="2">
-        <f t="shared" si="32"/>
-        <v>9581.748150793348</v>
-      </c>
-      <c r="AJ21" s="2">
-        <f t="shared" si="32"/>
-        <v>10350.181032497583</v>
-      </c>
-      <c r="AK21" s="2">
-        <f t="shared" si="32"/>
-        <v>11170.95435466625</v>
-      </c>
-      <c r="AL21" s="2">
-        <f t="shared" si="32"/>
-        <v>12047.071456617488</v>
-      </c>
-      <c r="AM21" s="2">
-        <f>AL21*(1+$AQ$38)</f>
-        <v>11926.600742051314</v>
-      </c>
-      <c r="AN21" s="2">
-        <f t="shared" ref="AN21:CY21" si="33">AM21*(1+$AQ$38)</f>
-        <v>11807.3347346308</v>
-      </c>
-      <c r="AO21" s="2">
-        <f t="shared" si="33"/>
-        <v>11689.261387284492</v>
-      </c>
-      <c r="AP21" s="2">
-        <f t="shared" si="33"/>
-        <v>11572.368773411647</v>
-      </c>
-      <c r="AQ21" s="2">
-        <f t="shared" si="33"/>
-        <v>11456.64508567753</v>
-      </c>
-      <c r="AR21" s="2">
-        <f t="shared" si="33"/>
-        <v>11342.078634820755</v>
-      </c>
-      <c r="AS21" s="2">
-        <f t="shared" si="33"/>
-        <v>11228.657848472547</v>
-      </c>
-      <c r="AT21" s="2">
-        <f t="shared" si="33"/>
-        <v>11116.371269987822</v>
-      </c>
-      <c r="AU21" s="2">
-        <f t="shared" si="33"/>
-        <v>11005.207557287944</v>
-      </c>
-      <c r="AV21" s="2">
-        <f t="shared" si="33"/>
-        <v>10895.155481715065</v>
-      </c>
-      <c r="AW21" s="2">
-        <f t="shared" si="33"/>
-        <v>10786.203926897913</v>
-      </c>
-      <c r="AX21" s="2">
-        <f t="shared" si="33"/>
-        <v>10678.341887628934</v>
-      </c>
-      <c r="AY21" s="2">
-        <f t="shared" si="33"/>
-        <v>10571.558468752644</v>
-      </c>
-      <c r="AZ21" s="2">
-        <f t="shared" si="33"/>
-        <v>10465.842884065118</v>
-      </c>
-      <c r="BA21" s="2">
-        <f t="shared" si="33"/>
-        <v>10361.184455224466</v>
-      </c>
-      <c r="BB21" s="2">
-        <f t="shared" si="33"/>
-        <v>10257.572610672221</v>
-      </c>
-      <c r="BC21" s="2">
-        <f t="shared" si="33"/>
-        <v>10154.996884565498</v>
-      </c>
-      <c r="BD21" s="2">
-        <f t="shared" si="33"/>
-        <v>10053.446915719844</v>
-      </c>
-      <c r="BE21" s="2">
-        <f t="shared" si="33"/>
-        <v>9952.9124465626446</v>
-      </c>
-      <c r="BF21" s="2">
-        <f t="shared" si="33"/>
-        <v>9853.3833220970173</v>
-      </c>
-      <c r="BG21" s="2">
-        <f t="shared" si="33"/>
-        <v>9754.849488876047</v>
-      </c>
-      <c r="BH21" s="2">
-        <f t="shared" si="33"/>
-        <v>9657.3009939872863</v>
-      </c>
-      <c r="BI21" s="2">
-        <f t="shared" si="33"/>
-        <v>9560.727984047413</v>
-      </c>
-      <c r="BJ21" s="2">
-        <f t="shared" si="33"/>
-        <v>9465.1207042069382</v>
-      </c>
-      <c r="BK21" s="2">
-        <f t="shared" si="33"/>
-        <v>9370.4694971648696</v>
-      </c>
-      <c r="BL21" s="2">
-        <f t="shared" si="33"/>
-        <v>9276.76480219322</v>
-      </c>
-      <c r="BM21" s="2">
-        <f t="shared" si="33"/>
-        <v>9183.9971541712875</v>
-      </c>
-      <c r="BN21" s="2">
-        <f t="shared" si="33"/>
-        <v>9092.1571826295749</v>
-      </c>
-      <c r="BO21" s="2">
-        <f t="shared" si="33"/>
-        <v>9001.2356108032782</v>
-      </c>
-      <c r="BP21" s="2">
-        <f t="shared" si="33"/>
-        <v>8911.2232546952455</v>
-      </c>
-      <c r="BQ21" s="2">
-        <f t="shared" si="33"/>
-        <v>8822.1110221482922</v>
-      </c>
-      <c r="BR21" s="2">
-        <f t="shared" si="33"/>
-        <v>8733.8899119268099</v>
-      </c>
-      <c r="BS21" s="2">
-        <f t="shared" si="33"/>
-        <v>8646.5510128075421</v>
-      </c>
-      <c r="BT21" s="2">
-        <f t="shared" si="33"/>
-        <v>8560.085502679467</v>
-      </c>
-      <c r="BU21" s="2">
-        <f t="shared" si="33"/>
-        <v>8474.4846476526727</v>
-      </c>
-      <c r="BV21" s="2">
-        <f t="shared" si="33"/>
-        <v>8389.7398011761452</v>
-      </c>
-      <c r="BW21" s="2">
-        <f t="shared" si="33"/>
-        <v>8305.8424031643845</v>
-      </c>
-      <c r="BX21" s="2">
-        <f t="shared" si="33"/>
-        <v>8222.7839791327406</v>
-      </c>
-      <c r="BY21" s="2">
-        <f t="shared" si="33"/>
-        <v>8140.5561393414127</v>
-      </c>
-      <c r="BZ21" s="2">
-        <f t="shared" si="33"/>
-        <v>8059.1505779479985</v>
-      </c>
-      <c r="CA21" s="2">
-        <f t="shared" si="33"/>
-        <v>7978.5590721685185</v>
-      </c>
-      <c r="CB21" s="2">
-        <f t="shared" si="33"/>
-        <v>7898.7734814468331</v>
-      </c>
-      <c r="CC21" s="2">
-        <f t="shared" si="33"/>
-        <v>7819.7857466323649</v>
-      </c>
-      <c r="CD21" s="2">
-        <f t="shared" si="33"/>
-        <v>7741.5878891660414</v>
-      </c>
-      <c r="CE21" s="2">
-        <f t="shared" si="33"/>
-        <v>7664.1720102743811</v>
-      </c>
-      <c r="CF21" s="2">
-        <f t="shared" si="33"/>
-        <v>7587.5302901716368</v>
-      </c>
-      <c r="CG21" s="2">
-        <f t="shared" si="33"/>
-        <v>7511.6549872699206</v>
-      </c>
-      <c r="CH21" s="2">
-        <f t="shared" si="33"/>
-        <v>7436.5384373972211</v>
-      </c>
-      <c r="CI21" s="2">
-        <f t="shared" si="33"/>
-        <v>7362.1730530232489</v>
-      </c>
-      <c r="CJ21" s="2">
-        <f t="shared" si="33"/>
-        <v>7288.5513224930164</v>
-      </c>
-      <c r="CK21" s="2">
-        <f t="shared" si="33"/>
-        <v>7215.6658092680864</v>
-      </c>
-      <c r="CL21" s="2">
-        <f t="shared" si="33"/>
-        <v>7143.5091511754053</v>
-      </c>
-      <c r="CM21" s="2">
-        <f t="shared" si="33"/>
-        <v>7072.0740596636515</v>
-      </c>
-      <c r="CN21" s="2">
-        <f t="shared" si="33"/>
-        <v>7001.353319067015</v>
-      </c>
-      <c r="CO21" s="2">
-        <f t="shared" si="33"/>
-        <v>6931.3397858763446</v>
-      </c>
-      <c r="CP21" s="2">
-        <f t="shared" si="33"/>
-        <v>6862.0263880175808</v>
-      </c>
-      <c r="CQ21" s="2">
-        <f t="shared" si="33"/>
-        <v>6793.4061241374047</v>
-      </c>
-      <c r="CR21" s="2">
-        <f t="shared" si="33"/>
-        <v>6725.4720628960304</v>
-      </c>
-      <c r="CS21" s="2">
-        <f t="shared" si="33"/>
-        <v>6658.2173422670703</v>
-      </c>
-      <c r="CT21" s="2">
-        <f t="shared" si="33"/>
-        <v>6591.6351688443992</v>
-      </c>
-      <c r="CU21" s="2">
-        <f t="shared" si="33"/>
-        <v>6525.7188171559555</v>
-      </c>
-      <c r="CV21" s="2">
-        <f t="shared" si="33"/>
-        <v>6460.4616289843962</v>
-      </c>
-      <c r="CW21" s="2">
-        <f t="shared" si="33"/>
-        <v>6395.8570126945524</v>
-      </c>
-      <c r="CX21" s="2">
-        <f t="shared" si="33"/>
-        <v>6331.8984425676072</v>
-      </c>
-      <c r="CY21" s="2">
-        <f t="shared" si="33"/>
-        <v>6268.5794581419314</v>
-      </c>
-      <c r="CZ21" s="2">
-        <f t="shared" ref="CZ21:FK21" si="34">CY21*(1+$AQ$38)</f>
-        <v>6205.8936635605123</v>
-      </c>
-      <c r="DA21" s="2">
-        <f t="shared" si="34"/>
-        <v>6143.834726924907</v>
-      </c>
-      <c r="DB21" s="2">
-        <f t="shared" si="34"/>
-        <v>6082.3963796556582</v>
-      </c>
-      <c r="DC21" s="2">
-        <f t="shared" si="34"/>
-        <v>6021.572415859102</v>
-      </c>
-      <c r="DD21" s="2">
-        <f t="shared" si="34"/>
-        <v>5961.356691700511</v>
-      </c>
-      <c r="DE21" s="2">
-        <f t="shared" si="34"/>
-        <v>5901.7431247835057</v>
-      </c>
-      <c r="DF21" s="2">
-        <f t="shared" si="34"/>
-        <v>5842.7256935356709</v>
-      </c>
-      <c r="DG21" s="2">
-        <f t="shared" si="34"/>
-        <v>5784.2984366003138</v>
-      </c>
-      <c r="DH21" s="2">
-        <f t="shared" si="34"/>
-        <v>5726.4554522343105</v>
-      </c>
-      <c r="DI21" s="2">
-        <f t="shared" si="34"/>
-        <v>5669.1908977119674</v>
-      </c>
-      <c r="DJ21" s="2">
-        <f t="shared" si="34"/>
-        <v>5612.4989887348474</v>
-      </c>
-      <c r="DK21" s="2">
-        <f t="shared" si="34"/>
-        <v>5556.373998847499</v>
-      </c>
-      <c r="DL21" s="2">
-        <f t="shared" si="34"/>
-        <v>5500.8102588590236</v>
-      </c>
-      <c r="DM21" s="2">
-        <f t="shared" si="34"/>
-        <v>5445.8021562704334</v>
-      </c>
-      <c r="DN21" s="2">
-        <f t="shared" si="34"/>
-        <v>5391.3441347077287</v>
-      </c>
-      <c r="DO21" s="2">
-        <f t="shared" si="34"/>
-        <v>5337.4306933606513</v>
-      </c>
-      <c r="DP21" s="2">
-        <f t="shared" si="34"/>
-        <v>5284.0563864270443</v>
-      </c>
-      <c r="DQ21" s="2">
-        <f t="shared" si="34"/>
-        <v>5231.2158225627736</v>
-      </c>
-      <c r="DR21" s="2">
-        <f t="shared" si="34"/>
-        <v>5178.9036643371455</v>
-      </c>
-      <c r="DS21" s="2">
-        <f t="shared" si="34"/>
-        <v>5127.1146276937743</v>
-      </c>
-      <c r="DT21" s="2">
-        <f t="shared" si="34"/>
-        <v>5075.8434814168368</v>
-      </c>
-      <c r="DU21" s="2">
-        <f t="shared" si="34"/>
-        <v>5025.0850466026686</v>
-      </c>
-      <c r="DV21" s="2">
-        <f t="shared" si="34"/>
-        <v>4974.8341961366423</v>
-      </c>
-      <c r="DW21" s="2">
-        <f t="shared" si="34"/>
-        <v>4925.0858541752759</v>
-      </c>
-      <c r="DX21" s="2">
-        <f t="shared" si="34"/>
-        <v>4875.8349956335232</v>
-      </c>
-      <c r="DY21" s="2">
-        <f t="shared" si="34"/>
-        <v>4827.076645677188</v>
-      </c>
-      <c r="DZ21" s="2">
-        <f t="shared" si="34"/>
-        <v>4778.8058792204165</v>
-      </c>
-      <c r="EA21" s="2">
-        <f t="shared" si="34"/>
-        <v>4731.017820428212</v>
-      </c>
-      <c r="EB21" s="2">
-        <f t="shared" si="34"/>
-        <v>4683.7076422239297</v>
-      </c>
-      <c r="EC21" s="2">
-        <f t="shared" si="34"/>
-        <v>4636.8705658016906</v>
-      </c>
-      <c r="ED21" s="2">
-        <f t="shared" si="34"/>
-        <v>4590.5018601436741</v>
-      </c>
-      <c r="EE21" s="2">
-        <f t="shared" si="34"/>
-        <v>4544.5968415422376</v>
-      </c>
-      <c r="EF21" s="2">
-        <f t="shared" si="34"/>
-        <v>4499.150873126815</v>
-      </c>
-      <c r="EG21" s="2">
-        <f t="shared" si="34"/>
-        <v>4454.1593643955466</v>
-      </c>
-      <c r="EH21" s="2">
-        <f t="shared" si="34"/>
-        <v>4409.6177707515908</v>
-      </c>
-      <c r="EI21" s="2">
-        <f t="shared" si="34"/>
-        <v>4365.5215930440745</v>
-      </c>
-      <c r="EJ21" s="2">
-        <f t="shared" si="34"/>
-        <v>4321.8663771136335</v>
-      </c>
-      <c r="EK21" s="2">
-        <f t="shared" si="34"/>
-        <v>4278.6477133424969</v>
-      </c>
-      <c r="EL21" s="2">
-        <f t="shared" si="34"/>
-        <v>4235.8612362090716</v>
-      </c>
-      <c r="EM21" s="2">
-        <f t="shared" si="34"/>
-        <v>4193.5026238469809</v>
-      </c>
-      <c r="EN21" s="2">
-        <f t="shared" si="34"/>
-        <v>4151.5675976085113</v>
-      </c>
-      <c r="EO21" s="2">
-        <f t="shared" si="34"/>
-        <v>4110.0519216324265</v>
-      </c>
-      <c r="EP21" s="2">
-        <f t="shared" si="34"/>
-        <v>4068.9514024161022</v>
-      </c>
-      <c r="EQ21" s="2">
-        <f t="shared" si="34"/>
-        <v>4028.2618883919413</v>
-      </c>
-      <c r="ER21" s="2">
-        <f t="shared" si="34"/>
-        <v>3987.9792695080218</v>
-      </c>
-      <c r="ES21" s="2">
-        <f t="shared" si="34"/>
-        <v>3948.0994768129417</v>
-      </c>
-      <c r="ET21" s="2">
-        <f t="shared" si="34"/>
-        <v>3908.618482044812</v>
-      </c>
-      <c r="EU21" s="2">
-        <f t="shared" si="34"/>
-        <v>3869.5322972243639</v>
-      </c>
-      <c r="EV21" s="2">
-        <f t="shared" si="34"/>
-        <v>3830.8369742521204</v>
-      </c>
-      <c r="EW21" s="2">
-        <f t="shared" si="34"/>
-        <v>3792.5286045095991</v>
-      </c>
-      <c r="EX21" s="2">
-        <f t="shared" si="34"/>
-        <v>3754.603318464503</v>
-      </c>
-      <c r="EY21" s="2">
-        <f t="shared" si="34"/>
-        <v>3717.0572852798578</v>
-      </c>
-      <c r="EZ21" s="2">
-        <f t="shared" si="34"/>
-        <v>3679.8867124270591</v>
-      </c>
-      <c r="FA21" s="2">
-        <f t="shared" si="34"/>
-        <v>3643.0878453027885</v>
-      </c>
-      <c r="FB21" s="2">
-        <f t="shared" si="34"/>
-        <v>3606.6569668497605</v>
-      </c>
-      <c r="FC21" s="2">
-        <f t="shared" si="34"/>
-        <v>3570.5903971812627</v>
-      </c>
-      <c r="FD21" s="2">
-        <f t="shared" si="34"/>
-        <v>3534.8844932094498</v>
-      </c>
-      <c r="FE21" s="2">
-        <f t="shared" si="34"/>
-        <v>3499.5356482773554</v>
-      </c>
-      <c r="FF21" s="2">
-        <f t="shared" si="34"/>
-        <v>3464.5402917945817</v>
-      </c>
-      <c r="FG21" s="2">
-        <f t="shared" si="34"/>
-        <v>3429.8948888766358</v>
-      </c>
-      <c r="FH21" s="2">
-        <f t="shared" si="34"/>
-        <v>3395.5959399878693</v>
-      </c>
-      <c r="FI21" s="2">
-        <f t="shared" si="34"/>
-        <v>3361.6399805879905</v>
-      </c>
-      <c r="FJ21" s="2">
-        <f t="shared" si="34"/>
-        <v>3328.0235807821105</v>
-      </c>
-      <c r="FK21" s="2">
-        <f t="shared" si="34"/>
-        <v>3294.7433449742894</v>
-      </c>
-      <c r="FL21" s="2">
-        <f t="shared" ref="FL21:HW21" si="35">FK21*(1+$AQ$38)</f>
-        <v>3261.7959115245462</v>
-      </c>
-      <c r="FM21" s="2">
-        <f t="shared" si="35"/>
-        <v>3229.1779524093008</v>
-      </c>
-      <c r="FN21" s="2">
-        <f t="shared" si="35"/>
-        <v>3196.886172885208</v>
-      </c>
-      <c r="FO21" s="2">
-        <f t="shared" si="35"/>
-        <v>3164.9173111563559</v>
-      </c>
-      <c r="FP21" s="2">
-        <f t="shared" si="35"/>
-        <v>3133.2681380447925</v>
-      </c>
-      <c r="FQ21" s="2">
-        <f t="shared" si="35"/>
-        <v>3101.9354566643447</v>
-      </c>
-      <c r="FR21" s="2">
-        <f t="shared" si="35"/>
-        <v>3070.9161020977012</v>
-      </c>
-      <c r="FS21" s="2">
-        <f t="shared" si="35"/>
-        <v>3040.206941076724</v>
-      </c>
-      <c r="FT21" s="2">
-        <f t="shared" si="35"/>
-        <v>3009.8048716659569</v>
-      </c>
-      <c r="FU21" s="2">
-        <f t="shared" si="35"/>
-        <v>2979.7068229492975</v>
-      </c>
-      <c r="FV21" s="2">
-        <f t="shared" si="35"/>
-        <v>2949.9097547198044</v>
-      </c>
-      <c r="FW21" s="2">
-        <f t="shared" si="35"/>
-        <v>2920.4106571726061</v>
-      </c>
-      <c r="FX21" s="2">
-        <f t="shared" si="35"/>
-        <v>2891.2065506008798</v>
-      </c>
-      <c r="FY21" s="2">
-        <f t="shared" si="35"/>
-        <v>2862.2944850948711</v>
-      </c>
-      <c r="FZ21" s="2">
-        <f t="shared" si="35"/>
-        <v>2833.6715402439222</v>
-      </c>
-      <c r="GA21" s="2">
-        <f t="shared" si="35"/>
-        <v>2805.3348248414832</v>
-      </c>
-      <c r="GB21" s="2">
-        <f t="shared" si="35"/>
-        <v>2777.2814765930684</v>
-      </c>
-      <c r="GC21" s="2">
-        <f t="shared" si="35"/>
-        <v>2749.5086618271375</v>
-      </c>
-      <c r="GD21" s="2">
-        <f t="shared" si="35"/>
-        <v>2722.0135752088663</v>
-      </c>
-      <c r="GE21" s="2">
-        <f t="shared" si="35"/>
-        <v>2694.7934394567778</v>
-      </c>
-      <c r="GF21" s="2">
-        <f t="shared" si="35"/>
-        <v>2667.8455050622101</v>
-      </c>
-      <c r="GG21" s="2">
-        <f t="shared" si="35"/>
-        <v>2641.1670500115879</v>
-      </c>
-      <c r="GH21" s="2">
-        <f t="shared" si="35"/>
-        <v>2614.7553795114718</v>
-      </c>
-      <c r="GI21" s="2">
-        <f t="shared" si="35"/>
-        <v>2588.6078257163572</v>
-      </c>
-      <c r="GJ21" s="2">
-        <f t="shared" si="35"/>
-        <v>2562.7217474591935</v>
-      </c>
-      <c r="GK21" s="2">
-        <f t="shared" si="35"/>
-        <v>2537.0945299846016</v>
-      </c>
-      <c r="GL21" s="2">
-        <f t="shared" si="35"/>
-        <v>2511.7235846847557</v>
-      </c>
-      <c r="GM21" s="2">
-        <f t="shared" si="35"/>
-        <v>2486.6063488379082</v>
-      </c>
-      <c r="GN21" s="2">
-        <f t="shared" si="35"/>
-        <v>2461.7402853495291</v>
-      </c>
-      <c r="GO21" s="2">
-        <f t="shared" si="35"/>
-        <v>2437.122882496034</v>
-      </c>
-      <c r="GP21" s="2">
-        <f t="shared" si="35"/>
-        <v>2412.7516536710737</v>
-      </c>
-      <c r="GQ21" s="2">
-        <f t="shared" si="35"/>
-        <v>2388.6241371343631</v>
-      </c>
-      <c r="GR21" s="2">
-        <f t="shared" si="35"/>
-        <v>2364.7378957630194</v>
-      </c>
-      <c r="GS21" s="2">
-        <f t="shared" si="35"/>
-        <v>2341.0905168053891</v>
-      </c>
-      <c r="GT21" s="2">
-        <f t="shared" si="35"/>
-        <v>2317.6796116373353</v>
-      </c>
-      <c r="GU21" s="2">
-        <f t="shared" si="35"/>
-        <v>2294.502815520962</v>
-      </c>
-      <c r="GV21" s="2">
-        <f t="shared" si="35"/>
-        <v>2271.5577873657526</v>
-      </c>
-      <c r="GW21" s="2">
-        <f t="shared" si="35"/>
-        <v>2248.8422094920952</v>
-      </c>
-      <c r="GX21" s="2">
-        <f t="shared" si="35"/>
-        <v>2226.3537873971741</v>
-      </c>
-      <c r="GY21" s="2">
-        <f t="shared" si="35"/>
-        <v>2204.0902495232021</v>
-      </c>
-      <c r="GZ21" s="2">
-        <f t="shared" si="35"/>
-        <v>2182.0493470279703</v>
-      </c>
-      <c r="HA21" s="2">
-        <f t="shared" si="35"/>
-        <v>2160.2288535576904</v>
-      </c>
-      <c r="HB21" s="2">
-        <f t="shared" si="35"/>
-        <v>2138.6265650221135</v>
-      </c>
-      <c r="HC21" s="2">
-        <f t="shared" si="35"/>
-        <v>2117.2402993718924</v>
-      </c>
-      <c r="HD21" s="2">
-        <f t="shared" si="35"/>
-        <v>2096.0678963781734</v>
-      </c>
-      <c r="HE21" s="2">
-        <f t="shared" si="35"/>
-        <v>2075.1072174143915</v>
-      </c>
-      <c r="HF21" s="2">
-        <f t="shared" si="35"/>
-        <v>2054.3561452402473</v>
-      </c>
-      <c r="HG21" s="2">
-        <f t="shared" si="35"/>
-        <v>2033.8125837878449</v>
-      </c>
-      <c r="HH21" s="2">
-        <f t="shared" si="35"/>
-        <v>2013.4744579499663</v>
-      </c>
-      <c r="HI21" s="2">
-        <f t="shared" si="35"/>
-        <v>1993.3397133704666</v>
-      </c>
-      <c r="HJ21" s="2">
-        <f t="shared" si="35"/>
-        <v>1973.406316236762</v>
-      </c>
-      <c r="HK21" s="2">
-        <f t="shared" si="35"/>
-        <v>1953.6722530743943</v>
-      </c>
-      <c r="HL21" s="2">
-        <f t="shared" si="35"/>
-        <v>1934.1355305436505</v>
-      </c>
-      <c r="HM21" s="2">
-        <f t="shared" si="35"/>
-        <v>1914.7941752382139</v>
-      </c>
-      <c r="HN21" s="2">
-        <f t="shared" si="35"/>
-        <v>1895.6462334858318</v>
-      </c>
-      <c r="HO21" s="2">
-        <f t="shared" si="35"/>
-        <v>1876.6897711509735</v>
-      </c>
-      <c r="HP21" s="2">
-        <f t="shared" si="35"/>
-        <v>1857.9228734394637</v>
-      </c>
-      <c r="HQ21" s="2">
-        <f t="shared" si="35"/>
-        <v>1839.343644705069</v>
-      </c>
-      <c r="HR21" s="2">
-        <f t="shared" si="35"/>
-        <v>1820.9502082580182</v>
-      </c>
-      <c r="HS21" s="2">
-        <f t="shared" si="35"/>
-        <v>1802.7407061754379</v>
-      </c>
-      <c r="HT21" s="2">
-        <f t="shared" si="35"/>
-        <v>1784.7132991136834</v>
-      </c>
-      <c r="HU21" s="2">
-        <f t="shared" si="35"/>
-        <v>1766.8661661225465</v>
-      </c>
-      <c r="HV21" s="2">
-        <f t="shared" si="35"/>
-        <v>1749.1975044613209</v>
-      </c>
-      <c r="HW21" s="2">
-        <f t="shared" si="35"/>
-        <v>1731.7055294167078</v>
-      </c>
-      <c r="HX21" s="2">
-        <f t="shared" ref="HX21:KI21" si="36">HW21*(1+$AQ$38)</f>
-        <v>1714.3884741225406</v>
-      </c>
-      <c r="HY21" s="2">
+      <c r="AC22" s="2">
+        <f t="shared" ref="AC22:AL22" si="36">AC20-AC21</f>
+        <v>6039.0638092928002</v>
+      </c>
+      <c r="AD22" s="2">
         <f t="shared" si="36"/>
-        <v>1697.2445893813151</v>
-      </c>
-      <c r="HZ21" s="2">
+        <v>8280.1097258795016</v>
+      </c>
+      <c r="AE22" s="2">
         <f t="shared" si="36"/>
-        <v>1680.272143487502</v>
-      </c>
-      <c r="IA21" s="2">
+        <v>9600.8069148391714</v>
+      </c>
+      <c r="AF22" s="2">
         <f t="shared" si="36"/>
-        <v>1663.4694220526269</v>
-      </c>
-      <c r="IB21" s="2">
+        <v>10886.711121975526</v>
+      </c>
+      <c r="AG22" s="2">
         <f t="shared" si="36"/>
-        <v>1646.8347278321007</v>
-      </c>
-      <c r="IC21" s="2">
+        <v>12325.083521772016</v>
+      </c>
+      <c r="AH22" s="2">
         <f t="shared" si="36"/>
-        <v>1630.3663805537797</v>
-      </c>
-      <c r="ID21" s="2">
+        <v>13974.366163414152</v>
+      </c>
+      <c r="AI22" s="2">
         <f t="shared" si="36"/>
-        <v>1614.0627167482419</v>
-      </c>
-      <c r="IE21" s="2">
+        <v>15809.226612949709</v>
+      </c>
+      <c r="AJ22" s="2">
         <f t="shared" si="36"/>
-        <v>1597.9220895807593</v>
-      </c>
-      <c r="IF21" s="2">
+        <v>17814.608815726777</v>
+      </c>
+      <c r="AK22" s="2">
         <f t="shared" si="36"/>
-        <v>1581.9428686849517</v>
-      </c>
-      <c r="IG21" s="2">
+        <v>20045.922776127754</v>
+      </c>
+      <c r="AL22" s="2">
         <f t="shared" si="36"/>
-        <v>1566.1234399981022</v>
-      </c>
-      <c r="IH21" s="2">
-        <f t="shared" si="36"/>
-        <v>1550.462205598121</v>
-      </c>
-      <c r="II21" s="2">
-        <f t="shared" si="36"/>
-        <v>1534.9575835421399</v>
-      </c>
-      <c r="IJ21" s="2">
-        <f t="shared" si="36"/>
-        <v>1519.6080077067186</v>
-      </c>
-      <c r="IK21" s="2">
-        <f t="shared" si="36"/>
-        <v>1504.4119276296515</v>
-      </c>
-      <c r="IL21" s="2">
-        <f t="shared" si="36"/>
-        <v>1489.367808353355</v>
-      </c>
-      <c r="IM21" s="2">
-        <f t="shared" si="36"/>
-        <v>1474.4741302698214</v>
-      </c>
-      <c r="IN21" s="2">
-        <f t="shared" si="36"/>
-        <v>1459.7293889671232</v>
-      </c>
-      <c r="IO21" s="2">
-        <f t="shared" si="36"/>
-        <v>1445.132095077452</v>
-      </c>
-      <c r="IP21" s="2">
-        <f t="shared" si="36"/>
-        <v>1430.6807741266775</v>
-      </c>
-      <c r="IQ21" s="2">
-        <f t="shared" si="36"/>
-        <v>1416.3739663854108</v>
-      </c>
-      <c r="IR21" s="2">
-        <f t="shared" si="36"/>
-        <v>1402.2102267215566</v>
-      </c>
-      <c r="IS21" s="2">
-        <f t="shared" si="36"/>
-        <v>1388.1881244543411</v>
-      </c>
-      <c r="IT21" s="2">
-        <f t="shared" si="36"/>
-        <v>1374.3062432097977</v>
-      </c>
-      <c r="IU21" s="2">
-        <f t="shared" si="36"/>
-        <v>1360.5631807776997</v>
-      </c>
-      <c r="IV21" s="2">
-        <f t="shared" si="36"/>
-        <v>1346.9575489699228</v>
-      </c>
-      <c r="IW21" s="2">
-        <f t="shared" si="36"/>
-        <v>1333.4879734802234</v>
-      </c>
-      <c r="IX21" s="2">
-        <f t="shared" si="36"/>
-        <v>1320.1530937454213</v>
-      </c>
-      <c r="IY21" s="2">
-        <f t="shared" si="36"/>
-        <v>1306.9515628079671</v>
-      </c>
-      <c r="IZ21" s="2">
-        <f t="shared" si="36"/>
-        <v>1293.8820471798874</v>
-      </c>
-      <c r="JA21" s="2">
-        <f t="shared" si="36"/>
-        <v>1280.9432267080886</v>
-      </c>
-      <c r="JB21" s="2">
-        <f t="shared" si="36"/>
-        <v>1268.1337944410077</v>
-      </c>
-      <c r="JC21" s="2">
-        <f t="shared" si="36"/>
-        <v>1255.4524564965975</v>
-      </c>
-      <c r="JD21" s="2">
-        <f t="shared" si="36"/>
-        <v>1242.8979319316315</v>
-      </c>
-      <c r="JE21" s="2">
-        <f t="shared" si="36"/>
-        <v>1230.4689526123152</v>
-      </c>
-      <c r="JF21" s="2">
-        <f t="shared" si="36"/>
-        <v>1218.164263086192</v>
-      </c>
-      <c r="JG21" s="2">
-        <f t="shared" si="36"/>
-        <v>1205.9826204553301</v>
-      </c>
-      <c r="JH21" s="2">
-        <f t="shared" si="36"/>
-        <v>1193.9227942507769</v>
-      </c>
-      <c r="JI21" s="2">
-        <f t="shared" si="36"/>
-        <v>1181.983566308269</v>
-      </c>
-      <c r="JJ21" s="2">
-        <f t="shared" si="36"/>
-        <v>1170.1637306451862</v>
-      </c>
-      <c r="JK21" s="2">
-        <f t="shared" si="36"/>
-        <v>1158.4620933387343</v>
-      </c>
-      <c r="JL21" s="2">
-        <f t="shared" si="36"/>
-        <v>1146.8774724053469</v>
-      </c>
-      <c r="JM21" s="2">
-        <f t="shared" si="36"/>
-        <v>1135.4086976812935</v>
-      </c>
-      <c r="JN21" s="2">
-        <f t="shared" si="36"/>
-        <v>1124.0546107044804</v>
-      </c>
-      <c r="JO21" s="2">
-        <f t="shared" si="36"/>
-        <v>1112.8140645974356</v>
-      </c>
-      <c r="JP21" s="2">
-        <f t="shared" si="36"/>
-        <v>1101.6859239514613</v>
-      </c>
-      <c r="JQ21" s="2">
-        <f t="shared" si="36"/>
-        <v>1090.6690647119467</v>
-      </c>
-      <c r="JR21" s="2">
-        <f t="shared" si="36"/>
-        <v>1079.7623740648273</v>
-      </c>
-      <c r="JS21" s="2">
-        <f t="shared" si="36"/>
-        <v>1068.964750324179</v>
-      </c>
-      <c r="JT21" s="2">
-        <f t="shared" si="36"/>
-        <v>1058.2751028209373</v>
-      </c>
-      <c r="JU21" s="2">
-        <f t="shared" si="36"/>
-        <v>1047.6923517927278</v>
-      </c>
-      <c r="JV21" s="2">
-        <f t="shared" si="36"/>
-        <v>1037.2154282748004</v>
-      </c>
-      <c r="JW21" s="2">
-        <f t="shared" si="36"/>
-        <v>1026.8432739920524</v>
-      </c>
-      <c r="JX21" s="2">
-        <f t="shared" si="36"/>
-        <v>1016.5748412521319</v>
-      </c>
-      <c r="JY21" s="2">
-        <f t="shared" si="36"/>
-        <v>1006.4090928396106</v>
-      </c>
-      <c r="JZ21" s="2">
-        <f t="shared" si="36"/>
-        <v>996.34500191121447</v>
-      </c>
-      <c r="KA21" s="2">
-        <f t="shared" si="36"/>
-        <v>986.38155189210227</v>
-      </c>
-      <c r="KB21" s="2">
-        <f t="shared" si="36"/>
-        <v>976.51773637318126</v>
-      </c>
-      <c r="KC21" s="2">
-        <f t="shared" si="36"/>
-        <v>966.75255900944944</v>
-      </c>
-      <c r="KD21" s="2">
-        <f t="shared" si="36"/>
-        <v>957.08503341935489</v>
-      </c>
-      <c r="KE21" s="2">
-        <f t="shared" si="36"/>
-        <v>947.51418308516133</v>
-      </c>
-      <c r="KF21" s="2">
-        <f t="shared" si="36"/>
-        <v>938.03904125430972</v>
-      </c>
-      <c r="KG21" s="2">
-        <f t="shared" si="36"/>
-        <v>928.65865084176664</v>
-      </c>
-      <c r="KH21" s="2">
-        <f t="shared" si="36"/>
-        <v>919.37206433334893</v>
-      </c>
-      <c r="KI21" s="2">
-        <f t="shared" si="36"/>
-        <v>910.17834369001548</v>
-      </c>
-      <c r="KJ21" s="2">
-        <f t="shared" ref="KJ21:MU21" si="37">KI21*(1+$AQ$38)</f>
-        <v>901.0765602531153</v>
-      </c>
-      <c r="KK21" s="2">
+        <v>22525.999959314842</v>
+      </c>
+      <c r="AM22" s="2">
+        <f>AL22*(1+$AQ$39)</f>
+        <v>22300.739959721694</v>
+      </c>
+      <c r="AN22" s="2">
+        <f t="shared" ref="AN22:CY22" si="37">AM22*(1+$AQ$39)</f>
+        <v>22077.732560124477</v>
+      </c>
+      <c r="AO22" s="2">
         <f t="shared" si="37"/>
-        <v>892.06579465058417</v>
-      </c>
-      <c r="KL21" s="2">
+        <v>21856.955234523233</v>
+      </c>
+      <c r="AP22" s="2">
         <f t="shared" si="37"/>
-        <v>883.14513670407837</v>
-      </c>
-      <c r="KM21" s="2">
+        <v>21638.385682177999</v>
+      </c>
+      <c r="AQ22" s="2">
         <f t="shared" si="37"/>
-        <v>874.31368533703755</v>
-      </c>
-      <c r="KN21" s="2">
+        <v>21422.001825356219</v>
+      </c>
+      <c r="AR22" s="2">
         <f t="shared" si="37"/>
-        <v>865.57054848366715</v>
-      </c>
-      <c r="KO21" s="2">
+        <v>21207.781807102656</v>
+      </c>
+      <c r="AS22" s="2">
         <f t="shared" si="37"/>
-        <v>856.91484299883052</v>
-      </c>
-      <c r="KP21" s="2">
+        <v>20995.70398903163</v>
+      </c>
+      <c r="AT22" s="2">
         <f t="shared" si="37"/>
-        <v>848.34569456884219</v>
-      </c>
-      <c r="KQ21" s="2">
+        <v>20785.746949141314</v>
+      </c>
+      <c r="AU22" s="2">
         <f t="shared" si="37"/>
-        <v>839.86223762315376</v>
-      </c>
-      <c r="KR21" s="2">
+        <v>20577.889479649901</v>
+      </c>
+      <c r="AV22" s="2">
         <f t="shared" si="37"/>
-        <v>831.46361524692225</v>
-      </c>
-      <c r="KS21" s="2">
+        <v>20372.110584853403</v>
+      </c>
+      <c r="AW22" s="2">
         <f t="shared" si="37"/>
-        <v>823.14897909445301</v>
-      </c>
-      <c r="KT21" s="2">
+        <v>20168.389479004869</v>
+      </c>
+      <c r="AX22" s="2">
         <f t="shared" si="37"/>
-        <v>814.91748930350843</v>
-      </c>
-      <c r="KU21" s="2">
+        <v>19966.705584214818</v>
+      </c>
+      <c r="AY22" s="2">
         <f t="shared" si="37"/>
-        <v>806.76831441047329</v>
-      </c>
-      <c r="KV21" s="2">
+        <v>19767.038528372668</v>
+      </c>
+      <c r="AZ22" s="2">
         <f t="shared" si="37"/>
-        <v>798.70063126636853</v>
-      </c>
-      <c r="KW21" s="2">
+        <v>19569.368143088941</v>
+      </c>
+      <c r="BA22" s="2">
         <f t="shared" si="37"/>
-        <v>790.71362495370488</v>
-      </c>
-      <c r="KX21" s="2">
+        <v>19373.674461658051</v>
+      </c>
+      <c r="BB22" s="2">
         <f t="shared" si="37"/>
-        <v>782.8064887041678</v>
-      </c>
-      <c r="KY21" s="2">
+        <v>19179.93771704147</v>
+      </c>
+      <c r="BC22" s="2">
         <f t="shared" si="37"/>
-        <v>774.9784238171261</v>
-      </c>
-      <c r="KZ21" s="2">
+        <v>18988.138339871057</v>
+      </c>
+      <c r="BD22" s="2">
         <f t="shared" si="37"/>
-        <v>767.22863957895481</v>
-      </c>
-      <c r="LA21" s="2">
+        <v>18798.256956472345</v>
+      </c>
+      <c r="BE22" s="2">
         <f t="shared" si="37"/>
-        <v>759.55635318316524</v>
-      </c>
-      <c r="LB21" s="2">
+        <v>18610.274386907622</v>
+      </c>
+      <c r="BF22" s="2">
         <f t="shared" si="37"/>
-        <v>751.96078965133358</v>
-      </c>
-      <c r="LC21" s="2">
+        <v>18424.171643038546</v>
+      </c>
+      <c r="BG22" s="2">
         <f t="shared" si="37"/>
-        <v>744.44118175482026</v>
-      </c>
-      <c r="LD21" s="2">
+        <v>18239.929926608162</v>
+      </c>
+      <c r="BH22" s="2">
         <f t="shared" si="37"/>
-        <v>736.99676993727201</v>
-      </c>
-      <c r="LE21" s="2">
+        <v>18057.530627342079</v>
+      </c>
+      <c r="BI22" s="2">
         <f t="shared" si="37"/>
-        <v>729.62680223789926</v>
-      </c>
-      <c r="LF21" s="2">
+        <v>17876.955321068657</v>
+      </c>
+      <c r="BJ22" s="2">
         <f t="shared" si="37"/>
-        <v>722.33053421552029</v>
-      </c>
-      <c r="LG21" s="2">
+        <v>17698.185767857969</v>
+      </c>
+      <c r="BK22" s="2">
         <f t="shared" si="37"/>
-        <v>715.1072288733651</v>
-      </c>
-      <c r="LH21" s="2">
+        <v>17521.203910179389</v>
+      </c>
+      <c r="BL22" s="2">
         <f t="shared" si="37"/>
-        <v>707.95615658463146</v>
-      </c>
-      <c r="LI21" s="2">
+        <v>17345.991871077596</v>
+      </c>
+      <c r="BM22" s="2">
         <f t="shared" si="37"/>
-        <v>700.87659501878511</v>
-      </c>
-      <c r="LJ21" s="2">
+        <v>17172.531952366819</v>
+      </c>
+      <c r="BN22" s="2">
         <f t="shared" si="37"/>
-        <v>693.8678290685973</v>
-      </c>
-      <c r="LK21" s="2">
+        <v>17000.806632843149</v>
+      </c>
+      <c r="BO22" s="2">
         <f t="shared" si="37"/>
-        <v>686.92915077791133</v>
-      </c>
-      <c r="LL21" s="2">
+        <v>16830.798566514717</v>
+      </c>
+      <c r="BP22" s="2">
         <f t="shared" si="37"/>
-        <v>680.05985927013216</v>
-      </c>
-      <c r="LM21" s="2">
+        <v>16662.490580849571</v>
+      </c>
+      <c r="BQ22" s="2">
         <f t="shared" si="37"/>
-        <v>673.2592606774308</v>
-      </c>
-      <c r="LN21" s="2">
+        <v>16495.865675041077</v>
+      </c>
+      <c r="BR22" s="2">
         <f t="shared" si="37"/>
-        <v>666.52666807065646</v>
-      </c>
-      <c r="LO21" s="2">
+        <v>16330.907018290667</v>
+      </c>
+      <c r="BS22" s="2">
         <f t="shared" si="37"/>
-        <v>659.86140138994983</v>
-      </c>
-      <c r="LP21" s="2">
+        <v>16167.597948107761</v>
+      </c>
+      <c r="BT22" s="2">
         <f t="shared" si="37"/>
-        <v>653.26278737605037</v>
-      </c>
-      <c r="LQ21" s="2">
+        <v>16005.921968626684</v>
+      </c>
+      <c r="BU22" s="2">
         <f t="shared" si="37"/>
-        <v>646.73015950228989</v>
-      </c>
-      <c r="LR21" s="2">
+        <v>15845.862748940417</v>
+      </c>
+      <c r="BV22" s="2">
         <f t="shared" si="37"/>
-        <v>640.26285790726695</v>
-      </c>
-      <c r="LS21" s="2">
+        <v>15687.404121451013</v>
+      </c>
+      <c r="BW22" s="2">
         <f t="shared" si="37"/>
-        <v>633.86022932819424</v>
-      </c>
-      <c r="LT21" s="2">
+        <v>15530.530080236502</v>
+      </c>
+      <c r="BX22" s="2">
         <f t="shared" si="37"/>
-        <v>627.52162703491229</v>
-      </c>
-      <c r="LU21" s="2">
+        <v>15375.224779434137</v>
+      </c>
+      <c r="BY22" s="2">
         <f t="shared" si="37"/>
-        <v>621.24641076456317</v>
-      </c>
-      <c r="LV21" s="2">
+        <v>15221.472531639794</v>
+      </c>
+      <c r="BZ22" s="2">
         <f t="shared" si="37"/>
-        <v>615.03394665691758</v>
-      </c>
-      <c r="LW21" s="2">
+        <v>15069.257806323396</v>
+      </c>
+      <c r="CA22" s="2">
         <f t="shared" si="37"/>
-        <v>608.88360719034836</v>
-      </c>
-      <c r="LX21" s="2">
+        <v>14918.565228260162</v>
+      </c>
+      <c r="CB22" s="2">
         <f t="shared" si="37"/>
-        <v>602.79477111844483</v>
-      </c>
-      <c r="LY21" s="2">
+        <v>14769.37957597756</v>
+      </c>
+      <c r="CC22" s="2">
         <f t="shared" si="37"/>
-        <v>596.7668234072604</v>
-      </c>
-      <c r="LZ21" s="2">
+        <v>14621.685780217784</v>
+      </c>
+      <c r="CD22" s="2">
         <f t="shared" si="37"/>
-        <v>590.79915517318784</v>
-      </c>
-      <c r="MA21" s="2">
+        <v>14475.468922415606</v>
+      </c>
+      <c r="CE22" s="2">
         <f t="shared" si="37"/>
-        <v>584.89116362145592</v>
-      </c>
-      <c r="MB21" s="2">
+        <v>14330.714233191451</v>
+      </c>
+      <c r="CF22" s="2">
         <f t="shared" si="37"/>
-        <v>579.04225198524136</v>
-      </c>
-      <c r="MC21" s="2">
+        <v>14187.407090859537</v>
+      </c>
+      <c r="CG22" s="2">
         <f t="shared" si="37"/>
-        <v>573.25182946538894</v>
-      </c>
-      <c r="MD21" s="2">
+        <v>14045.533019950941</v>
+      </c>
+      <c r="CH22" s="2">
         <f t="shared" si="37"/>
-        <v>567.51931117073502</v>
-      </c>
-      <c r="ME21" s="2">
+        <v>13905.077689751432</v>
+      </c>
+      <c r="CI22" s="2">
         <f t="shared" si="37"/>
-        <v>561.84411805902766</v>
-      </c>
-      <c r="MF21" s="2">
+        <v>13766.026912853917</v>
+      </c>
+      <c r="CJ22" s="2">
         <f t="shared" si="37"/>
-        <v>556.22567687843741</v>
-      </c>
-      <c r="MG21" s="2">
+        <v>13628.366643725378</v>
+      </c>
+      <c r="CK22" s="2">
         <f t="shared" si="37"/>
-        <v>550.66342010965309</v>
-      </c>
-      <c r="MH21" s="2">
+        <v>13492.082977288124</v>
+      </c>
+      <c r="CL22" s="2">
         <f t="shared" si="37"/>
-        <v>545.15678590855657</v>
-      </c>
-      <c r="MI21" s="2">
+        <v>13357.162147515242</v>
+      </c>
+      <c r="CM22" s="2">
         <f t="shared" si="37"/>
-        <v>539.705218049471</v>
-      </c>
-      <c r="MJ21" s="2">
+        <v>13223.59052604009</v>
+      </c>
+      <c r="CN22" s="2">
         <f t="shared" si="37"/>
-        <v>534.30816586897629</v>
-      </c>
-      <c r="MK21" s="2">
+        <v>13091.35462077969</v>
+      </c>
+      <c r="CO22" s="2">
         <f t="shared" si="37"/>
-        <v>528.96508421028648</v>
-      </c>
-      <c r="ML21" s="2">
+        <v>12960.441074571892</v>
+      </c>
+      <c r="CP22" s="2">
         <f t="shared" si="37"/>
-        <v>523.67543336818358</v>
-      </c>
-      <c r="MM21" s="2">
+        <v>12830.836663826174</v>
+      </c>
+      <c r="CQ22" s="2">
         <f t="shared" si="37"/>
-        <v>518.43867903450177</v>
-      </c>
-      <c r="MN21" s="2">
+        <v>12702.528297187911</v>
+      </c>
+      <c r="CR22" s="2">
         <f t="shared" si="37"/>
-        <v>513.25429224415677</v>
-      </c>
-      <c r="MO21" s="2">
+        <v>12575.503014216032</v>
+      </c>
+      <c r="CS22" s="2">
         <f t="shared" si="37"/>
-        <v>508.12174932171519</v>
-      </c>
-      <c r="MP21" s="2">
+        <v>12449.747984073872</v>
+      </c>
+      <c r="CT22" s="2">
         <f t="shared" si="37"/>
-        <v>503.04053182849805</v>
-      </c>
-      <c r="MQ21" s="2">
+        <v>12325.250504233134</v>
+      </c>
+      <c r="CU22" s="2">
         <f t="shared" si="37"/>
-        <v>498.01012651021307</v>
-      </c>
-      <c r="MR21" s="2">
+        <v>12201.997999190802</v>
+      </c>
+      <c r="CV22" s="2">
         <f t="shared" si="37"/>
-        <v>493.03002524511095</v>
-      </c>
-      <c r="MS21" s="2">
+        <v>12079.978019198894</v>
+      </c>
+      <c r="CW22" s="2">
         <f t="shared" si="37"/>
-        <v>488.09972499265984</v>
-      </c>
-      <c r="MT21" s="2">
+        <v>11959.178239006906</v>
+      </c>
+      <c r="CX22" s="2">
         <f t="shared" si="37"/>
-        <v>483.21872774273322</v>
-      </c>
-      <c r="MU21" s="2">
+        <v>11839.586456616837</v>
+      </c>
+      <c r="CY22" s="2">
         <f t="shared" si="37"/>
-        <v>478.38654046530587</v>
-      </c>
-      <c r="MV21" s="2">
-        <f t="shared" ref="MV21:MW21" si="38">MU21*(1+$AQ$38)</f>
-        <v>473.60267506065281</v>
-      </c>
-      <c r="MW21" s="2">
+        <v>11721.190592050669</v>
+      </c>
+      <c r="CZ22" s="2">
+        <f t="shared" ref="CZ22:FK22" si="38">CY22*(1+$AQ$39)</f>
+        <v>11603.978686130162</v>
+      </c>
+      <c r="DA22" s="2">
         <f t="shared" si="38"/>
-        <v>468.86664831004629</v>
+        <v>11487.93889926886</v>
+      </c>
+      <c r="DB22" s="2">
+        <f t="shared" si="38"/>
+        <v>11373.059510276171</v>
+      </c>
+      <c r="DC22" s="2">
+        <f t="shared" si="38"/>
+        <v>11259.32891517341</v>
+      </c>
+      <c r="DD22" s="2">
+        <f t="shared" si="38"/>
+        <v>11146.735626021675</v>
+      </c>
+      <c r="DE22" s="2">
+        <f t="shared" si="38"/>
+        <v>11035.268269761458</v>
+      </c>
+      <c r="DF22" s="2">
+        <f t="shared" si="38"/>
+        <v>10924.915587063844</v>
+      </c>
+      <c r="DG22" s="2">
+        <f t="shared" si="38"/>
+        <v>10815.666431193205</v>
+      </c>
+      <c r="DH22" s="2">
+        <f t="shared" si="38"/>
+        <v>10707.509766881274</v>
+      </c>
+      <c r="DI22" s="2">
+        <f t="shared" si="38"/>
+        <v>10600.434669212462</v>
+      </c>
+      <c r="DJ22" s="2">
+        <f t="shared" si="38"/>
+        <v>10494.430322520337</v>
+      </c>
+      <c r="DK22" s="2">
+        <f t="shared" si="38"/>
+        <v>10389.486019295133</v>
+      </c>
+      <c r="DL22" s="2">
+        <f t="shared" si="38"/>
+        <v>10285.591159102181</v>
+      </c>
+      <c r="DM22" s="2">
+        <f t="shared" si="38"/>
+        <v>10182.73524751116</v>
+      </c>
+      <c r="DN22" s="2">
+        <f t="shared" si="38"/>
+        <v>10080.907895036049</v>
+      </c>
+      <c r="DO22" s="2">
+        <f t="shared" si="38"/>
+        <v>9980.0988160856887</v>
+      </c>
+      <c r="DP22" s="2">
+        <f t="shared" si="38"/>
+        <v>9880.2978279248309</v>
+      </c>
+      <c r="DQ22" s="2">
+        <f t="shared" si="38"/>
+        <v>9781.4948496455818</v>
+      </c>
+      <c r="DR22" s="2">
+        <f t="shared" si="38"/>
+        <v>9683.6799011491257</v>
+      </c>
+      <c r="DS22" s="2">
+        <f t="shared" si="38"/>
+        <v>9586.8431021376346</v>
+      </c>
+      <c r="DT22" s="2">
+        <f t="shared" si="38"/>
+        <v>9490.9746711162588</v>
+      </c>
+      <c r="DU22" s="2">
+        <f t="shared" si="38"/>
+        <v>9396.0649244050965</v>
+      </c>
+      <c r="DV22" s="2">
+        <f t="shared" si="38"/>
+        <v>9302.1042751610457</v>
+      </c>
+      <c r="DW22" s="2">
+        <f t="shared" si="38"/>
+        <v>9209.0832324094354</v>
+      </c>
+      <c r="DX22" s="2">
+        <f t="shared" si="38"/>
+        <v>9116.9924000853407</v>
+      </c>
+      <c r="DY22" s="2">
+        <f t="shared" si="38"/>
+        <v>9025.8224760844878</v>
+      </c>
+      <c r="DZ22" s="2">
+        <f t="shared" si="38"/>
+        <v>8935.5642513236435</v>
+      </c>
+      <c r="EA22" s="2">
+        <f t="shared" si="38"/>
+        <v>8846.2086088104061</v>
+      </c>
+      <c r="EB22" s="2">
+        <f t="shared" si="38"/>
+        <v>8757.746522722302</v>
+      </c>
+      <c r="EC22" s="2">
+        <f t="shared" si="38"/>
+        <v>8670.169057495079</v>
+      </c>
+      <c r="ED22" s="2">
+        <f t="shared" si="38"/>
+        <v>8583.4673669201275</v>
+      </c>
+      <c r="EE22" s="2">
+        <f t="shared" si="38"/>
+        <v>8497.6326932509255</v>
+      </c>
+      <c r="EF22" s="2">
+        <f t="shared" si="38"/>
+        <v>8412.656366318417</v>
+      </c>
+      <c r="EG22" s="2">
+        <f t="shared" si="38"/>
+        <v>8328.5298026552318</v>
+      </c>
+      <c r="EH22" s="2">
+        <f t="shared" si="38"/>
+        <v>8245.2445046286794</v>
+      </c>
+      <c r="EI22" s="2">
+        <f t="shared" si="38"/>
+        <v>8162.7920595823925</v>
+      </c>
+      <c r="EJ22" s="2">
+        <f t="shared" si="38"/>
+        <v>8081.1641389865681</v>
+      </c>
+      <c r="EK22" s="2">
+        <f t="shared" si="38"/>
+        <v>8000.3524975967021</v>
+      </c>
+      <c r="EL22" s="2">
+        <f t="shared" si="38"/>
+        <v>7920.3489726207354</v>
+      </c>
+      <c r="EM22" s="2">
+        <f t="shared" si="38"/>
+        <v>7841.145482894528</v>
+      </c>
+      <c r="EN22" s="2">
+        <f t="shared" si="38"/>
+        <v>7762.7340280655826</v>
+      </c>
+      <c r="EO22" s="2">
+        <f t="shared" si="38"/>
+        <v>7685.1066877849271</v>
+      </c>
+      <c r="EP22" s="2">
+        <f t="shared" si="38"/>
+        <v>7608.2556209070781</v>
+      </c>
+      <c r="EQ22" s="2">
+        <f t="shared" si="38"/>
+        <v>7532.1730646980068</v>
+      </c>
+      <c r="ER22" s="2">
+        <f t="shared" si="38"/>
+        <v>7456.8513340510262</v>
+      </c>
+      <c r="ES22" s="2">
+        <f t="shared" si="38"/>
+        <v>7382.2828207105158</v>
+      </c>
+      <c r="ET22" s="2">
+        <f t="shared" si="38"/>
+        <v>7308.4599925034108</v>
+      </c>
+      <c r="EU22" s="2">
+        <f t="shared" si="38"/>
+        <v>7235.3753925783767</v>
+      </c>
+      <c r="EV22" s="2">
+        <f t="shared" si="38"/>
+        <v>7163.0216386525926</v>
+      </c>
+      <c r="EW22" s="2">
+        <f t="shared" si="38"/>
+        <v>7091.3914222660669</v>
+      </c>
+      <c r="EX22" s="2">
+        <f t="shared" si="38"/>
+        <v>7020.4775080434065</v>
+      </c>
+      <c r="EY22" s="2">
+        <f t="shared" si="38"/>
+        <v>6950.2727329629724</v>
+      </c>
+      <c r="EZ22" s="2">
+        <f t="shared" si="38"/>
+        <v>6880.7700056333424</v>
+      </c>
+      <c r="FA22" s="2">
+        <f t="shared" si="38"/>
+        <v>6811.9623055770089</v>
+      </c>
+      <c r="FB22" s="2">
+        <f t="shared" si="38"/>
+        <v>6743.8426825212391</v>
+      </c>
+      <c r="FC22" s="2">
+        <f t="shared" si="38"/>
+        <v>6676.4042556960267</v>
+      </c>
+      <c r="FD22" s="2">
+        <f t="shared" si="38"/>
+        <v>6609.640213139066</v>
+      </c>
+      <c r="FE22" s="2">
+        <f t="shared" si="38"/>
+        <v>6543.5438110076757</v>
+      </c>
+      <c r="FF22" s="2">
+        <f t="shared" si="38"/>
+        <v>6478.1083728975991</v>
+      </c>
+      <c r="FG22" s="2">
+        <f t="shared" si="38"/>
+        <v>6413.3272891686229</v>
+      </c>
+      <c r="FH22" s="2">
+        <f t="shared" si="38"/>
+        <v>6349.194016276937</v>
+      </c>
+      <c r="FI22" s="2">
+        <f t="shared" si="38"/>
+        <v>6285.7020761141675</v>
+      </c>
+      <c r="FJ22" s="2">
+        <f t="shared" si="38"/>
+        <v>6222.8450553530256</v>
+      </c>
+      <c r="FK22" s="2">
+        <f t="shared" si="38"/>
+        <v>6160.6166047994957</v>
+      </c>
+      <c r="FL22" s="2">
+        <f t="shared" ref="FL22:HW22" si="39">FK22*(1+$AQ$39)</f>
+        <v>6099.0104387515003</v>
+      </c>
+      <c r="FM22" s="2">
+        <f t="shared" si="39"/>
+        <v>6038.0203343639851</v>
+      </c>
+      <c r="FN22" s="2">
+        <f t="shared" si="39"/>
+        <v>5977.6401310203455</v>
+      </c>
+      <c r="FO22" s="2">
+        <f t="shared" si="39"/>
+        <v>5917.8637297101423</v>
+      </c>
+      <c r="FP22" s="2">
+        <f t="shared" si="39"/>
+        <v>5858.6850924130404</v>
+      </c>
+      <c r="FQ22" s="2">
+        <f t="shared" si="39"/>
+        <v>5800.0982414889095</v>
+      </c>
+      <c r="FR22" s="2">
+        <f t="shared" si="39"/>
+        <v>5742.0972590740203</v>
+      </c>
+      <c r="FS22" s="2">
+        <f t="shared" si="39"/>
+        <v>5684.6762864832799</v>
+      </c>
+      <c r="FT22" s="2">
+        <f t="shared" si="39"/>
+        <v>5627.8295236184467</v>
+      </c>
+      <c r="FU22" s="2">
+        <f t="shared" si="39"/>
+        <v>5571.5512283822618</v>
+      </c>
+      <c r="FV22" s="2">
+        <f t="shared" si="39"/>
+        <v>5515.8357160984388</v>
+      </c>
+      <c r="FW22" s="2">
+        <f t="shared" si="39"/>
+        <v>5460.6773589374543</v>
+      </c>
+      <c r="FX22" s="2">
+        <f t="shared" si="39"/>
+        <v>5406.0705853480795</v>
+      </c>
+      <c r="FY22" s="2">
+        <f t="shared" si="39"/>
+        <v>5352.0098794945989</v>
+      </c>
+      <c r="FZ22" s="2">
+        <f t="shared" si="39"/>
+        <v>5298.4897806996532</v>
+      </c>
+      <c r="GA22" s="2">
+        <f t="shared" si="39"/>
+        <v>5245.5048828926565</v>
+      </c>
+      <c r="GB22" s="2">
+        <f t="shared" si="39"/>
+        <v>5193.0498340637296</v>
+      </c>
+      <c r="GC22" s="2">
+        <f t="shared" si="39"/>
+        <v>5141.1193357230923</v>
+      </c>
+      <c r="GD22" s="2">
+        <f t="shared" si="39"/>
+        <v>5089.708142365861</v>
+      </c>
+      <c r="GE22" s="2">
+        <f t="shared" si="39"/>
+        <v>5038.8110609422019</v>
+      </c>
+      <c r="GF22" s="2">
+        <f t="shared" si="39"/>
+        <v>4988.4229503327797</v>
+      </c>
+      <c r="GG22" s="2">
+        <f t="shared" si="39"/>
+        <v>4938.5387208294514</v>
+      </c>
+      <c r="GH22" s="2">
+        <f t="shared" si="39"/>
+        <v>4889.1533336211569</v>
+      </c>
+      <c r="GI22" s="2">
+        <f t="shared" si="39"/>
+        <v>4840.2618002849449</v>
+      </c>
+      <c r="GJ22" s="2">
+        <f t="shared" si="39"/>
+        <v>4791.8591822820954</v>
+      </c>
+      <c r="GK22" s="2">
+        <f t="shared" si="39"/>
+        <v>4743.9405904592741</v>
+      </c>
+      <c r="GL22" s="2">
+        <f t="shared" si="39"/>
+        <v>4696.5011845546815</v>
+      </c>
+      <c r="GM22" s="2">
+        <f t="shared" si="39"/>
+        <v>4649.5361727091349</v>
+      </c>
+      <c r="GN22" s="2">
+        <f t="shared" si="39"/>
+        <v>4603.0408109820437</v>
+      </c>
+      <c r="GO22" s="2">
+        <f t="shared" si="39"/>
+        <v>4557.0104028722235</v>
+      </c>
+      <c r="GP22" s="2">
+        <f t="shared" si="39"/>
+        <v>4511.4402988435013</v>
+      </c>
+      <c r="GQ22" s="2">
+        <f t="shared" si="39"/>
+        <v>4466.3258958550659</v>
+      </c>
+      <c r="GR22" s="2">
+        <f t="shared" si="39"/>
+        <v>4421.6626368965153</v>
+      </c>
+      <c r="GS22" s="2">
+        <f t="shared" si="39"/>
+        <v>4377.4460105275502</v>
+      </c>
+      <c r="GT22" s="2">
+        <f t="shared" si="39"/>
+        <v>4333.6715504222748</v>
+      </c>
+      <c r="GU22" s="2">
+        <f t="shared" si="39"/>
+        <v>4290.3348349180524</v>
+      </c>
+      <c r="GV22" s="2">
+        <f t="shared" si="39"/>
+        <v>4247.4314865688721</v>
+      </c>
+      <c r="GW22" s="2">
+        <f t="shared" si="39"/>
+        <v>4204.9571717031831</v>
+      </c>
+      <c r="GX22" s="2">
+        <f t="shared" si="39"/>
+        <v>4162.9075999861516</v>
+      </c>
+      <c r="GY22" s="2">
+        <f t="shared" si="39"/>
+        <v>4121.2785239862897</v>
+      </c>
+      <c r="GZ22" s="2">
+        <f t="shared" si="39"/>
+        <v>4080.0657387464266</v>
+      </c>
+      <c r="HA22" s="2">
+        <f t="shared" si="39"/>
+        <v>4039.2650813589621</v>
+      </c>
+      <c r="HB22" s="2">
+        <f t="shared" si="39"/>
+        <v>3998.8724305453725</v>
+      </c>
+      <c r="HC22" s="2">
+        <f t="shared" si="39"/>
+        <v>3958.8837062399189</v>
+      </c>
+      <c r="HD22" s="2">
+        <f t="shared" si="39"/>
+        <v>3919.2948691775196</v>
+      </c>
+      <c r="HE22" s="2">
+        <f t="shared" si="39"/>
+        <v>3880.1019204857444</v>
+      </c>
+      <c r="HF22" s="2">
+        <f t="shared" si="39"/>
+        <v>3841.300901280887</v>
+      </c>
+      <c r="HG22" s="2">
+        <f t="shared" si="39"/>
+        <v>3802.8878922680783</v>
+      </c>
+      <c r="HH22" s="2">
+        <f t="shared" si="39"/>
+        <v>3764.8590133453977</v>
+      </c>
+      <c r="HI22" s="2">
+        <f t="shared" si="39"/>
+        <v>3727.2104232119436</v>
+      </c>
+      <c r="HJ22" s="2">
+        <f t="shared" si="39"/>
+        <v>3689.9383189798241</v>
+      </c>
+      <c r="HK22" s="2">
+        <f t="shared" si="39"/>
+        <v>3653.0389357900258</v>
+      </c>
+      <c r="HL22" s="2">
+        <f t="shared" si="39"/>
+        <v>3616.5085464321255</v>
+      </c>
+      <c r="HM22" s="2">
+        <f t="shared" si="39"/>
+        <v>3580.3434609678043</v>
+      </c>
+      <c r="HN22" s="2">
+        <f t="shared" si="39"/>
+        <v>3544.5400263581264</v>
+      </c>
+      <c r="HO22" s="2">
+        <f t="shared" si="39"/>
+        <v>3509.0946260945452</v>
+      </c>
+      <c r="HP22" s="2">
+        <f t="shared" si="39"/>
+        <v>3474.0036798335996</v>
+      </c>
+      <c r="HQ22" s="2">
+        <f t="shared" si="39"/>
+        <v>3439.2636430352636</v>
+      </c>
+      <c r="HR22" s="2">
+        <f t="shared" si="39"/>
+        <v>3404.8710066049111</v>
+      </c>
+      <c r="HS22" s="2">
+        <f t="shared" si="39"/>
+        <v>3370.8222965388618</v>
+      </c>
+      <c r="HT22" s="2">
+        <f t="shared" si="39"/>
+        <v>3337.114073573473</v>
+      </c>
+      <c r="HU22" s="2">
+        <f t="shared" si="39"/>
+        <v>3303.7429328377384</v>
+      </c>
+      <c r="HV22" s="2">
+        <f t="shared" si="39"/>
+        <v>3270.7055035093608</v>
+      </c>
+      <c r="HW22" s="2">
+        <f t="shared" si="39"/>
+        <v>3237.9984484742672</v>
+      </c>
+      <c r="HX22" s="2">
+        <f t="shared" ref="HX22:KI22" si="40">HW22*(1+$AQ$39)</f>
+        <v>3205.6184639895246</v>
+      </c>
+      <c r="HY22" s="2">
+        <f t="shared" si="40"/>
+        <v>3173.5622793496291</v>
+      </c>
+      <c r="HZ22" s="2">
+        <f t="shared" si="40"/>
+        <v>3141.8266565561325</v>
+      </c>
+      <c r="IA22" s="2">
+        <f t="shared" si="40"/>
+        <v>3110.4083899905713</v>
+      </c>
+      <c r="IB22" s="2">
+        <f t="shared" si="40"/>
+        <v>3079.3043060906657</v>
+      </c>
+      <c r="IC22" s="2">
+        <f t="shared" si="40"/>
+        <v>3048.511263029759</v>
+      </c>
+      <c r="ID22" s="2">
+        <f t="shared" si="40"/>
+        <v>3018.0261503994616</v>
+      </c>
+      <c r="IE22" s="2">
+        <f t="shared" si="40"/>
+        <v>2987.8458888954669</v>
+      </c>
+      <c r="IF22" s="2">
+        <f t="shared" si="40"/>
+        <v>2957.9674300065121</v>
+      </c>
+      <c r="IG22" s="2">
+        <f t="shared" si="40"/>
+        <v>2928.387755706447</v>
+      </c>
+      <c r="IH22" s="2">
+        <f t="shared" si="40"/>
+        <v>2899.1038781493826</v>
+      </c>
+      <c r="II22" s="2">
+        <f t="shared" si="40"/>
+        <v>2870.1128393678887</v>
+      </c>
+      <c r="IJ22" s="2">
+        <f t="shared" si="40"/>
+        <v>2841.4117109742097</v>
+      </c>
+      <c r="IK22" s="2">
+        <f t="shared" si="40"/>
+        <v>2812.9975938644675</v>
+      </c>
+      <c r="IL22" s="2">
+        <f t="shared" si="40"/>
+        <v>2784.8676179258227</v>
+      </c>
+      <c r="IM22" s="2">
+        <f t="shared" si="40"/>
+        <v>2757.0189417465645</v>
+      </c>
+      <c r="IN22" s="2">
+        <f t="shared" si="40"/>
+        <v>2729.4487523290986</v>
+      </c>
+      <c r="IO22" s="2">
+        <f t="shared" si="40"/>
+        <v>2702.1542648058075</v>
+      </c>
+      <c r="IP22" s="2">
+        <f t="shared" si="40"/>
+        <v>2675.1327221577494</v>
+      </c>
+      <c r="IQ22" s="2">
+        <f t="shared" si="40"/>
+        <v>2648.381394936172</v>
+      </c>
+      <c r="IR22" s="2">
+        <f t="shared" si="40"/>
+        <v>2621.8975809868102</v>
+      </c>
+      <c r="IS22" s="2">
+        <f t="shared" si="40"/>
+        <v>2595.6786051769423</v>
+      </c>
+      <c r="IT22" s="2">
+        <f t="shared" si="40"/>
+        <v>2569.7218191251727</v>
+      </c>
+      <c r="IU22" s="2">
+        <f t="shared" si="40"/>
+        <v>2544.0246009339207</v>
+      </c>
+      <c r="IV22" s="2">
+        <f t="shared" si="40"/>
+        <v>2518.5843549245815</v>
+      </c>
+      <c r="IW22" s="2">
+        <f t="shared" si="40"/>
+        <v>2493.3985113753356</v>
+      </c>
+      <c r="IX22" s="2">
+        <f t="shared" si="40"/>
+        <v>2468.4645262615823</v>
+      </c>
+      <c r="IY22" s="2">
+        <f t="shared" si="40"/>
+        <v>2443.7798809989663</v>
+      </c>
+      <c r="IZ22" s="2">
+        <f t="shared" si="40"/>
+        <v>2419.3420821889767</v>
+      </c>
+      <c r="JA22" s="2">
+        <f t="shared" si="40"/>
+        <v>2395.1486613670868</v>
+      </c>
+      <c r="JB22" s="2">
+        <f t="shared" si="40"/>
+        <v>2371.1971747534158</v>
+      </c>
+      <c r="JC22" s="2">
+        <f t="shared" si="40"/>
+        <v>2347.4852030058814</v>
+      </c>
+      <c r="JD22" s="2">
+        <f t="shared" si="40"/>
+        <v>2324.0103509758228</v>
+      </c>
+      <c r="JE22" s="2">
+        <f t="shared" si="40"/>
+        <v>2300.7702474660646</v>
+      </c>
+      <c r="JF22" s="2">
+        <f t="shared" si="40"/>
+        <v>2277.762544991404</v>
+      </c>
+      <c r="JG22" s="2">
+        <f t="shared" si="40"/>
+        <v>2254.9849195414899</v>
+      </c>
+      <c r="JH22" s="2">
+        <f t="shared" si="40"/>
+        <v>2232.435070346075</v>
+      </c>
+      <c r="JI22" s="2">
+        <f t="shared" si="40"/>
+        <v>2210.1107196426142</v>
+      </c>
+      <c r="JJ22" s="2">
+        <f t="shared" si="40"/>
+        <v>2188.0096124461879</v>
+      </c>
+      <c r="JK22" s="2">
+        <f t="shared" si="40"/>
+        <v>2166.129516321726</v>
+      </c>
+      <c r="JL22" s="2">
+        <f t="shared" si="40"/>
+        <v>2144.4682211585086</v>
+      </c>
+      <c r="JM22" s="2">
+        <f t="shared" si="40"/>
+        <v>2123.0235389469235</v>
+      </c>
+      <c r="JN22" s="2">
+        <f t="shared" si="40"/>
+        <v>2101.7933035574542</v>
+      </c>
+      <c r="JO22" s="2">
+        <f t="shared" si="40"/>
+        <v>2080.7753705218797</v>
+      </c>
+      <c r="JP22" s="2">
+        <f t="shared" si="40"/>
+        <v>2059.9676168166611</v>
+      </c>
+      <c r="JQ22" s="2">
+        <f t="shared" si="40"/>
+        <v>2039.3679406484946</v>
+      </c>
+      <c r="JR22" s="2">
+        <f t="shared" si="40"/>
+        <v>2018.9742612420096</v>
+      </c>
+      <c r="JS22" s="2">
+        <f t="shared" si="40"/>
+        <v>1998.7845186295895</v>
+      </c>
+      <c r="JT22" s="2">
+        <f t="shared" si="40"/>
+        <v>1978.7966734432935</v>
+      </c>
+      <c r="JU22" s="2">
+        <f t="shared" si="40"/>
+        <v>1959.0087067088605</v>
+      </c>
+      <c r="JV22" s="2">
+        <f t="shared" si="40"/>
+        <v>1939.4186196417718</v>
+      </c>
+      <c r="JW22" s="2">
+        <f t="shared" si="40"/>
+        <v>1920.0244334453541</v>
+      </c>
+      <c r="JX22" s="2">
+        <f t="shared" si="40"/>
+        <v>1900.8241891109005</v>
+      </c>
+      <c r="JY22" s="2">
+        <f t="shared" si="40"/>
+        <v>1881.8159472197915</v>
+      </c>
+      <c r="JZ22" s="2">
+        <f t="shared" si="40"/>
+        <v>1862.9977877475935</v>
+      </c>
+      <c r="KA22" s="2">
+        <f t="shared" si="40"/>
+        <v>1844.3678098701175</v>
+      </c>
+      <c r="KB22" s="2">
+        <f t="shared" si="40"/>
+        <v>1825.9241317714163</v>
+      </c>
+      <c r="KC22" s="2">
+        <f t="shared" si="40"/>
+        <v>1807.6648904537021</v>
+      </c>
+      <c r="KD22" s="2">
+        <f t="shared" si="40"/>
+        <v>1789.5882415491651</v>
+      </c>
+      <c r="KE22" s="2">
+        <f t="shared" si="40"/>
+        <v>1771.6923591336733</v>
+      </c>
+      <c r="KF22" s="2">
+        <f t="shared" si="40"/>
+        <v>1753.9754355423365</v>
+      </c>
+      <c r="KG22" s="2">
+        <f t="shared" si="40"/>
+        <v>1736.4356811869131</v>
+      </c>
+      <c r="KH22" s="2">
+        <f t="shared" si="40"/>
+        <v>1719.071324375044</v>
+      </c>
+      <c r="KI22" s="2">
+        <f t="shared" si="40"/>
+        <v>1701.8806111312936</v>
+      </c>
+      <c r="KJ22" s="2">
+        <f t="shared" ref="KJ22:MU22" si="41">KI22*(1+$AQ$39)</f>
+        <v>1684.8618050199807</v>
+      </c>
+      <c r="KK22" s="2">
+        <f t="shared" si="41"/>
+        <v>1668.0131869697809</v>
+      </c>
+      <c r="KL22" s="2">
+        <f t="shared" si="41"/>
+        <v>1651.3330551000831</v>
+      </c>
+      <c r="KM22" s="2">
+        <f t="shared" si="41"/>
+        <v>1634.8197245490824</v>
+      </c>
+      <c r="KN22" s="2">
+        <f t="shared" si="41"/>
+        <v>1618.4715273035915</v>
+      </c>
+      <c r="KO22" s="2">
+        <f t="shared" si="41"/>
+        <v>1602.2868120305557</v>
+      </c>
+      <c r="KP22" s="2">
+        <f t="shared" si="41"/>
+        <v>1586.2639439102502</v>
+      </c>
+      <c r="KQ22" s="2">
+        <f t="shared" si="41"/>
+        <v>1570.4013044711476</v>
+      </c>
+      <c r="KR22" s="2">
+        <f t="shared" si="41"/>
+        <v>1554.6972914264361</v>
+      </c>
+      <c r="KS22" s="2">
+        <f t="shared" si="41"/>
+        <v>1539.1503185121717</v>
+      </c>
+      <c r="KT22" s="2">
+        <f t="shared" si="41"/>
+        <v>1523.7588153270499</v>
+      </c>
+      <c r="KU22" s="2">
+        <f t="shared" si="41"/>
+        <v>1508.5212271737794</v>
+      </c>
+      <c r="KV22" s="2">
+        <f t="shared" si="41"/>
+        <v>1493.4360149020415</v>
+      </c>
+      <c r="KW22" s="2">
+        <f t="shared" si="41"/>
+        <v>1478.5016547530211</v>
+      </c>
+      <c r="KX22" s="2">
+        <f t="shared" si="41"/>
+        <v>1463.7166382054909</v>
+      </c>
+      <c r="KY22" s="2">
+        <f t="shared" si="41"/>
+        <v>1449.0794718234361</v>
+      </c>
+      <c r="KZ22" s="2">
+        <f t="shared" si="41"/>
+        <v>1434.5886771052017</v>
+      </c>
+      <c r="LA22" s="2">
+        <f t="shared" si="41"/>
+        <v>1420.2427903341497</v>
+      </c>
+      <c r="LB22" s="2">
+        <f t="shared" si="41"/>
+        <v>1406.0403624308083</v>
+      </c>
+      <c r="LC22" s="2">
+        <f t="shared" si="41"/>
+        <v>1391.9799588065002</v>
+      </c>
+      <c r="LD22" s="2">
+        <f t="shared" si="41"/>
+        <v>1378.0601592184353</v>
+      </c>
+      <c r="LE22" s="2">
+        <f t="shared" si="41"/>
+        <v>1364.2795576262508</v>
+      </c>
+      <c r="LF22" s="2">
+        <f t="shared" si="41"/>
+        <v>1350.6367620499884</v>
+      </c>
+      <c r="LG22" s="2">
+        <f t="shared" si="41"/>
+        <v>1337.1303944294884</v>
+      </c>
+      <c r="LH22" s="2">
+        <f t="shared" si="41"/>
+        <v>1323.7590904851936</v>
+      </c>
+      <c r="LI22" s="2">
+        <f t="shared" si="41"/>
+        <v>1310.5214995803417</v>
+      </c>
+      <c r="LJ22" s="2">
+        <f t="shared" si="41"/>
+        <v>1297.4162845845383</v>
+      </c>
+      <c r="LK22" s="2">
+        <f t="shared" si="41"/>
+        <v>1284.442121738693</v>
+      </c>
+      <c r="LL22" s="2">
+        <f t="shared" si="41"/>
+        <v>1271.597700521306</v>
+      </c>
+      <c r="LM22" s="2">
+        <f t="shared" si="41"/>
+        <v>1258.881723516093</v>
+      </c>
+      <c r="LN22" s="2">
+        <f t="shared" si="41"/>
+        <v>1246.2929062809321</v>
+      </c>
+      <c r="LO22" s="2">
+        <f t="shared" si="41"/>
+        <v>1233.8299772181228</v>
+      </c>
+      <c r="LP22" s="2">
+        <f t="shared" si="41"/>
+        <v>1221.4916774459416</v>
+      </c>
+      <c r="LQ22" s="2">
+        <f t="shared" si="41"/>
+        <v>1209.2767606714822</v>
+      </c>
+      <c r="LR22" s="2">
+        <f t="shared" si="41"/>
+        <v>1197.1839930647673</v>
+      </c>
+      <c r="LS22" s="2">
+        <f t="shared" si="41"/>
+        <v>1185.2121531341195</v>
+      </c>
+      <c r="LT22" s="2">
+        <f t="shared" si="41"/>
+        <v>1173.3600316027782</v>
+      </c>
+      <c r="LU22" s="2">
+        <f t="shared" si="41"/>
+        <v>1161.6264312867504</v>
+      </c>
+      <c r="LV22" s="2">
+        <f t="shared" si="41"/>
+        <v>1150.0101669738829</v>
+      </c>
+      <c r="LW22" s="2">
+        <f t="shared" si="41"/>
+        <v>1138.5100653041441</v>
+      </c>
+      <c r="LX22" s="2">
+        <f t="shared" si="41"/>
+        <v>1127.1249646511026</v>
+      </c>
+      <c r="LY22" s="2">
+        <f t="shared" si="41"/>
+        <v>1115.8537150045915</v>
+      </c>
+      <c r="LZ22" s="2">
+        <f t="shared" si="41"/>
+        <v>1104.6951778545456</v>
+      </c>
+      <c r="MA22" s="2">
+        <f t="shared" si="41"/>
+        <v>1093.6482260760001</v>
+      </c>
+      <c r="MB22" s="2">
+        <f t="shared" si="41"/>
+        <v>1082.7117438152402</v>
+      </c>
+      <c r="MC22" s="2">
+        <f t="shared" si="41"/>
+        <v>1071.8846263770879</v>
+      </c>
+      <c r="MD22" s="2">
+        <f t="shared" si="41"/>
+        <v>1061.1657801133169</v>
+      </c>
+      <c r="ME22" s="2">
+        <f t="shared" si="41"/>
+        <v>1050.5541223121838</v>
+      </c>
+      <c r="MF22" s="2">
+        <f t="shared" si="41"/>
+        <v>1040.0485810890621</v>
+      </c>
+      <c r="MG22" s="2">
+        <f t="shared" si="41"/>
+        <v>1029.6480952781715</v>
+      </c>
+      <c r="MH22" s="2">
+        <f t="shared" si="41"/>
+        <v>1019.3516143253897</v>
+      </c>
+      <c r="MI22" s="2">
+        <f t="shared" si="41"/>
+        <v>1009.1580981821359</v>
+      </c>
+      <c r="MJ22" s="2">
+        <f t="shared" si="41"/>
+        <v>999.06651720031448</v>
+      </c>
+      <c r="MK22" s="2">
+        <f t="shared" si="41"/>
+        <v>989.07585202831137</v>
+      </c>
+      <c r="ML22" s="2">
+        <f t="shared" si="41"/>
+        <v>979.18509350802822</v>
+      </c>
+      <c r="MM22" s="2">
+        <f t="shared" si="41"/>
+        <v>969.39324257294788</v>
+      </c>
+      <c r="MN22" s="2">
+        <f t="shared" si="41"/>
+        <v>959.6993101472184</v>
+      </c>
+      <c r="MO22" s="2">
+        <f t="shared" si="41"/>
+        <v>950.10231704574619</v>
+      </c>
+      <c r="MP22" s="2">
+        <f t="shared" si="41"/>
+        <v>940.60129387528877</v>
+      </c>
+      <c r="MQ22" s="2">
+        <f t="shared" si="41"/>
+        <v>931.19528093653582</v>
+      </c>
+      <c r="MR22" s="2">
+        <f t="shared" si="41"/>
+        <v>921.88332812717044</v>
+      </c>
+      <c r="MS22" s="2">
+        <f t="shared" si="41"/>
+        <v>912.66449484589873</v>
+      </c>
+      <c r="MT22" s="2">
+        <f t="shared" si="41"/>
+        <v>903.53784989743974</v>
+      </c>
+      <c r="MU22" s="2">
+        <f t="shared" si="41"/>
+        <v>894.50247139846533</v>
+      </c>
+      <c r="MV22" s="2">
+        <f t="shared" ref="MV22:MW22" si="42">MU22*(1+$AQ$39)</f>
+        <v>885.55744668448062</v>
+      </c>
+      <c r="MW22" s="2">
+        <f t="shared" si="42"/>
+        <v>876.70187221763581</v>
       </c>
     </row>
-    <row r="23" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4">
-        <f t="shared" ref="B23:D23" si="39">B21/B24</f>
+      <c r="B24" s="4">
+        <f t="shared" ref="B24:D24" si="43">B22/B25</f>
         <v>0.76940133037694014</v>
       </c>
-      <c r="C23" s="4">
-        <f t="shared" si="39"/>
+      <c r="C24" s="4">
+        <f t="shared" si="43"/>
         <v>0.60398230088495575</v>
       </c>
-      <c r="D23" s="4">
-        <f t="shared" si="39"/>
+      <c r="D24" s="4">
+        <f t="shared" si="43"/>
         <v>1.4789356984478936</v>
       </c>
-      <c r="E23" s="4">
-        <f t="shared" ref="E23:F23" si="40">E21/E24</f>
+      <c r="E24" s="4">
+        <f t="shared" ref="E24:F24" si="44">E22/E25</f>
         <v>1.3059866962305986</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="40"/>
+      <c r="F24" s="4">
+        <f t="shared" si="44"/>
         <v>1.5730088495575221</v>
       </c>
-      <c r="G23" s="4">
-        <f t="shared" ref="G23:S23" si="41">G21/G24</f>
+      <c r="G24" s="4">
+        <f t="shared" ref="G24:S24" si="45">G22/G25</f>
         <v>1.5938189845474613</v>
       </c>
-      <c r="H23" s="4">
-        <f t="shared" si="41"/>
+      <c r="H24" s="4">
+        <f t="shared" si="45"/>
         <v>1.7428571428571429</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="41"/>
+      <c r="I24" s="4">
+        <f t="shared" si="45"/>
         <v>1.1956043956043956</v>
       </c>
-      <c r="J23" s="4">
-        <f t="shared" si="41"/>
+      <c r="J24" s="4">
+        <f t="shared" si="45"/>
         <v>3.756043956043956</v>
       </c>
-      <c r="K23" s="4">
-        <f t="shared" si="41"/>
+      <c r="K24" s="4">
+        <f t="shared" si="45"/>
         <v>2.9802197802197803</v>
       </c>
-      <c r="L23" s="4">
-        <f t="shared" si="41"/>
+      <c r="L24" s="4">
+        <f t="shared" si="45"/>
         <v>3.1784140969162995</v>
       </c>
-      <c r="M23" s="4">
-        <f t="shared" si="41"/>
+      <c r="M24" s="4">
+        <f t="shared" si="45"/>
         <v>1.3384615384615384</v>
       </c>
-      <c r="N23" s="4">
-        <f t="shared" si="41"/>
+      <c r="N24" s="4">
+        <f t="shared" si="45"/>
         <v>3.5398230088495577</v>
       </c>
-      <c r="O23" s="4">
-        <f t="shared" si="41"/>
+      <c r="O24" s="4">
+        <f t="shared" si="45"/>
         <v>3.2088888888888887</v>
       </c>
-      <c r="P23" s="4">
-        <f t="shared" si="41"/>
+      <c r="P24" s="4">
+        <f t="shared" si="45"/>
         <v>3.1133333333333333</v>
       </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="41"/>
+      <c r="Q24" s="4">
+        <f t="shared" si="45"/>
         <v>0.12860310421286031</v>
       </c>
-      <c r="R23" s="4">
-        <f t="shared" si="41"/>
+      <c r="R24" s="4">
+        <f t="shared" si="45"/>
         <v>2.8938053097345131</v>
       </c>
-      <c r="S23" s="4">
-        <f t="shared" si="41"/>
+      <c r="S24" s="4">
+        <f t="shared" si="45"/>
         <v>3.3013303769401334</v>
       </c>
-      <c r="X23" s="4">
-        <f>X21/X24</f>
+      <c r="T24" s="4">
+        <f t="shared" ref="T24" si="46">T22/T25</f>
+        <v>3.7333333333333334</v>
+      </c>
+      <c r="X24" s="4">
+        <f>X22/X25</f>
         <v>2.6895787139689578</v>
       </c>
-      <c r="Y23" s="4">
-        <f>Y21/Y24</f>
+      <c r="Y24" s="4">
+        <f>Y22/Y25</f>
         <v>4.1396895787139689</v>
       </c>
-      <c r="Z23" s="4">
-        <f>Z21/Z24</f>
+      <c r="Z24" s="4">
+        <f>Z22/Z25</f>
         <v>6.0903083700440526</v>
       </c>
-      <c r="AA23" s="4">
-        <f>AA21/AA24</f>
+      <c r="AA24" s="4">
+        <f>AA22/AA25</f>
         <v>11.250549450549451</v>
       </c>
-      <c r="AB23" s="4">
-        <f>AB21/AB24</f>
+      <c r="AB24" s="4">
+        <f>AB22/AB25</f>
         <v>9.9623059866962311</v>
       </c>
+      <c r="AC24" s="4">
+        <f>AC22/AC25</f>
+        <v>13.420141798428444</v>
+      </c>
     </row>
-    <row r="24" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>451</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>452</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>451</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>451</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>452</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>453</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>455</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>455</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>455</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>455</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <v>454</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <v>455</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <v>452</v>
       </c>
-      <c r="O24">
+      <c r="O25">
         <v>450</v>
       </c>
-      <c r="P24">
+      <c r="P25">
         <v>450</v>
       </c>
-      <c r="Q24">
+      <c r="Q25">
         <v>451</v>
       </c>
-      <c r="R24">
+      <c r="R25">
         <v>452</v>
       </c>
-      <c r="S24">
+      <c r="S25">
         <v>451</v>
       </c>
-      <c r="X24">
+      <c r="T25">
+        <v>450</v>
+      </c>
+      <c r="X25">
         <v>451</v>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <v>451</v>
       </c>
-      <c r="Z24">
+      <c r="Z25">
         <v>454</v>
       </c>
-      <c r="AA24">
+      <c r="AA25">
         <v>455</v>
       </c>
-      <c r="AB24">
+      <c r="AB25">
         <v>451</v>
       </c>
+      <c r="AC25">
+        <v>450</v>
+      </c>
     </row>
-    <row r="26" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="AA26" t="s">
+    <row r="27" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="AA27" t="s">
         <v>76</v>
       </c>
-      <c r="AB26" s="2">
-        <f>R45-R57-R60</f>
+      <c r="AB27" s="2">
+        <f>R46-R58-R61</f>
         <v>-6610</v>
       </c>
-      <c r="AC26" s="2">
-        <f>AB26+AB21</f>
+      <c r="AC27" s="2">
+        <f>AB27+AB22</f>
         <v>-2117</v>
       </c>
-      <c r="AD26" s="2">
-        <f t="shared" ref="AD26:AL26" si="42">AC26+AC21</f>
-        <v>3579.0155423085198</v>
-      </c>
-      <c r="AE26" s="2">
-        <f t="shared" si="42"/>
-        <v>9764.6544567816836</v>
-      </c>
-      <c r="AF26" s="2">
-        <f t="shared" si="42"/>
-        <v>16679.988162973201</v>
-      </c>
-      <c r="AG26" s="2">
-        <f t="shared" si="42"/>
-        <v>24174.18850923327</v>
-      </c>
-      <c r="AH26" s="2">
-        <f t="shared" si="42"/>
-        <v>32288.446941527527</v>
-      </c>
-      <c r="AI26" s="2">
-        <f t="shared" si="42"/>
-        <v>41113.302834597969</v>
-      </c>
-      <c r="AJ26" s="2">
-        <f t="shared" si="42"/>
-        <v>50695.050985391317</v>
-      </c>
-      <c r="AK26" s="2">
-        <f t="shared" si="42"/>
-        <v>61045.232017888899</v>
-      </c>
-      <c r="AL26" s="2">
-        <f t="shared" si="42"/>
-        <v>72216.186372555152</v>
+      <c r="AD27" s="2">
+        <f t="shared" ref="AD27:AL27" si="47">AC27+AC22</f>
+        <v>3922.0638092928002</v>
+      </c>
+      <c r="AE27" s="2">
+        <f t="shared" si="47"/>
+        <v>12202.173535172302</v>
+      </c>
+      <c r="AF27" s="2">
+        <f t="shared" si="47"/>
+        <v>21802.980450011473</v>
+      </c>
+      <c r="AG27" s="2">
+        <f t="shared" si="47"/>
+        <v>32689.691571987001</v>
+      </c>
+      <c r="AH27" s="2">
+        <f t="shared" si="47"/>
+        <v>45014.775093759017</v>
+      </c>
+      <c r="AI27" s="2">
+        <f t="shared" si="47"/>
+        <v>58989.141257173171</v>
+      </c>
+      <c r="AJ27" s="2">
+        <f t="shared" si="47"/>
+        <v>74798.367870122878</v>
+      </c>
+      <c r="AK27" s="2">
+        <f t="shared" si="47"/>
+        <v>92612.976685849659</v>
+      </c>
+      <c r="AL27" s="2">
+        <f t="shared" si="47"/>
+        <v>112658.89946197742</v>
       </c>
     </row>
-    <row r="27" spans="1:361" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:361" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27" s="6">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" s="6">
         <f>F3/B3-1</f>
         <v>5.0065282967898694E-2</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" ref="G27:S27" si="43">G3/C3-1</f>
+      <c r="G28" s="6">
+        <f t="shared" ref="G28:T28" si="48">G3/C3-1</f>
         <v>9.6284266402008933E-2</v>
       </c>
-      <c r="H27" s="6">
-        <f t="shared" si="43"/>
+      <c r="H28" s="6">
+        <f t="shared" si="48"/>
         <v>8.8908424471794367E-2</v>
       </c>
-      <c r="I27" s="6">
-        <f t="shared" si="43"/>
+      <c r="I28" s="6">
+        <f t="shared" si="48"/>
         <v>9.2725606692087181E-2</v>
       </c>
-      <c r="J27" s="6">
-        <f t="shared" si="43"/>
+      <c r="J28" s="6">
+        <f t="shared" si="48"/>
         <v>6.3099372579285218E-2</v>
       </c>
-      <c r="K27" s="6">
-        <f t="shared" si="43"/>
+      <c r="K28" s="6">
+        <f t="shared" si="48"/>
         <v>1.4361351914846887E-2</v>
       </c>
-      <c r="L27" s="6">
-        <f t="shared" si="43"/>
+      <c r="L28" s="6">
+        <f t="shared" si="48"/>
         <v>1.2903490647363958E-2</v>
       </c>
-      <c r="M27" s="6">
-        <f t="shared" si="43"/>
+      <c r="M28" s="6">
+        <f t="shared" si="48"/>
         <v>1.7298744860419824E-2</v>
       </c>
-      <c r="N27" s="6">
-        <f t="shared" si="43"/>
+      <c r="N28" s="6">
+        <f t="shared" si="48"/>
         <v>2.6215315121531635E-3</v>
       </c>
-      <c r="O27" s="6">
-        <f t="shared" si="43"/>
+      <c r="O28" s="6">
+        <f t="shared" si="48"/>
         <v>-9.0330083433625141E-3</v>
       </c>
-      <c r="P27" s="6">
-        <f t="shared" si="43"/>
+      <c r="P28" s="6">
+        <f t="shared" si="48"/>
         <v>-8.6053171944234785E-3</v>
       </c>
-      <c r="Q27" s="6">
-        <f t="shared" si="43"/>
+      <c r="Q28" s="6">
+        <f t="shared" si="48"/>
         <v>-1.2218307518447102E-2</v>
       </c>
-      <c r="R27" s="6">
-        <f t="shared" si="43"/>
+      <c r="R28" s="6">
+        <f t="shared" si="48"/>
         <v>-2.42695664999526E-3</v>
       </c>
-      <c r="S27" s="6">
-        <f t="shared" si="43"/>
+      <c r="S28" s="6">
+        <f t="shared" si="48"/>
         <v>3.1207783524146215E-2</v>
       </c>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
-      <c r="AK27"/>
-      <c r="AL27"/>
-      <c r="AM27"/>
-      <c r="AN27"/>
-      <c r="AO27"/>
-      <c r="AP27"/>
-      <c r="AQ27"/>
-      <c r="AR27"/>
-      <c r="AS27"/>
-      <c r="AT27"/>
-      <c r="AU27"/>
-      <c r="AV27"/>
+      <c r="T28" s="6">
+        <f t="shared" si="48"/>
+        <v>5.3606224535680758E-2</v>
+      </c>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
     </row>
-    <row r="28" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <f>F4/B4-1</f>
         <v>0.38061210098255849</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" ref="G28:S28" si="44">G4/C4-1</f>
+      <c r="G29" s="6">
+        <f t="shared" ref="G29:T29" si="49">G4/C4-1</f>
         <v>0.39010603902416974</v>
       </c>
-      <c r="H28" s="6">
-        <f t="shared" si="44"/>
+      <c r="H29" s="6">
+        <f t="shared" si="49"/>
         <v>0.31437018266286554</v>
       </c>
-      <c r="I28" s="6">
-        <f t="shared" si="44"/>
+      <c r="I29" s="6">
+        <f t="shared" si="49"/>
         <v>0.28815326972845612</v>
       </c>
-      <c r="J28" s="6">
-        <f t="shared" si="44"/>
+      <c r="J29" s="6">
+        <f t="shared" si="49"/>
         <v>0.16641127796506283</v>
       </c>
-      <c r="K28" s="6">
-        <f t="shared" si="44"/>
+      <c r="K29" s="6">
+        <f t="shared" si="49"/>
         <v>0.11731698192996443</v>
       </c>
-      <c r="L28" s="6">
-        <f t="shared" si="44"/>
+      <c r="L29" s="6">
+        <f t="shared" si="49"/>
         <v>0.13267568522862372</v>
       </c>
-      <c r="M28" s="6">
-        <f t="shared" si="44"/>
+      <c r="M29" s="6">
+        <f t="shared" si="49"/>
         <v>0.11001829140304054</v>
       </c>
-      <c r="N28" s="6">
-        <f t="shared" si="44"/>
+      <c r="N29" s="6">
+        <f t="shared" si="49"/>
         <v>7.6268464996788632E-2</v>
       </c>
-      <c r="O28" s="6">
-        <f t="shared" si="44"/>
+      <c r="O29" s="6">
+        <f t="shared" si="49"/>
         <v>6.2157913124490483E-2</v>
       </c>
-      <c r="P28" s="6">
-        <f t="shared" si="44"/>
+      <c r="P29" s="6">
+        <f t="shared" si="49"/>
         <v>4.3035460992907781E-2</v>
       </c>
-      <c r="Q28" s="6">
-        <f t="shared" si="44"/>
+      <c r="Q29" s="6">
+        <f t="shared" si="49"/>
         <v>3.6374196336917075E-2</v>
       </c>
-      <c r="R28" s="6">
-        <f t="shared" si="44"/>
+      <c r="R29" s="6">
+        <f t="shared" si="49"/>
         <v>4.9367311787123835E-2</v>
       </c>
-      <c r="S28" s="6">
-        <f t="shared" si="44"/>
+      <c r="S29" s="6">
+        <f t="shared" si="49"/>
         <v>9.3797110983197651E-2</v>
       </c>
+      <c r="T29" s="6">
+        <f t="shared" si="49"/>
+        <v>0.13906492234884538</v>
+      </c>
     </row>
-    <row r="29" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <f>F5/B5-1</f>
         <v>0.24579809053617452</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" ref="G29:S29" si="45">G5/C5-1</f>
+      <c r="G30" s="6">
+        <f t="shared" ref="G30:T30" si="50">G5/C5-1</f>
         <v>0.29322337755467909</v>
       </c>
-      <c r="H29" s="6">
-        <f t="shared" si="45"/>
+      <c r="H30" s="6">
+        <f t="shared" si="50"/>
         <v>0.23635125936010892</v>
       </c>
-      <c r="I29" s="6">
-        <f t="shared" si="45"/>
+      <c r="I30" s="6">
+        <f t="shared" si="50"/>
         <v>0.19479899417512803</v>
       </c>
-      <c r="J29" s="6">
-        <f t="shared" si="45"/>
+      <c r="J30" s="6">
+        <f t="shared" si="50"/>
         <v>0.10420187656623336</v>
       </c>
-      <c r="K29" s="6">
-        <f t="shared" si="45"/>
+      <c r="K30" s="6">
+        <f t="shared" si="50"/>
         <v>7.1808805589442137E-2</v>
       </c>
-      <c r="L29" s="6">
-        <f t="shared" si="45"/>
+      <c r="L30" s="6">
+        <f t="shared" si="50"/>
         <v>7.3339940535183334E-2</v>
       </c>
-      <c r="M29" s="6">
-        <f t="shared" si="45"/>
+      <c r="M30" s="6">
+        <f t="shared" si="50"/>
         <v>6.4576284732397404E-2</v>
       </c>
-      <c r="N29" s="6">
-        <f t="shared" si="45"/>
+      <c r="N30" s="6">
+        <f t="shared" si="50"/>
         <v>4.528421385971404E-2</v>
       </c>
-      <c r="O29" s="6">
-        <f t="shared" si="45"/>
+      <c r="O30" s="6">
+        <f t="shared" si="50"/>
         <v>2.4988359459878984E-2</v>
       </c>
-      <c r="P29" s="6">
-        <f t="shared" si="45"/>
+      <c r="P30" s="6">
+        <f t="shared" si="50"/>
         <v>2.4315173899661424E-2</v>
       </c>
-      <c r="Q29" s="6">
-        <f t="shared" si="45"/>
+      <c r="Q30" s="6">
+        <f t="shared" si="50"/>
         <v>4.3492405094967657E-2</v>
       </c>
-      <c r="R29" s="6">
-        <f t="shared" si="45"/>
+      <c r="R30" s="6">
+        <f t="shared" si="50"/>
         <v>4.1378439787932431E-2</v>
       </c>
-      <c r="S29" s="6">
-        <f t="shared" si="45"/>
+      <c r="S30" s="6">
+        <f t="shared" si="50"/>
         <v>7.1825156470825657E-2</v>
       </c>
+      <c r="T30" s="6">
+        <f t="shared" si="50"/>
+        <v>9.2873597756410353E-2</v>
+      </c>
+      <c r="W30">
+        <f>12.75*25</f>
+        <v>318.75</v>
+      </c>
     </row>
-    <row r="30" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <f>F6/B6-1</f>
         <v>0.63372045136314958</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" ref="G30:S30" si="46">G6/C6-1</f>
+      <c r="G31" s="6">
+        <f t="shared" ref="G31:T31" si="51">G6/C6-1</f>
         <v>0.7379075876989647</v>
       </c>
-      <c r="H30" s="6">
-        <f t="shared" si="46"/>
+      <c r="H31" s="6">
+        <f t="shared" si="51"/>
         <v>0.62264411460131175</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" si="46"/>
+      <c r="I31" s="6">
+        <f t="shared" si="51"/>
         <v>0.57038132199839842</v>
       </c>
-      <c r="J30" s="6">
-        <f t="shared" si="46"/>
+      <c r="J31" s="6">
+        <f t="shared" si="51"/>
         <v>0.35381900680615064</v>
       </c>
-      <c r="K30" s="6">
-        <f t="shared" si="46"/>
+      <c r="K31" s="6">
+        <f t="shared" si="51"/>
         <v>0.23932953939178381</v>
       </c>
-      <c r="L30" s="6">
-        <f t="shared" si="46"/>
+      <c r="L31" s="6">
+        <f t="shared" si="51"/>
         <v>0.27854833219877473</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" si="46"/>
+      <c r="M31" s="6">
+        <f t="shared" si="51"/>
         <v>0.28008787070453467</v>
       </c>
-      <c r="N30" s="6">
-        <f t="shared" si="46"/>
+      <c r="N31" s="6">
+        <f t="shared" si="51"/>
         <v>0.25568837746248096</v>
       </c>
-      <c r="O30" s="6">
-        <f t="shared" si="46"/>
+      <c r="O31" s="6">
+        <f t="shared" si="51"/>
         <v>0.24839461883408065</v>
       </c>
-      <c r="P30" s="6">
-        <f t="shared" si="46"/>
+      <c r="P31" s="6">
+        <f t="shared" si="51"/>
         <v>0.20555056404113015</v>
       </c>
-      <c r="Q30" s="6">
-        <f t="shared" si="46"/>
+      <c r="Q31" s="6">
+        <f t="shared" si="51"/>
         <v>0.16520593282667329</v>
       </c>
-      <c r="R30" s="6">
-        <f t="shared" si="46"/>
+      <c r="R31" s="6">
+        <f t="shared" si="51"/>
         <v>0.17079391441027303</v>
       </c>
-      <c r="S30" s="6">
-        <f t="shared" si="46"/>
+      <c r="S31" s="6">
+        <f t="shared" si="51"/>
         <v>0.16526336963705845</v>
       </c>
+      <c r="T31" s="6">
+        <f t="shared" si="51"/>
+        <v>0.17111074307165719</v>
+      </c>
     </row>
-    <row r="31" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:361" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="6">
         <f>F7/B7-1</f>
         <v>0.2283508998206405</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" ref="G31:S31" si="47">G7/C7-1</f>
+      <c r="G32" s="6">
+        <f t="shared" ref="G32:T32" si="52">G7/C7-1</f>
         <v>0.27305657090827506</v>
       </c>
-      <c r="H31" s="6">
-        <f t="shared" si="47"/>
+      <c r="H32" s="6">
+        <f t="shared" si="52"/>
         <v>0.23252744198971786</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" si="47"/>
+      <c r="I32" s="6">
+        <f t="shared" si="52"/>
         <v>0.2188820396193667</v>
       </c>
-      <c r="J31" s="6">
-        <f t="shared" si="47"/>
+      <c r="J32" s="6">
+        <f t="shared" si="52"/>
         <v>0.13553287833048966</v>
       </c>
-      <c r="K31" s="6">
-        <f t="shared" si="47"/>
+      <c r="K32" s="6">
+        <f t="shared" si="52"/>
         <v>8.4131911872172171E-2</v>
       </c>
-      <c r="L31" s="6">
-        <f t="shared" si="47"/>
+      <c r="L32" s="6">
+        <f t="shared" si="52"/>
         <v>9.434745402278244E-2</v>
       </c>
-      <c r="M31" s="6">
-        <f t="shared" si="47"/>
+      <c r="M32" s="6">
+        <f t="shared" si="52"/>
         <v>8.92700195911873E-2</v>
       </c>
-      <c r="N31" s="6">
-        <f t="shared" si="47"/>
+      <c r="N32" s="6">
+        <f t="shared" si="52"/>
         <v>6.7434345185634736E-2</v>
       </c>
-      <c r="O31" s="6">
-        <f t="shared" si="47"/>
+      <c r="O32" s="6">
+        <f t="shared" si="52"/>
         <v>5.4938330624342724E-2</v>
       </c>
-      <c r="P31" s="6">
-        <f t="shared" si="47"/>
+      <c r="P32" s="6">
+        <f t="shared" si="52"/>
         <v>4.4586374980684962E-2</v>
       </c>
-      <c r="Q31" s="6">
-        <f t="shared" si="47"/>
+      <c r="Q32" s="6">
+        <f t="shared" si="52"/>
         <v>4.0131804330971299E-2</v>
       </c>
-      <c r="R31" s="6">
-        <f t="shared" si="47"/>
+      <c r="R32" s="6">
+        <f t="shared" si="52"/>
         <v>4.8984619271705165E-2</v>
       </c>
-      <c r="S31" s="6">
-        <f t="shared" si="47"/>
+      <c r="S32" s="6">
+        <f t="shared" si="52"/>
         <v>8.0336426914153103E-2</v>
       </c>
-      <c r="V31">
-        <f>0.015*70000</f>
-        <v>1050</v>
-      </c>
-      <c r="Z31" s="6">
-        <f t="shared" ref="Z31:AA31" si="48">Z7/Y7-1</f>
+      <c r="T32" s="6">
+        <f t="shared" si="52"/>
+        <v>0.10788712822466762</v>
+      </c>
+      <c r="Z32" s="6">
+        <f t="shared" ref="Z32:AA32" si="53">Z7/Y7-1</f>
         <v>0.2188820396193667</v>
       </c>
-      <c r="AA31" s="6">
-        <f t="shared" si="48"/>
+      <c r="AA32" s="6">
+        <f t="shared" si="53"/>
         <v>8.92700195911873E-2</v>
       </c>
-      <c r="AB31" s="6">
+      <c r="AB32" s="6">
         <f>AB7/AA7-1</f>
         <v>4.0131804330971299E-2</v>
       </c>
-      <c r="AC31" s="6">
-        <f t="shared" ref="AC31:AL31" si="49">AC7/AB7-1</f>
-        <v>-2.5000000000000022E-2</v>
-      </c>
-      <c r="AD31" s="6">
-        <f t="shared" si="49"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AE31" s="6">
-        <f t="shared" si="49"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AF31" s="6">
-        <f t="shared" si="49"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AG31" s="6">
-        <f t="shared" si="49"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AH31" s="6">
-        <f t="shared" si="49"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AI31" s="6">
-        <f t="shared" si="49"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AJ31" s="6">
-        <f t="shared" si="49"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AK31" s="6">
-        <f t="shared" si="49"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AL31" s="6">
-        <f t="shared" si="49"/>
-        <v>3.0000000000000027E-2</v>
+      <c r="AC32" s="6">
+        <f t="shared" ref="AC32:AL32" si="54">AC7/AB7-1</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AD32" s="6">
+        <f t="shared" si="54"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AE32" s="6">
+        <f t="shared" si="54"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AF32" s="6">
+        <f t="shared" si="54"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AG32" s="6">
+        <f t="shared" si="54"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AH32" s="6">
+        <f t="shared" si="54"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AI32" s="6">
+        <f t="shared" si="54"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AJ32" s="6">
+        <f t="shared" si="54"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AK32" s="6">
+        <f t="shared" si="54"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AL32" s="6">
+        <f t="shared" si="54"/>
+        <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:361" x14ac:dyDescent="0.25">
-      <c r="F32" s="6"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="F33" s="6"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>50</v>
-      </c>
-      <c r="F34" s="6">
-        <f>F9/B9-1</f>
-        <v>0.27588495575221228</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" ref="G34:S34" si="50">G9/C9-1</f>
-        <v>0.24883201300020308</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" si="50"/>
-        <v>0.22711670480549206</v>
-      </c>
-      <c r="I34" s="6">
-        <f t="shared" si="50"/>
-        <v>0.21529175050301808</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="50"/>
-        <v>0.24206693254725153</v>
-      </c>
-      <c r="K34" s="6">
-        <f t="shared" si="50"/>
-        <v>0.19404684450227716</v>
-      </c>
-      <c r="L34" s="6">
-        <f t="shared" si="50"/>
-        <v>0.16285936285936287</v>
-      </c>
-      <c r="M34" s="6">
-        <f t="shared" si="50"/>
-        <v>0.1602950030102348</v>
-      </c>
-      <c r="N34" s="6">
-        <f t="shared" si="50"/>
-        <v>9.828284238447571E-2</v>
-      </c>
-      <c r="O34" s="6">
-        <f t="shared" si="50"/>
-        <v>8.5683149434681916E-2</v>
-      </c>
-      <c r="P34" s="6">
-        <f t="shared" si="50"/>
-        <v>5.9067219029800944E-2</v>
-      </c>
-      <c r="Q34" s="6">
-        <f t="shared" si="50"/>
-        <v>1.8549747048903775E-2</v>
-      </c>
-      <c r="R34" s="6">
-        <f t="shared" si="50"/>
-        <v>3.7371297826363392E-2</v>
-      </c>
-      <c r="S34" s="6">
-        <f t="shared" si="50"/>
-        <v>2.7227101631116746E-2</v>
-      </c>
-      <c r="Y34" s="6">
-        <f t="shared" ref="Y34:AA34" si="51">Y9/X9-1</f>
-        <v>0.27618082816259348</v>
-      </c>
-      <c r="Z34" s="6">
-        <f t="shared" si="51"/>
-        <v>0.2401270093272474</v>
-      </c>
-      <c r="AA34" s="6">
-        <f t="shared" si="51"/>
-        <v>0.18807009121459428</v>
-      </c>
-      <c r="AB34" s="6">
-        <f>AB9/AA9-1</f>
-        <v>6.4585648381991545E-2</v>
-      </c>
-      <c r="AC34" s="6">
-        <f t="shared" ref="AC34:AL34" si="52">AC9/AB9-1</f>
-        <v>7.9227038204966016E-2</v>
-      </c>
-      <c r="AD34" s="6">
-        <f t="shared" si="52"/>
-        <v>6.06431576309856E-2</v>
-      </c>
-      <c r="AE34" s="6">
-        <f t="shared" si="52"/>
-        <v>6.9468931712544535E-2</v>
-      </c>
-      <c r="AF34" s="6">
-        <f t="shared" si="52"/>
-        <v>6.8012324115692691E-2</v>
-      </c>
-      <c r="AG34" s="6">
-        <f t="shared" si="52"/>
-        <v>6.6659402663337142E-2</v>
-      </c>
-      <c r="AH34" s="6">
-        <f t="shared" si="52"/>
-        <v>6.5399476767331821E-2</v>
-      </c>
-      <c r="AI34" s="6">
-        <f t="shared" si="52"/>
-        <v>6.4223276682080499E-2</v>
-      </c>
-      <c r="AJ34" s="6">
-        <f t="shared" si="52"/>
-        <v>6.3122725047361605E-2</v>
-      </c>
-      <c r="AK34" s="6">
-        <f t="shared" si="52"/>
-        <v>6.2090751138127231E-2</v>
-      </c>
-      <c r="AL34" s="6">
-        <f t="shared" si="52"/>
-        <v>6.1121138788612139E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>51</v>
       </c>
       <c r="F35" s="6">
         <f>F10/B10-1</f>
-        <v>0.25400696864111505</v>
+        <v>0.27588495575221228</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" ref="G35:S35" si="53">G10/C10-1</f>
-        <v>0.21231281198003327</v>
+        <f t="shared" ref="G35:T35" si="55">G10/C10-1</f>
+        <v>0.24883201300020308</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="53"/>
-        <v>0.24862770422989988</v>
+        <f t="shared" si="55"/>
+        <v>0.22711670480549206</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="53"/>
-        <v>0.20167339873052503</v>
+        <f t="shared" si="55"/>
+        <v>0.21529175050301808</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="53"/>
-        <v>7.4742984162267323E-2</v>
+        <f t="shared" si="55"/>
+        <v>0.24206693254725153</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="53"/>
-        <v>0.10293713972001095</v>
+        <f t="shared" si="55"/>
+        <v>0.19404684450227716</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="53"/>
-        <v>8.7664856477889908E-2</v>
+        <f t="shared" si="55"/>
+        <v>0.16285936285936287</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="53"/>
-        <v>0.25786314525810328</v>
+        <f t="shared" si="55"/>
+        <v>0.1602950030102348</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="53"/>
-        <v>0.10754912099276104</v>
+        <f t="shared" si="55"/>
+        <v>9.828284238447571E-2</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="53"/>
-        <v>0.16724738675958184</v>
+        <f t="shared" si="55"/>
+        <v>8.5683149434681916E-2</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="53"/>
-        <v>0.13837375178316691</v>
+        <f t="shared" si="55"/>
+        <v>5.9067219029800944E-2</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="53"/>
-        <v>3.1494560030540075E-2</v>
+        <f t="shared" si="55"/>
+        <v>1.8549747048903775E-2</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="53"/>
-        <v>0.12114845938375352</v>
+        <f t="shared" si="55"/>
+        <v>3.7371297826363392E-2</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="53"/>
-        <v>-3.6247334754797578E-3</v>
+        <f t="shared" si="55"/>
+        <v>2.7227101631116746E-2</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="55"/>
+        <v>7.7728706624605737E-2</v>
       </c>
       <c r="Y35" s="6">
-        <f t="shared" ref="Y35:AA35" si="54">Y10/X10-1</f>
-        <v>0.24811879201364495</v>
+        <f t="shared" ref="Y35:AA35" si="56">Y10/X10-1</f>
+        <v>0.27618082816259348</v>
       </c>
       <c r="Z35" s="6">
-        <f t="shared" si="54"/>
-        <v>0.22797427652733115</v>
+        <f t="shared" si="56"/>
+        <v>0.2401270093272474</v>
       </c>
       <c r="AA35" s="6">
-        <f t="shared" si="54"/>
-        <v>0.13459020686043477</v>
+        <f t="shared" si="56"/>
+        <v>0.18807009121459428</v>
       </c>
       <c r="AB35" s="6">
         <f>AB10/AA10-1</f>
+        <v>6.4585648381991545E-2</v>
+      </c>
+      <c r="AC35" s="6">
+        <f t="shared" ref="AC35:AL35" si="57">AC10/AB10-1</f>
+        <v>0.19545148847319305</v>
+      </c>
+      <c r="AD35" s="6">
+        <f t="shared" si="57"/>
+        <v>0.123033931609279</v>
+      </c>
+      <c r="AE35" s="6">
+        <f t="shared" si="57"/>
+        <v>0.12138489927140594</v>
+      </c>
+      <c r="AF35" s="6">
+        <f t="shared" si="57"/>
+        <v>0.11985758256791113</v>
+      </c>
+      <c r="AG35" s="6">
+        <f t="shared" si="57"/>
+        <v>0.11843898531689701</v>
+      </c>
+      <c r="AH35" s="6">
+        <f t="shared" si="57"/>
+        <v>0.1171178979696299</v>
+      </c>
+      <c r="AI35" s="6">
+        <f t="shared" si="57"/>
+        <v>0.11588460079286134</v>
+      </c>
+      <c r="AJ35" s="6">
+        <f t="shared" si="57"/>
+        <v>0.11473062432150538</v>
+      </c>
+      <c r="AK35" s="6">
+        <f t="shared" si="57"/>
+        <v>0.11364855459143453</v>
+      </c>
+      <c r="AL35" s="6">
+        <f t="shared" si="57"/>
+        <v>0.11263187368126326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="6">
+        <f>F11/B11-1</f>
+        <v>0.25400696864111505</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" ref="G36:T36" si="58">G11/C11-1</f>
+        <v>0.21231281198003327</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" si="58"/>
+        <v>0.24862770422989988</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="58"/>
+        <v>0.20167339873052503</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="58"/>
+        <v>7.4742984162267323E-2</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="58"/>
+        <v>0.10293713972001095</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="58"/>
+        <v>8.7664856477889908E-2</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="58"/>
+        <v>0.25786314525810328</v>
+      </c>
+      <c r="N36" s="6">
+        <f t="shared" si="58"/>
+        <v>0.10754912099276104</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="58"/>
+        <v>0.16724738675958184</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="58"/>
+        <v>0.13837375178316691</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" si="58"/>
+        <v>3.1494560030540075E-2</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" si="58"/>
+        <v>0.12114845938375352</v>
+      </c>
+      <c r="S36" s="6">
+        <f t="shared" si="58"/>
+        <v>-3.6247334754797578E-3</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="58"/>
+        <v>2.965747702589816E-2</v>
+      </c>
+      <c r="Y36" s="6">
+        <f t="shared" ref="Y36:AA36" si="59">Y11/X11-1</f>
+        <v>0.24811879201364495</v>
+      </c>
+      <c r="Z36" s="6">
+        <f t="shared" si="59"/>
+        <v>0.22797427652733115</v>
+      </c>
+      <c r="AA36" s="6">
+        <f t="shared" si="59"/>
+        <v>0.13459020686043477</v>
+      </c>
+      <c r="AB36" s="6">
+        <f>AB11/AA11-1</f>
         <v>0.1059312254788829</v>
       </c>
-      <c r="AC35" s="6">
-        <f t="shared" ref="AC35:AL35" si="55">AC10/AB10-1</f>
-        <v>5.0222248517398871E-2</v>
-      </c>
-      <c r="AD35" s="6">
-        <f t="shared" si="55"/>
-        <v>6.06431576309856E-2</v>
-      </c>
-      <c r="AE35" s="6">
-        <f t="shared" si="55"/>
-        <v>6.9468931712544535E-2</v>
-      </c>
-      <c r="AF35" s="6">
-        <f t="shared" si="55"/>
-        <v>6.8012324115692691E-2</v>
-      </c>
-      <c r="AG35" s="6">
-        <f t="shared" si="55"/>
-        <v>6.6659402663337142E-2</v>
-      </c>
-      <c r="AH35" s="6">
-        <f t="shared" si="55"/>
-        <v>6.5399476767331821E-2</v>
-      </c>
-      <c r="AI35" s="6">
-        <f t="shared" si="55"/>
-        <v>6.4223276682080499E-2</v>
-      </c>
-      <c r="AJ35" s="6">
-        <f t="shared" si="55"/>
-        <v>6.3122725047361605E-2</v>
-      </c>
-      <c r="AK35" s="6">
-        <f t="shared" si="55"/>
-        <v>6.2090751138127231E-2</v>
-      </c>
-      <c r="AL35" s="6">
-        <f t="shared" si="55"/>
-        <v>6.1121138788612139E-2</v>
+      <c r="AC36" s="6">
+        <f t="shared" ref="AC36:AL36" si="60">AC11/AB11-1</f>
+        <v>0.16332310605004174</v>
+      </c>
+      <c r="AD36" s="6">
+        <f t="shared" si="60"/>
+        <v>0.123033931609279</v>
+      </c>
+      <c r="AE36" s="6">
+        <f t="shared" si="60"/>
+        <v>0.12138489927140594</v>
+      </c>
+      <c r="AF36" s="6">
+        <f t="shared" si="60"/>
+        <v>0.11985758256791113</v>
+      </c>
+      <c r="AG36" s="6">
+        <f t="shared" si="60"/>
+        <v>0.11843898531689701</v>
+      </c>
+      <c r="AH36" s="6">
+        <f t="shared" si="60"/>
+        <v>0.1171178979696299</v>
+      </c>
+      <c r="AI36" s="6">
+        <f t="shared" si="60"/>
+        <v>0.11588460079286111</v>
+      </c>
+      <c r="AJ36" s="6">
+        <f t="shared" si="60"/>
+        <v>0.11473062432150538</v>
+      </c>
+      <c r="AK36" s="6">
+        <f t="shared" si="60"/>
+        <v>0.1136485545914343</v>
+      </c>
+      <c r="AL36" s="6">
+        <f t="shared" si="60"/>
+        <v>0.11263187368126326</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AP36" t="s">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AP37" t="s">
         <v>57</v>
       </c>
-      <c r="AQ36" s="6">
+      <c r="AQ37" s="6">
         <v>0.03</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="6">
-        <f t="shared" ref="B37:E37" si="56">B11/B9</f>
+      <c r="B38" s="6">
+        <f t="shared" ref="B38:E38" si="61">B12/B10</f>
         <v>0.36504424778761063</v>
-      </c>
-      <c r="C37" s="6">
-        <f t="shared" si="56"/>
-        <v>0.38959983749746091</v>
-      </c>
-      <c r="D37" s="6">
-        <f t="shared" si="56"/>
-        <v>0.40942028985507245</v>
-      </c>
-      <c r="E37" s="6">
-        <f t="shared" si="56"/>
-        <v>0.36601426742271814</v>
-      </c>
-      <c r="F37" s="6">
-        <f>F11/F9</f>
-        <v>0.37593202705045953</v>
-      </c>
-      <c r="G37" s="6">
-        <f t="shared" ref="G37:R37" si="57">G11/G9</f>
-        <v>0.40744957709824331</v>
-      </c>
-      <c r="H37" s="6">
-        <f t="shared" si="57"/>
-        <v>0.39906759906759909</v>
-      </c>
-      <c r="I37" s="6">
-        <f t="shared" si="57"/>
-        <v>0.37311860325105356</v>
-      </c>
-      <c r="J37" s="6">
-        <f t="shared" si="57"/>
-        <v>0.4600027921262041</v>
-      </c>
-      <c r="K37" s="6">
-        <f t="shared" si="57"/>
-        <v>0.45266312491486171</v>
-      </c>
-      <c r="L37" s="6">
-        <f t="shared" si="57"/>
-        <v>0.43792596552184954</v>
-      </c>
-      <c r="M37" s="6">
-        <f t="shared" si="57"/>
-        <v>0.32040472175379425</v>
-      </c>
-      <c r="N37" s="6">
-        <f t="shared" si="57"/>
-        <v>0.45544680310156349</v>
-      </c>
-      <c r="O37" s="6">
-        <f t="shared" si="57"/>
-        <v>0.41154328732747802</v>
-      </c>
-      <c r="P37" s="6">
-        <f t="shared" si="57"/>
-        <v>0.39583596214511041</v>
-      </c>
-      <c r="Q37" s="6">
-        <f t="shared" si="57"/>
-        <v>0.3117677024961793</v>
-      </c>
-      <c r="R37" s="6">
-        <f t="shared" si="57"/>
-        <v>0.41146918269819877</v>
-      </c>
-      <c r="S37" s="6">
-        <f t="shared" ref="S37" si="58">S11/S9</f>
-        <v>0.42921705142298766</v>
-      </c>
-      <c r="X37" s="6">
-        <f t="shared" ref="X37:AB37" si="59">X11/X9</f>
-        <v>0.36893757122958087</v>
-      </c>
-      <c r="Y37" s="6">
-        <f t="shared" si="59"/>
-        <v>0.38281405040682676</v>
-      </c>
-      <c r="Z37" s="6">
-        <f t="shared" si="59"/>
-        <v>0.3888622179548728</v>
-      </c>
-      <c r="AA37" s="6">
-        <f t="shared" si="59"/>
-        <v>0.41637202411017948</v>
-      </c>
-      <c r="AB37" s="6">
-        <f t="shared" si="59"/>
-        <v>0.39370551953186778</v>
-      </c>
-      <c r="AC37" s="6">
-        <f t="shared" ref="AC37:AL37" si="60">AC11/AC9</f>
-        <v>0.41</v>
-      </c>
-      <c r="AD37" s="6">
-        <f t="shared" si="60"/>
-        <v>0.41</v>
-      </c>
-      <c r="AE37" s="6">
-        <f t="shared" si="60"/>
-        <v>0.41</v>
-      </c>
-      <c r="AF37" s="6">
-        <f t="shared" si="60"/>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="AG37" s="6">
-        <f t="shared" si="60"/>
-        <v>0.41</v>
-      </c>
-      <c r="AH37" s="6">
-        <f t="shared" si="60"/>
-        <v>0.41</v>
-      </c>
-      <c r="AI37" s="6">
-        <f t="shared" si="60"/>
-        <v>0.41</v>
-      </c>
-      <c r="AJ37" s="6">
-        <f t="shared" si="60"/>
-        <v>0.41</v>
-      </c>
-      <c r="AK37" s="6">
-        <f t="shared" si="60"/>
-        <v>0.41</v>
-      </c>
-      <c r="AL37" s="6">
-        <f t="shared" si="60"/>
-        <v>0.41</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ37" s="6">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="6">
-        <f t="shared" ref="B38:E38" si="61">B16/B9</f>
-        <v>0.10199115044247788</v>
       </c>
       <c r="C38" s="6">
         <f t="shared" si="61"/>
-        <v>0.14381474710542352</v>
+        <v>0.38959983749746091</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="61"/>
-        <v>0.18726163234172388</v>
+        <v>0.40942028985507245</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="61"/>
-        <v>8.4141210901774288E-2</v>
+        <v>0.36601426742271814</v>
       </c>
       <c r="F38" s="6">
-        <f>F16/F9</f>
-        <v>0.16646436622160568</v>
+        <f>F12/F10</f>
+        <v>0.37593202705045953</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" ref="G38:R38" si="62">G16/G9</f>
-        <v>0.22104749512036434</v>
+        <f t="shared" ref="G38:R38" si="62">G12/G10</f>
+        <v>0.40744957709824331</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="62"/>
-        <v>0.20466200466200465</v>
+        <v>0.39906759906759909</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="62"/>
-        <v>0.14388922335942203</v>
+        <v>0.37311860325105356</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" si="62"/>
-        <v>0.27376797431243893</v>
+        <v>0.4600027921262041</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="62"/>
-        <v>0.25187304181991554</v>
+        <v>0.45266312491486171</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="62"/>
-        <v>0.23493251369771481</v>
+        <v>0.43792596552184954</v>
       </c>
       <c r="M38" s="6">
         <f t="shared" si="62"/>
-        <v>8.2241535867168244E-2</v>
+        <v>0.32040472175379425</v>
       </c>
       <c r="N38" s="6">
         <f t="shared" si="62"/>
-        <v>0.25092157111986779</v>
+        <v>0.45544680310156349</v>
       </c>
       <c r="O38" s="6">
         <f t="shared" si="62"/>
-        <v>0.19836888331242158</v>
+        <v>0.41154328732747802</v>
       </c>
       <c r="P38" s="6">
         <f t="shared" si="62"/>
-        <v>0.19369085173501577</v>
+        <v>0.39583596214511041</v>
       </c>
       <c r="Q38" s="6">
         <f t="shared" si="62"/>
-        <v>7.0300560366785531E-2</v>
+        <v>0.3117677024961793</v>
       </c>
       <c r="R38" s="6">
         <f t="shared" si="62"/>
-        <v>0.21026834946697709</v>
+        <v>0.41146918269819877</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" ref="S38" si="63">S16/S9</f>
-        <v>0.22328081104189568</v>
+        <f t="shared" ref="S38:T38" si="63">S12/S10</f>
+        <v>0.42921705142298766</v>
+      </c>
+      <c r="T38" s="6">
+        <f t="shared" si="63"/>
+        <v>0.42278421730476523</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" ref="X38:AB38" si="64">X16/X9</f>
-        <v>0.10174749905027225</v>
+        <f t="shared" ref="X38:AB38" si="64">X12/X10</f>
+        <v>0.36893757122958087</v>
       </c>
       <c r="Y38" s="6">
         <f t="shared" si="64"/>
-        <v>0.12919230005953561</v>
+        <v>0.38281405040682676</v>
       </c>
       <c r="Z38" s="6">
         <f t="shared" si="64"/>
-        <v>0.18350936149783967</v>
+        <v>0.3888622179548728</v>
       </c>
       <c r="AA38" s="6">
         <f t="shared" si="64"/>
-        <v>0.20864060342795568</v>
+        <v>0.41637202411017948</v>
       </c>
       <c r="AB38" s="6">
         <f t="shared" si="64"/>
-        <v>0.17820654752490905</v>
+        <v>0.39370551953186778</v>
       </c>
       <c r="AC38" s="6">
-        <f t="shared" ref="AC38:AL38" si="65">AC16/AC9</f>
-        <v>0.19</v>
+        <f t="shared" ref="AC38:AL38" si="65">AC12/AC10</f>
+        <v>0.41</v>
       </c>
       <c r="AD38" s="6">
         <f t="shared" si="65"/>
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="AE38" s="6">
         <f t="shared" si="65"/>
-        <v>0.19</v>
+        <v>0.40999999999999992</v>
       </c>
       <c r="AF38" s="6">
         <f t="shared" si="65"/>
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="AG38" s="6">
         <f t="shared" si="65"/>
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="AH38" s="6">
         <f t="shared" si="65"/>
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="AI38" s="6">
         <f t="shared" si="65"/>
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="AJ38" s="6">
         <f t="shared" si="65"/>
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="AK38" s="6">
         <f t="shared" si="65"/>
-        <v>0.19</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="AL38" s="6">
         <f t="shared" si="65"/>
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="AP38" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="AQ38" s="6">
-        <v>-0.01</v>
+        <v>0.08</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="6">
-        <f t="shared" ref="B39:E39" si="66">B21/B9</f>
-        <v>7.6769911504424776E-2</v>
+        <f t="shared" ref="B39:E39" si="66">B17/B10</f>
+        <v>0.10199115044247788</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" si="66"/>
-        <v>5.5453991468616695E-2</v>
+        <v>0.14381474710542352</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="66"/>
-        <v>0.12719298245614036</v>
+        <v>0.18726163234172388</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="66"/>
-        <v>0.10773733308944576</v>
+        <v>8.4141210901774288E-2</v>
       </c>
       <c r="F39" s="6">
-        <f>F21/F9</f>
-        <v>0.12328767123287671</v>
+        <f>F17/F10</f>
+        <v>0.16646436622160568</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" ref="G39:R39" si="67">G21/G9</f>
-        <v>0.11743656473649967</v>
+        <f t="shared" ref="G39:R39" si="67">G17/G10</f>
+        <v>0.22104749512036434</v>
       </c>
       <c r="H39" s="6">
         <f t="shared" si="67"/>
-        <v>0.12323232323232323</v>
+        <v>0.20466200466200465</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="67"/>
-        <v>8.187838651414811E-2</v>
+        <v>0.14388922335942203</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" si="67"/>
-        <v>0.23858718414072316</v>
+        <v>0.27376797431243893</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="67"/>
-        <v>0.18471597874948917</v>
+        <v>0.25187304181991554</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="67"/>
-        <v>0.19283709742082053</v>
+        <v>0.23493251369771481</v>
       </c>
       <c r="M39" s="6">
         <f t="shared" si="67"/>
-        <v>7.899857309638085E-2</v>
+        <v>8.2241535867168244E-2</v>
       </c>
       <c r="N39" s="6">
         <f t="shared" si="67"/>
-        <v>0.20338121266048048</v>
+        <v>0.25092157111986779</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" si="67"/>
-        <v>0.18117942283563362</v>
+        <v>0.19836888331242158</v>
       </c>
       <c r="P39" s="6">
         <f t="shared" si="67"/>
-        <v>0.17678233438485805</v>
+        <v>0.19369085173501577</v>
       </c>
       <c r="Q39" s="6">
         <f t="shared" si="67"/>
-        <v>7.3866530820173209E-3</v>
+        <v>7.0300560366785531E-2</v>
       </c>
       <c r="R39" s="6">
         <f t="shared" si="67"/>
-        <v>0.16027447616713639</v>
+        <v>0.21026834946697709</v>
       </c>
       <c r="S39" s="6">
-        <f t="shared" ref="S39" si="68">S21/S9</f>
-        <v>0.18186148772444119</v>
+        <f t="shared" ref="S39:T39" si="68">S17/S10</f>
+        <v>0.22328081104189568</v>
+      </c>
+      <c r="T39" s="6">
+        <f t="shared" si="68"/>
+        <v>0.22456386839948483</v>
       </c>
       <c r="X39" s="6">
-        <f t="shared" ref="X39:AB39" si="69">X21/X9</f>
-        <v>7.6801316955805998E-2</v>
+        <f t="shared" ref="X39:AB39" si="69">X17/X10</f>
+        <v>0.10174749905027225</v>
       </c>
       <c r="Y39" s="6">
         <f t="shared" si="69"/>
-        <v>9.2627505457432036E-2</v>
+        <v>0.12919230005953561</v>
       </c>
       <c r="Z39" s="6">
         <f t="shared" si="69"/>
-        <v>0.11061769883181309</v>
+        <v>0.18350936149783967</v>
       </c>
       <c r="AA39" s="6">
         <f t="shared" si="69"/>
-        <v>0.17237431390376132</v>
+        <v>0.20864060342795568</v>
       </c>
       <c r="AB39" s="6">
         <f t="shared" si="69"/>
-        <v>0.14211608413727661</v>
+        <v>0.17820654752490905</v>
       </c>
       <c r="AC39" s="6">
-        <f t="shared" ref="AC39:AL39" si="70">AC21/AC9</f>
-        <v>0.16694182704468619</v>
+        <f t="shared" ref="AC39:AL39" si="70">AC17/AC10</f>
+        <v>0.2</v>
       </c>
       <c r="AD39" s="6">
         <f t="shared" si="70"/>
-        <v>0.17092644751632141</v>
+        <v>0.24000000000000002</v>
       </c>
       <c r="AE39" s="6">
         <f t="shared" si="70"/>
-        <v>0.17867741940563739</v>
+        <v>0.23999999999999996</v>
       </c>
       <c r="AF39" s="6">
         <f t="shared" si="70"/>
-        <v>0.18130323952325572</v>
+        <v>0.24</v>
       </c>
       <c r="AG39" s="6">
         <f t="shared" si="70"/>
-        <v>0.18403623268784058</v>
+        <v>0.24</v>
       </c>
       <c r="AH39" s="6">
         <f t="shared" si="70"/>
-        <v>0.18786662873675963</v>
+        <v>0.24</v>
       </c>
       <c r="AI39" s="6">
         <f t="shared" si="70"/>
-        <v>0.19166994480251384</v>
+        <v>0.24000000000000002</v>
       </c>
       <c r="AJ39" s="6">
         <f t="shared" si="70"/>
-        <v>0.19474836066694523</v>
+        <v>0.23999999999999996</v>
       </c>
       <c r="AK39" s="6">
         <f t="shared" si="70"/>
-        <v>0.19790397390438583</v>
+        <v>0.23999999999999996</v>
       </c>
       <c r="AL39" s="6">
         <f t="shared" si="70"/>
-        <v>0.20113180807791362</v>
+        <v>0.24</v>
       </c>
       <c r="AP39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ39" s="6">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="6">
+        <f t="shared" ref="B40:E40" si="71">B22/B10</f>
+        <v>7.6769911504424776E-2</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="71"/>
+        <v>5.5453991468616695E-2</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="71"/>
+        <v>0.12719298245614036</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="71"/>
+        <v>0.10773733308944576</v>
+      </c>
+      <c r="F40" s="6">
+        <f>F22/F10</f>
+        <v>0.12328767123287671</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" ref="G40:R40" si="72">G22/G10</f>
+        <v>0.11743656473649967</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="72"/>
+        <v>0.12323232323232323</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="72"/>
+        <v>8.187838651414811E-2</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="72"/>
+        <v>0.23858718414072316</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="72"/>
+        <v>0.18471597874948917</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="72"/>
+        <v>0.19283709742082053</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="72"/>
+        <v>7.899857309638085E-2</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" si="72"/>
+        <v>0.20338121266048048</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="72"/>
+        <v>0.18117942283563362</v>
+      </c>
+      <c r="P40" s="6">
+        <f t="shared" si="72"/>
+        <v>0.17678233438485805</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" si="72"/>
+        <v>7.3866530820173209E-3</v>
+      </c>
+      <c r="R40" s="6">
+        <f t="shared" si="72"/>
+        <v>0.16027447616713639</v>
+      </c>
+      <c r="S40" s="6">
+        <f t="shared" ref="S40:T40" si="73">S22/S10</f>
+        <v>0.18186148772444119</v>
+      </c>
+      <c r="T40" s="6">
+        <f t="shared" si="73"/>
+        <v>0.19669827889005972</v>
+      </c>
+      <c r="X40" s="6">
+        <f t="shared" ref="X40:AB40" si="74">X22/X10</f>
+        <v>7.6801316955805998E-2</v>
+      </c>
+      <c r="Y40" s="6">
+        <f t="shared" si="74"/>
+        <v>9.2627505457432036E-2</v>
+      </c>
+      <c r="Z40" s="6">
+        <f t="shared" si="74"/>
+        <v>0.11061769883181309</v>
+      </c>
+      <c r="AA40" s="6">
+        <f t="shared" si="74"/>
+        <v>0.17237431390376132</v>
+      </c>
+      <c r="AB40" s="6">
+        <f t="shared" si="74"/>
+        <v>0.14211608413727661</v>
+      </c>
+      <c r="AC40" s="6">
+        <f t="shared" ref="AC40:AL40" si="75">AC22/AC10</f>
+        <v>0.15978811563010861</v>
+      </c>
+      <c r="AD40" s="6">
+        <f t="shared" si="75"/>
+        <v>0.195082391258348</v>
+      </c>
+      <c r="AE40" s="6">
+        <f t="shared" si="75"/>
+        <v>0.2017135210755511</v>
+      </c>
+      <c r="AF40" s="6">
+        <f t="shared" si="75"/>
+        <v>0.20424958322983863</v>
+      </c>
+      <c r="AG40" s="6">
+        <f t="shared" si="75"/>
+        <v>0.20674835087109777</v>
+      </c>
+      <c r="AH40" s="6">
+        <f t="shared" si="75"/>
+        <v>0.20983855736581986</v>
+      </c>
+      <c r="AI40" s="6">
+        <f t="shared" si="75"/>
+        <v>0.2127377264470206</v>
+      </c>
+      <c r="AJ40" s="6">
+        <f t="shared" si="75"/>
+        <v>0.21505039603322496</v>
+      </c>
+      <c r="AK40" s="6">
+        <f t="shared" si="75"/>
+        <v>0.21729105655622916</v>
+      </c>
+      <c r="AL40" s="6">
+        <f t="shared" si="75"/>
+        <v>0.21945646564911178</v>
+      </c>
+      <c r="AP40" t="s">
         <v>58</v>
       </c>
-      <c r="AQ39" s="8">
-        <f>NPV(AQ37,AC21:MW21)</f>
-        <v>116391.43450115589</v>
+      <c r="AQ40" s="8">
+        <f>NPV(AQ38,AC22:MW22)</f>
+        <v>199592.4596607938</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AP40" t="s">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AP41" t="s">
         <v>59</v>
       </c>
-      <c r="AQ40" s="7">
-        <f>AQ39/Main!J2</f>
-        <v>261.82679130859117</v>
+      <c r="AQ41" s="7">
+        <f>AQ40/Main!J2</f>
+        <v>456.02475709548281</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="6">
-        <f>B20/B19</f>
+      <c r="B42" s="6">
+        <f>B21/B20</f>
         <v>0.13681592039800994</v>
       </c>
-      <c r="C41" s="6">
-        <f t="shared" ref="C41:AB41" si="71">C20/C19</f>
+      <c r="C42" s="6">
+        <f t="shared" ref="C42:AB42" si="76">C21/C20</f>
         <v>0.45725646123260438</v>
       </c>
-      <c r="D41" s="6">
-        <f t="shared" si="71"/>
+      <c r="D42" s="6">
+        <f t="shared" si="76"/>
         <v>0.34220907297830377</v>
       </c>
-      <c r="E41" s="6">
-        <f t="shared" si="71"/>
+      <c r="E42" s="6">
+        <f t="shared" si="76"/>
         <v>-2.875</v>
       </c>
-      <c r="F41" s="6">
-        <f t="shared" si="71"/>
+      <c r="F42" s="6">
+        <f t="shared" si="76"/>
         <v>0.10790464240903387</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="71"/>
+      <c r="G42" s="6">
+        <f t="shared" si="76"/>
         <v>0.3037608486017358</v>
       </c>
-      <c r="H41" s="6">
-        <f t="shared" si="71"/>
+      <c r="H42" s="6">
+        <f t="shared" si="76"/>
         <v>8.217592592592593E-2</v>
       </c>
-      <c r="I41" s="6">
-        <f t="shared" si="71"/>
+      <c r="I42" s="6">
+        <f t="shared" si="76"/>
         <v>-6.8762278978389005E-2</v>
       </c>
-      <c r="J41" s="6">
-        <f t="shared" si="71"/>
+      <c r="J42" s="6">
+        <f t="shared" si="76"/>
         <v>0.16060903732809431</v>
       </c>
-      <c r="K41" s="6">
-        <f t="shared" si="71"/>
+      <c r="K42" s="6">
+        <f t="shared" si="76"/>
         <v>0.15037593984962405</v>
       </c>
-      <c r="L41" s="6">
-        <f t="shared" si="71"/>
+      <c r="L42" s="6">
+        <f t="shared" si="76"/>
         <v>0.1328125</v>
       </c>
-      <c r="M41" s="6">
-        <f t="shared" si="71"/>
+      <c r="M42" s="6">
+        <f t="shared" si="76"/>
         <v>-0.10126582278481013</v>
       </c>
-      <c r="N41" s="6">
-        <f t="shared" si="71"/>
+      <c r="N42" s="6">
+        <f t="shared" si="76"/>
         <v>0.1927346115035318</v>
       </c>
-      <c r="O41" s="6">
-        <f t="shared" si="71"/>
+      <c r="O42" s="6">
+        <f t="shared" si="76"/>
         <v>0.11193111931119311</v>
       </c>
-      <c r="P41" s="6">
-        <f t="shared" si="71"/>
+      <c r="P42" s="6">
+        <f t="shared" si="76"/>
         <v>0.1373152709359606</v>
       </c>
-      <c r="Q41" s="6">
-        <f t="shared" si="71"/>
+      <c r="Q42" s="6">
+        <f t="shared" si="76"/>
         <v>-0.34883720930232559</v>
       </c>
-      <c r="R41" s="6">
-        <f t="shared" si="71"/>
+      <c r="R42" s="6">
+        <f t="shared" si="76"/>
         <v>0.11080897348742352</v>
       </c>
-      <c r="S41" s="6">
-        <f t="shared" si="71"/>
+      <c r="S42" s="6">
+        <f t="shared" si="76"/>
         <v>0.11422452257719079</v>
       </c>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6">
-        <f>X20/X19</f>
+      <c r="T42" s="6">
+        <f t="shared" si="76"/>
+        <v>0.12087912087912088</v>
+      </c>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6">
+        <f>X21/X20</f>
         <v>1.2214983713355049E-2</v>
       </c>
-      <c r="Y41" s="6">
-        <f t="shared" si="71"/>
+      <c r="Y42" s="6">
+        <f t="shared" si="76"/>
         <v>9.4568380213385067E-2</v>
       </c>
-      <c r="Z41" s="6">
-        <f t="shared" si="71"/>
+      <c r="Z42" s="6">
+        <f t="shared" si="76"/>
         <v>0.13647720174890693</v>
       </c>
-      <c r="AA41" s="6">
-        <f t="shared" si="71"/>
+      <c r="AA42" s="6">
+        <f t="shared" si="76"/>
         <v>0.12375898664840808</v>
       </c>
-      <c r="AB41" s="6">
-        <f t="shared" si="71"/>
+      <c r="AB42" s="6">
+        <f t="shared" si="76"/>
         <v>0.14662867996201329</v>
       </c>
-      <c r="AC41" s="6">
-        <f t="shared" ref="AC41:AL41" si="72">AC20/AC19</f>
-        <v>0.11999999999999998</v>
-      </c>
-      <c r="AD41" s="6">
-        <f t="shared" si="72"/>
-        <v>0.12000000000000001</v>
-      </c>
-      <c r="AE41" s="6">
-        <f t="shared" si="72"/>
-        <v>0.12</v>
-      </c>
-      <c r="AF41" s="6">
-        <f t="shared" si="72"/>
-        <v>0.12</v>
-      </c>
-      <c r="AG41" s="6">
-        <f t="shared" si="72"/>
-        <v>0.12</v>
-      </c>
-      <c r="AH41" s="6">
-        <f t="shared" si="72"/>
-        <v>0.12</v>
-      </c>
-      <c r="AI41" s="6">
-        <f t="shared" si="72"/>
-        <v>0.12000000000000001</v>
-      </c>
-      <c r="AJ41" s="6">
-        <f t="shared" si="72"/>
-        <v>0.12</v>
-      </c>
-      <c r="AK41" s="6">
-        <f t="shared" si="72"/>
-        <v>0.11999999999999998</v>
-      </c>
-      <c r="AL41" s="6">
-        <f t="shared" si="72"/>
-        <v>0.12</v>
-      </c>
-      <c r="AP41" t="s">
+      <c r="AC42" s="6">
+        <f t="shared" ref="AC42:AL42" si="77">AC21/AC20</f>
+        <v>0.2</v>
+      </c>
+      <c r="AD42" s="6">
+        <f t="shared" si="77"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AE42" s="6">
+        <f t="shared" si="77"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AF42" s="6">
+        <f t="shared" si="77"/>
+        <v>0.2</v>
+      </c>
+      <c r="AG42" s="6">
+        <f t="shared" si="77"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH42" s="6">
+        <f t="shared" si="77"/>
+        <v>0.2</v>
+      </c>
+      <c r="AI42" s="6">
+        <f t="shared" si="77"/>
+        <v>0.2</v>
+      </c>
+      <c r="AJ42" s="6">
+        <f t="shared" si="77"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AK42" s="6">
+        <f t="shared" si="77"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AL42" s="6">
+        <f t="shared" si="77"/>
+        <v>0.2</v>
+      </c>
+      <c r="AP42" t="s">
         <v>60</v>
       </c>
-      <c r="AQ41" s="6">
-        <f>AQ40/Main!J1-1</f>
-        <v>-0.34706535833269037</v>
+      <c r="AQ42" s="6">
+        <f>AQ41/Main!J1-1</f>
+        <v>-5.5751615911620589E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N46" s="2">
         <f>5147+911</f>
         <v>6058</v>
       </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2">
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2">
         <f>6714+1112</f>
         <v>7826</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N47" s="2">
         <v>3208</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>64</v>
-      </c>
-      <c r="N47" s="2">
-        <f>N45+N46</f>
-        <v>9266</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2">
-        <f>R45+R46</f>
-        <v>10481</v>
+        <v>2655</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N48" s="2">
-        <v>32736</v>
+        <f>N46+N47</f>
+        <v>9266</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2">
-        <v>32349</v>
-      </c>
-      <c r="V48" s="2"/>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="6"/>
-      <c r="AK48" s="6"/>
-      <c r="AL48" s="6"/>
-      <c r="AM48" s="6"/>
+        <f>R46+R47</f>
+        <v>10481</v>
+      </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N49" s="2">
-        <v>1398</v>
+        <v>32736</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2">
-        <v>1413</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH49" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="AI49" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="AJ49" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="AK49" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="AL49" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="AM49" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="AN49" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="AO49" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="AP49" s="6">
-        <v>0.15</v>
-      </c>
+        <v>32349</v>
+      </c>
+      <c r="V49" s="2"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N50" s="2">
-        <v>5193</v>
+        <v>1398</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2">
-        <v>5245</v>
+        <v>1413</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>80</v>
       </c>
       <c r="AF50" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AH50" s="6">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AI50" s="6">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="AJ50" s="6">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="AK50" s="6">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="AL50" s="6">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AM50" s="6">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="AN50" s="6">
         <v>0.15</v>
       </c>
       <c r="AO50" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="AP50" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="N51" s="2">
+        <v>5193</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2">
+        <v>5245</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH51" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="AI51" s="6">
         <v>0.1</v>
       </c>
-      <c r="AP50" s="6">
+      <c r="AJ51" s="6">
         <v>0.08</v>
       </c>
+      <c r="AK51" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="AL51" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AM51" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="AN51" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="AO51" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AP51" s="6">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="51" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N51" s="5">
-        <f>SUM(N47:N50)</f>
+      <c r="N52" s="5">
+        <f>SUM(N48:N51)</f>
         <v>48593</v>
       </c>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5">
-        <f>SUM(R47:R50)</f>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5">
+        <f>SUM(R48:R51)</f>
         <v>49488</v>
       </c>
-      <c r="AF51" s="3" t="s">
+      <c r="AF52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AH51" s="9">
+      <c r="AH52" s="9">
         <v>515</v>
       </c>
-      <c r="AI51" s="10">
+      <c r="AI52" s="10">
         <v>364</v>
       </c>
-      <c r="AJ51" s="11">
+      <c r="AJ52" s="11">
         <v>317</v>
       </c>
-      <c r="AK51" s="9">
+      <c r="AK52" s="9">
         <v>442</v>
       </c>
-      <c r="AL51" s="11">
+      <c r="AL52" s="11">
         <v>312</v>
       </c>
-      <c r="AM51" s="11">
+      <c r="AM52" s="11">
         <v>272</v>
       </c>
-      <c r="AN51" s="10">
+      <c r="AN52" s="10">
         <v>368</v>
       </c>
-      <c r="AO51" s="11">
+      <c r="AO52" s="11">
         <v>260</v>
       </c>
-      <c r="AP51" s="11">
+      <c r="AP52" s="11">
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>66</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R54" s="2">
         <v>4344</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AG54" t="s">
         <v>81</v>
-      </c>
-      <c r="AH53" s="12">
-        <f>2/9</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>67</v>
-      </c>
-      <c r="R54" s="2">
-        <v>591</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>82</v>
       </c>
       <c r="AH54" s="12">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="R55" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH55" s="12">
+        <f>2/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>68</v>
       </c>
-      <c r="R55" s="2">
+      <c r="R56" s="2">
         <v>1718</v>
       </c>
-      <c r="AG55" t="s">
+      <c r="AG56" t="s">
         <v>83</v>
       </c>
-      <c r="AH55" s="12">
+      <c r="AH56" s="12">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>69</v>
       </c>
-      <c r="R56" s="2">
+      <c r="R57" s="2">
         <v>1262</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>70</v>
       </c>
-      <c r="R57" s="2">
+      <c r="R58" s="2">
         <v>399</v>
       </c>
-      <c r="AK57">
+      <c r="AK58">
         <f>364+312</f>
         <v>676</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>71</v>
       </c>
-      <c r="R58" s="2">
-        <f>SUM(R53:R57)</f>
+      <c r="R59" s="2">
+        <f>SUM(R54:R58)</f>
         <v>8314</v>
       </c>
-      <c r="AK58">
-        <f>AK57/2</f>
+      <c r="AK59">
+        <f>AK58/2</f>
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>75</v>
       </c>
-      <c r="R59" s="2">
+      <c r="R60" s="2">
         <v>2908</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>74</v>
       </c>
-      <c r="R60" s="2">
+      <c r="R61" s="2">
         <v>14037</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>73</v>
       </c>
-      <c r="R61" s="2">
+      <c r="R62" s="2">
         <v>2400</v>
       </c>
     </row>
-    <row r="62" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R62" s="5">
-        <f>SUM(R58:R61)</f>
+      <c r="R63" s="5">
+        <f>SUM(R59:R62)</f>
         <v>27659</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="V63">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="V64">
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
+    <row r="96" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
         <v>8</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>9</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>10</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G96" t="s">
         <v>11</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H96" t="s">
         <v>12</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I96" t="s">
         <v>13</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J96" t="s">
         <v>14</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K96" t="s">
         <v>15</v>
       </c>
-      <c r="L95" t="s">
+      <c r="L96" t="s">
         <v>16</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M96" t="s">
         <v>21</v>
       </c>
-      <c r="N95" t="s">
+      <c r="N96" t="s">
         <v>22</v>
       </c>
-      <c r="O95" t="s">
+      <c r="O96" t="s">
         <v>23</v>
       </c>
-      <c r="P95" t="s">
+      <c r="P96" t="s">
         <v>24</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="Q96" t="s">
         <v>17</v>
       </c>
-      <c r="R95" t="s">
+      <c r="R96" t="s">
         <v>18</v>
       </c>
-      <c r="S95" t="s">
+      <c r="S96" t="s">
         <v>19</v>
       </c>
-      <c r="T95" t="s">
+      <c r="T96" t="s">
         <v>20</v>
       </c>
-      <c r="U95" t="s">
+      <c r="U96" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
         <v>40</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D97" s="2">
         <v>66633</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E97" s="2">
         <v>66501</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F97" s="2">
         <v>67114</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G97" s="2">
         <v>67662</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H97" s="2">
         <v>69969</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I97" s="2">
         <v>72904</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J97" s="2">
         <v>73081</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K97" s="2">
         <v>73936</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L97" s="2">
         <v>74384</v>
       </c>
-      <c r="M96" s="2">
+      <c r="M97" s="2">
         <v>73951</v>
       </c>
-      <c r="N96" s="2">
+      <c r="N97" s="2">
         <v>74024</v>
       </c>
-      <c r="O96" s="2">
+      <c r="O97" s="2">
         <v>75215</v>
       </c>
-      <c r="P96" s="2">
+      <c r="P97" s="2">
         <v>74579</v>
       </c>
-      <c r="Q96" s="2">
+      <c r="Q97" s="2">
         <v>73283</v>
       </c>
-      <c r="R96" s="2">
+      <c r="R97" s="2">
         <v>73387</v>
       </c>
-      <c r="S96" s="2">
+      <c r="S97" s="2">
         <v>74296</v>
       </c>
-      <c r="T96" s="2">
+      <c r="T97" s="2">
         <v>74398</v>
       </c>
-      <c r="U96" s="2">
+      <c r="U97" s="2">
         <v>75570</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
         <v>41</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D98" s="2">
         <v>42542</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E98" s="2">
         <v>44229</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F98" s="2">
         <v>47355</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G98" s="2">
         <v>51778</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H98" s="2">
         <v>58734</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I98" s="2">
         <v>61483</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J98" s="2">
         <v>62242</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K98" s="2">
         <v>66698</v>
       </c>
-      <c r="L97" s="2">
+      <c r="L98" s="2">
         <v>68508</v>
       </c>
-      <c r="M97" s="2">
+      <c r="M98" s="2">
         <v>68696</v>
       </c>
-      <c r="N97" s="2">
+      <c r="N98" s="2">
         <v>70500</v>
       </c>
-      <c r="O97" s="2">
+      <c r="O98" s="2">
         <v>74036</v>
       </c>
-      <c r="P97" s="2">
+      <c r="P98" s="2">
         <v>73733</v>
       </c>
-      <c r="Q97" s="2">
+      <c r="Q98" s="2">
         <v>72966</v>
       </c>
-      <c r="R97" s="2">
+      <c r="R98" s="2">
         <v>73534</v>
       </c>
-      <c r="S97" s="2">
+      <c r="S98" s="2">
         <v>76729</v>
       </c>
-      <c r="T97" s="2">
+      <c r="T98" s="2">
         <v>77373</v>
       </c>
-      <c r="U97" s="2">
+      <c r="U98" s="2">
         <v>79810</v>
       </c>
     </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
         <v>42</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D99" s="2">
         <v>27547</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E99" s="2">
         <v>27890</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F99" s="2">
         <v>29380</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G99" s="2">
         <v>31417</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H99" s="2">
         <v>34318</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I99" s="2">
         <v>36068</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J99" s="2">
         <v>36324</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K99" s="2">
         <v>37537</v>
       </c>
-      <c r="L98" s="2">
+      <c r="L99" s="2">
         <v>37894</v>
       </c>
-      <c r="M98" s="2">
+      <c r="M99" s="2">
         <v>38658</v>
       </c>
-      <c r="N98" s="2">
+      <c r="N99" s="2">
         <v>38988</v>
       </c>
-      <c r="O98" s="2">
+      <c r="O99" s="2">
         <v>39961</v>
       </c>
-      <c r="P98" s="2">
+      <c r="P99" s="2">
         <v>39610</v>
       </c>
-      <c r="Q98" s="2">
+      <c r="Q99" s="2">
         <v>39624</v>
       </c>
-      <c r="R98" s="2">
+      <c r="R99" s="2">
         <v>39936</v>
       </c>
-      <c r="S98" s="2">
+      <c r="S99" s="2">
         <v>41699</v>
       </c>
-      <c r="T98" s="2">
+      <c r="T99" s="2">
         <v>41249</v>
       </c>
-      <c r="U98" s="2">
+      <c r="U99" s="2">
         <v>42470</v>
       </c>
     </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
         <v>43</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D100" s="2">
         <v>12141</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E100" s="2">
         <v>12942</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F100" s="2">
         <v>14485</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G100" s="2">
         <v>16233</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H100" s="2">
         <v>19835</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I100" s="2">
         <v>22492</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J100" s="2">
         <v>23504</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K100" s="2">
         <v>25492</v>
       </c>
-      <c r="L99" s="2">
+      <c r="L100" s="2">
         <v>26853</v>
       </c>
-      <c r="M99" s="2">
+      <c r="M100" s="2">
         <v>27875</v>
       </c>
-      <c r="N99" s="2">
+      <c r="N100" s="2">
         <v>30051</v>
       </c>
-      <c r="O99" s="2">
+      <c r="O100" s="2">
         <v>32632</v>
       </c>
-      <c r="P99" s="2">
+      <c r="P100" s="2">
         <v>33719</v>
       </c>
-      <c r="Q99" s="2">
+      <c r="Q100" s="2">
         <v>34799</v>
       </c>
-      <c r="R99" s="2">
+      <c r="R100" s="2">
         <v>36228</v>
       </c>
-      <c r="S99" s="2">
+      <c r="S100" s="2">
         <v>38023</v>
       </c>
-      <c r="T99" s="2">
+      <c r="T100" s="2">
         <v>39478</v>
       </c>
-      <c r="U99" s="2">
+      <c r="U100" s="2">
         <v>40550</v>
       </c>
     </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
         <v>86</v>
       </c>
-      <c r="D100" s="2">
-        <f>SUM(D96:D99)</f>
+      <c r="D101" s="2">
+        <f>SUM(D97:D100)</f>
         <v>148863</v>
       </c>
-      <c r="E100" s="2">
-        <f t="shared" ref="E100:U100" si="73">SUM(E96:E99)</f>
+      <c r="E101" s="2">
+        <f t="shared" ref="E101:U101" si="78">SUM(E97:E100)</f>
         <v>151562</v>
       </c>
-      <c r="F100" s="2">
-        <f t="shared" si="73"/>
+      <c r="F101" s="2">
+        <f t="shared" si="78"/>
         <v>158334</v>
       </c>
-      <c r="G100" s="2">
-        <f t="shared" si="73"/>
+      <c r="G101" s="2">
+        <f t="shared" si="78"/>
         <v>167090</v>
       </c>
-      <c r="H100" s="2">
-        <f t="shared" si="73"/>
+      <c r="H101" s="2">
+        <f t="shared" si="78"/>
         <v>182856</v>
       </c>
-      <c r="I100" s="2">
-        <f t="shared" si="73"/>
+      <c r="I101" s="2">
+        <f t="shared" si="78"/>
         <v>192947</v>
       </c>
-      <c r="J100" s="2">
-        <f t="shared" si="73"/>
+      <c r="J101" s="2">
+        <f t="shared" si="78"/>
         <v>195151</v>
       </c>
-      <c r="K100" s="2">
-        <f t="shared" si="73"/>
+      <c r="K101" s="2">
+        <f t="shared" si="78"/>
         <v>203663</v>
       </c>
-      <c r="L100" s="2">
-        <f t="shared" si="73"/>
+      <c r="L101" s="2">
+        <f t="shared" si="78"/>
         <v>207639</v>
       </c>
-      <c r="M100" s="2">
-        <f t="shared" si="73"/>
+      <c r="M101" s="2">
+        <f t="shared" si="78"/>
         <v>209180</v>
       </c>
-      <c r="N100" s="2">
-        <f t="shared" si="73"/>
+      <c r="N101" s="2">
+        <f t="shared" si="78"/>
         <v>213563</v>
       </c>
-      <c r="O100" s="2">
-        <f t="shared" si="73"/>
+      <c r="O101" s="2">
+        <f t="shared" si="78"/>
         <v>221844</v>
       </c>
-      <c r="P100" s="2">
-        <f t="shared" si="73"/>
+      <c r="P101" s="2">
+        <f t="shared" si="78"/>
         <v>221641</v>
       </c>
-      <c r="Q100" s="2">
-        <f t="shared" si="73"/>
+      <c r="Q101" s="2">
+        <f t="shared" si="78"/>
         <v>220672</v>
       </c>
-      <c r="R100" s="2">
-        <f t="shared" si="73"/>
+      <c r="R101" s="2">
+        <f t="shared" si="78"/>
         <v>223085</v>
       </c>
-      <c r="S100" s="2">
-        <f t="shared" si="73"/>
+      <c r="S101" s="2">
+        <f t="shared" si="78"/>
         <v>230747</v>
       </c>
-      <c r="T100" s="2">
-        <f t="shared" si="73"/>
+      <c r="T101" s="2">
+        <f t="shared" si="78"/>
         <v>232498</v>
       </c>
-      <c r="U100" s="2">
-        <f t="shared" si="73"/>
+      <c r="U101" s="2">
+        <f t="shared" si="78"/>
         <v>238400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="E102" t="s">
+    <row r="103" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
         <v>9</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F103" t="s">
         <v>10</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G103" t="s">
         <v>11</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H103" t="s">
         <v>12</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I103" t="s">
         <v>13</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J103" t="s">
         <v>14</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K103" t="s">
         <v>15</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L103" t="s">
         <v>16</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M103" t="s">
         <v>21</v>
       </c>
-      <c r="N102" t="s">
+      <c r="N103" t="s">
         <v>22</v>
       </c>
-      <c r="O102" t="s">
+      <c r="O103" t="s">
         <v>23</v>
       </c>
-      <c r="P102" t="s">
+      <c r="P103" t="s">
         <v>24</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="Q103" t="s">
         <v>17</v>
       </c>
-      <c r="R102" t="s">
+      <c r="R103" t="s">
         <v>18</v>
       </c>
-      <c r="S102" t="s">
+      <c r="S103" t="s">
         <v>19</v>
       </c>
-      <c r="T102" t="s">
+      <c r="T103" t="s">
         <v>20</v>
       </c>
-      <c r="U102" t="s">
+      <c r="U103" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
+    <row r="104" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
         <v>40</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="12">
-        <f>E96/D96-1</f>
-        <v>-1.9810004052046581E-3</v>
-      </c>
-      <c r="F103" s="12">
-        <f t="shared" ref="F103:S103" si="74">F96/E96-1</f>
-        <v>9.2179064976467551E-3</v>
-      </c>
-      <c r="G103" s="12">
-        <f t="shared" si="74"/>
-        <v>8.1652114312960045E-3</v>
-      </c>
-      <c r="H103" s="12">
-        <f t="shared" si="74"/>
-        <v>3.4095947503768764E-2</v>
-      </c>
-      <c r="I103" s="12">
-        <f t="shared" si="74"/>
-        <v>4.1947148022695835E-2</v>
-      </c>
-      <c r="J103" s="12">
-        <f t="shared" si="74"/>
-        <v>2.4278503237133986E-3</v>
-      </c>
-      <c r="K103" s="12">
-        <f t="shared" si="74"/>
-        <v>1.1699347299571672E-2</v>
-      </c>
-      <c r="L103" s="12">
-        <f t="shared" si="74"/>
-        <v>6.0592945249946517E-3</v>
-      </c>
-      <c r="M103" s="12">
-        <f t="shared" si="74"/>
-        <v>-5.8211443321144474E-3</v>
-      </c>
-      <c r="N103" s="12">
-        <f t="shared" si="74"/>
-        <v>9.8714013333145445E-4</v>
-      </c>
-      <c r="O103" s="12">
-        <f t="shared" si="74"/>
-        <v>1.6089376418458867E-2</v>
-      </c>
-      <c r="P103" s="12">
-        <f t="shared" si="74"/>
-        <v>-8.4557601542245564E-3</v>
-      </c>
-      <c r="Q103" s="12">
-        <f t="shared" si="74"/>
-        <v>-1.7377545957977469E-2</v>
-      </c>
-      <c r="R103" s="12">
-        <f t="shared" si="74"/>
-        <v>1.4191558751688316E-3</v>
-      </c>
-      <c r="S103" s="12">
-        <f t="shared" si="74"/>
-        <v>1.2386389960074684E-2</v>
-      </c>
-      <c r="T103" s="12">
-        <f>T96/S96-1</f>
-        <v>1.3728868310540765E-3</v>
-      </c>
-      <c r="U103" s="12">
-        <f>U96/T96-1</f>
-        <v>1.5753111642786033E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>41</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="12">
         <f>E97/D97-1</f>
-        <v>3.965492924639169E-2</v>
+        <v>-1.9810004052046581E-3</v>
       </c>
       <c r="F104" s="12">
-        <f t="shared" ref="F104:U104" si="75">F97/E97-1</f>
-        <v>7.0677609713084122E-2</v>
+        <f t="shared" ref="F104:S104" si="79">F97/E97-1</f>
+        <v>9.2179064976467551E-3</v>
       </c>
       <c r="G104" s="12">
-        <f t="shared" si="75"/>
-        <v>9.3400908035054409E-2</v>
+        <f t="shared" si="79"/>
+        <v>8.1652114312960045E-3</v>
       </c>
       <c r="H104" s="12">
-        <f t="shared" si="75"/>
-        <v>0.13434277106106851</v>
+        <f t="shared" si="79"/>
+        <v>3.4095947503768764E-2</v>
       </c>
       <c r="I104" s="12">
-        <f t="shared" si="75"/>
-        <v>4.6804236047264025E-2</v>
+        <f t="shared" si="79"/>
+        <v>4.1947148022695835E-2</v>
       </c>
       <c r="J104" s="12">
-        <f t="shared" si="75"/>
-        <v>1.234487581933208E-2</v>
+        <f t="shared" si="79"/>
+        <v>2.4278503237133986E-3</v>
       </c>
       <c r="K104" s="12">
-        <f t="shared" si="75"/>
-        <v>7.1591529835159484E-2</v>
+        <f t="shared" si="79"/>
+        <v>1.1699347299571672E-2</v>
       </c>
       <c r="L104" s="12">
-        <f t="shared" si="75"/>
-        <v>2.713724549461749E-2</v>
+        <f t="shared" si="79"/>
+        <v>6.0592945249946517E-3</v>
       </c>
       <c r="M104" s="12">
-        <f t="shared" si="75"/>
-        <v>2.7442050563437625E-3</v>
+        <f t="shared" si="79"/>
+        <v>-5.8211443321144474E-3</v>
       </c>
       <c r="N104" s="12">
-        <f t="shared" si="75"/>
-        <v>2.6260626528473274E-2</v>
+        <f t="shared" si="79"/>
+        <v>9.8714013333145445E-4</v>
       </c>
       <c r="O104" s="12">
-        <f t="shared" si="75"/>
-        <v>5.0156028368794292E-2</v>
+        <f t="shared" si="79"/>
+        <v>1.6089376418458867E-2</v>
       </c>
       <c r="P104" s="12">
-        <f t="shared" si="75"/>
-        <v>-4.0926035982494779E-3</v>
+        <f t="shared" si="79"/>
+        <v>-8.4557601542245564E-3</v>
       </c>
       <c r="Q104" s="12">
-        <f t="shared" si="75"/>
-        <v>-1.040239784085828E-2</v>
+        <f t="shared" si="79"/>
+        <v>-1.7377545957977469E-2</v>
       </c>
       <c r="R104" s="12">
-        <f t="shared" si="75"/>
-        <v>7.7844475509141198E-3</v>
+        <f t="shared" si="79"/>
+        <v>1.4191558751688316E-3</v>
       </c>
       <c r="S104" s="12">
-        <f t="shared" si="75"/>
-        <v>4.3449288764381144E-2</v>
+        <f t="shared" si="79"/>
+        <v>1.2386389960074684E-2</v>
       </c>
       <c r="T104" s="12">
-        <f t="shared" si="75"/>
-        <v>8.3931759830051522E-3</v>
+        <f>T97/S97-1</f>
+        <v>1.3728868310540765E-3</v>
       </c>
       <c r="U104" s="12">
-        <f t="shared" si="75"/>
-        <v>3.1496775360914109E-2</v>
+        <f>U97/T97-1</f>
+        <v>1.5753111642786033E-2</v>
       </c>
     </row>
-    <row r="105" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="12">
         <f>E98/D98-1</f>
-        <v>1.2451446618506612E-2</v>
+        <v>3.965492924639169E-2</v>
       </c>
       <c r="F105" s="12">
-        <f t="shared" ref="F105:U105" si="76">F98/E98-1</f>
-        <v>5.3424166367873838E-2</v>
+        <f t="shared" ref="F105:U105" si="80">F98/E98-1</f>
+        <v>7.0677609713084122E-2</v>
       </c>
       <c r="G105" s="12">
-        <f t="shared" si="76"/>
-        <v>6.933287950987066E-2</v>
+        <f t="shared" si="80"/>
+        <v>9.3400908035054409E-2</v>
       </c>
       <c r="H105" s="12">
-        <f t="shared" si="76"/>
-        <v>9.233854282713172E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.13434277106106851</v>
       </c>
       <c r="I105" s="12">
-        <f t="shared" si="76"/>
-        <v>5.0993647648464258E-2</v>
+        <f t="shared" si="80"/>
+        <v>4.6804236047264025E-2</v>
       </c>
       <c r="J105" s="12">
-        <f t="shared" si="76"/>
-        <v>7.097704336253674E-3</v>
+        <f t="shared" si="80"/>
+        <v>1.234487581933208E-2</v>
       </c>
       <c r="K105" s="12">
-        <f t="shared" si="76"/>
-        <v>3.33938993502918E-2</v>
+        <f t="shared" si="80"/>
+        <v>7.1591529835159484E-2</v>
       </c>
       <c r="L105" s="12">
-        <f t="shared" si="76"/>
-        <v>9.5106161920239796E-3</v>
+        <f t="shared" si="80"/>
+        <v>2.713724549461749E-2</v>
       </c>
       <c r="M105" s="12">
-        <f t="shared" si="76"/>
-        <v>2.0161503140338821E-2</v>
+        <f t="shared" si="80"/>
+        <v>2.7442050563437625E-3</v>
       </c>
       <c r="N105" s="12">
-        <f t="shared" si="76"/>
-        <v>8.5363960887785417E-3</v>
+        <f t="shared" si="80"/>
+        <v>2.6260626528473274E-2</v>
       </c>
       <c r="O105" s="12">
-        <f t="shared" si="76"/>
-        <v>2.4956396840053241E-2</v>
+        <f t="shared" si="80"/>
+        <v>5.0156028368794292E-2</v>
       </c>
       <c r="P105" s="12">
-        <f t="shared" si="76"/>
-        <v>-8.7835639748754524E-3</v>
+        <f t="shared" si="80"/>
+        <v>-4.0926035982494779E-3</v>
       </c>
       <c r="Q105" s="12">
-        <f t="shared" si="76"/>
-        <v>3.5344609946985628E-4</v>
+        <f t="shared" si="80"/>
+        <v>-1.040239784085828E-2</v>
       </c>
       <c r="R105" s="12">
-        <f t="shared" si="76"/>
-        <v>7.8740157480314821E-3</v>
+        <f t="shared" si="80"/>
+        <v>7.7844475509141198E-3</v>
       </c>
       <c r="S105" s="12">
-        <f t="shared" si="76"/>
-        <v>4.4145633012820484E-2</v>
+        <f t="shared" si="80"/>
+        <v>4.3449288764381144E-2</v>
       </c>
       <c r="T105" s="12">
-        <f t="shared" si="76"/>
-        <v>-1.0791625698458041E-2</v>
+        <f t="shared" si="80"/>
+        <v>8.3931759830051522E-3</v>
       </c>
       <c r="U105" s="12">
-        <f t="shared" si="76"/>
-        <v>2.9600717593153858E-2</v>
+        <f t="shared" si="80"/>
+        <v>3.1496775360914109E-2</v>
       </c>
     </row>
-    <row r="106" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="12">
         <f>E99/D99-1</f>
+        <v>1.2451446618506612E-2</v>
+      </c>
+      <c r="F106" s="12">
+        <f t="shared" ref="F106:U106" si="81">F99/E99-1</f>
+        <v>5.3424166367873838E-2</v>
+      </c>
+      <c r="G106" s="12">
+        <f t="shared" si="81"/>
+        <v>6.933287950987066E-2</v>
+      </c>
+      <c r="H106" s="12">
+        <f t="shared" si="81"/>
+        <v>9.233854282713172E-2</v>
+      </c>
+      <c r="I106" s="12">
+        <f t="shared" si="81"/>
+        <v>5.0993647648464258E-2</v>
+      </c>
+      <c r="J106" s="12">
+        <f t="shared" si="81"/>
+        <v>7.097704336253674E-3</v>
+      </c>
+      <c r="K106" s="12">
+        <f t="shared" si="81"/>
+        <v>3.33938993502918E-2</v>
+      </c>
+      <c r="L106" s="12">
+        <f t="shared" si="81"/>
+        <v>9.5106161920239796E-3</v>
+      </c>
+      <c r="M106" s="12">
+        <f t="shared" si="81"/>
+        <v>2.0161503140338821E-2</v>
+      </c>
+      <c r="N106" s="12">
+        <f t="shared" si="81"/>
+        <v>8.5363960887785417E-3</v>
+      </c>
+      <c r="O106" s="12">
+        <f t="shared" si="81"/>
+        <v>2.4956396840053241E-2</v>
+      </c>
+      <c r="P106" s="12">
+        <f t="shared" si="81"/>
+        <v>-8.7835639748754524E-3</v>
+      </c>
+      <c r="Q106" s="12">
+        <f t="shared" si="81"/>
+        <v>3.5344609946985628E-4</v>
+      </c>
+      <c r="R106" s="12">
+        <f t="shared" si="81"/>
+        <v>7.8740157480314821E-3</v>
+      </c>
+      <c r="S106" s="12">
+        <f t="shared" si="81"/>
+        <v>4.4145633012820484E-2</v>
+      </c>
+      <c r="T106" s="12">
+        <f t="shared" si="81"/>
+        <v>-1.0791625698458041E-2</v>
+      </c>
+      <c r="U106" s="12">
+        <f t="shared" si="81"/>
+        <v>2.9600717593153858E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="12">
+        <f>E100/D100-1</f>
         <v>6.597479614529278E-2</v>
       </c>
-      <c r="F106" s="12">
-        <f t="shared" ref="F106:U106" si="77">F99/E99-1</f>
+      <c r="F107" s="12">
+        <f t="shared" ref="F107:U107" si="82">F100/E100-1</f>
         <v>0.11922423118528824</v>
       </c>
-      <c r="G106" s="12">
-        <f t="shared" si="77"/>
+      <c r="G107" s="12">
+        <f t="shared" si="82"/>
         <v>0.12067656196064891</v>
       </c>
-      <c r="H106" s="12">
-        <f t="shared" si="77"/>
+      <c r="H107" s="12">
+        <f t="shared" si="82"/>
         <v>0.22189367338138366</v>
       </c>
-      <c r="I106" s="12">
-        <f t="shared" si="77"/>
+      <c r="I107" s="12">
+        <f t="shared" si="82"/>
         <v>0.13395512982102353</v>
       </c>
-      <c r="J106" s="12">
-        <f t="shared" si="77"/>
+      <c r="J107" s="12">
+        <f t="shared" si="82"/>
         <v>4.4993775564645233E-2</v>
       </c>
-      <c r="K106" s="12">
-        <f t="shared" si="77"/>
+      <c r="K107" s="12">
+        <f t="shared" si="82"/>
         <v>8.4581347855684053E-2</v>
       </c>
-      <c r="L106" s="12">
-        <f t="shared" si="77"/>
+      <c r="L107" s="12">
+        <f t="shared" si="82"/>
         <v>5.3389298603483404E-2</v>
       </c>
-      <c r="M106" s="12">
-        <f t="shared" si="77"/>
+      <c r="M107" s="12">
+        <f t="shared" si="82"/>
         <v>3.8059062302163715E-2</v>
       </c>
-      <c r="N106" s="12">
-        <f t="shared" si="77"/>
+      <c r="N107" s="12">
+        <f t="shared" si="82"/>
         <v>7.8062780269058329E-2</v>
       </c>
-      <c r="O106" s="12">
-        <f t="shared" si="77"/>
+      <c r="O107" s="12">
+        <f t="shared" si="82"/>
         <v>8.5887324881035676E-2</v>
       </c>
-      <c r="P106" s="12">
-        <f t="shared" si="77"/>
+      <c r="P107" s="12">
+        <f t="shared" si="82"/>
         <v>3.3310860505025852E-2</v>
       </c>
-      <c r="Q106" s="12">
-        <f t="shared" si="77"/>
+      <c r="Q107" s="12">
+        <f t="shared" si="82"/>
         <v>3.20294196150539E-2</v>
       </c>
-      <c r="R106" s="12">
-        <f t="shared" si="77"/>
+      <c r="R107" s="12">
+        <f t="shared" si="82"/>
         <v>4.1064398402252955E-2</v>
       </c>
-      <c r="S106" s="12">
-        <f t="shared" si="77"/>
+      <c r="S107" s="12">
+        <f t="shared" si="82"/>
         <v>4.9547311471789701E-2</v>
       </c>
-      <c r="T106" s="12">
-        <f t="shared" si="77"/>
+      <c r="T107" s="12">
+        <f t="shared" si="82"/>
         <v>3.8266312495068844E-2</v>
       </c>
-      <c r="U106" s="12">
-        <f t="shared" si="77"/>
+      <c r="U107" s="12">
+        <f t="shared" si="82"/>
         <v>2.7154364456152713E-2</v>
       </c>
     </row>
-    <row r="120" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
+    <row r="121" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
         <v>8</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E121" t="s">
         <v>9</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>10</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G121" t="s">
         <v>11</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H121" t="s">
         <v>12</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I121" t="s">
         <v>13</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J121" t="s">
         <v>14</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K121" t="s">
         <v>15</v>
       </c>
-      <c r="L120" t="s">
+      <c r="L121" t="s">
         <v>16</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M121" t="s">
         <v>21</v>
       </c>
-      <c r="N120" t="s">
+      <c r="N121" t="s">
         <v>22</v>
       </c>
-      <c r="O120" t="s">
+      <c r="O121" t="s">
         <v>23</v>
       </c>
-      <c r="P120" t="s">
+      <c r="P121" t="s">
         <v>24</v>
       </c>
-      <c r="Q120" t="s">
+      <c r="Q121" t="s">
         <v>17</v>
       </c>
-      <c r="R120" t="s">
+      <c r="R121" t="s">
         <v>18</v>
       </c>
-      <c r="S120" t="s">
+      <c r="S121" t="s">
         <v>19</v>
       </c>
-      <c r="T120" t="s">
+      <c r="T121" t="s">
         <v>20</v>
       </c>
-      <c r="U120" t="s">
+      <c r="U121" t="s">
         <v>85</v>
       </c>
-      <c r="V120" t="s">
+      <c r="V121" t="s">
         <v>87</v>
       </c>
-      <c r="W120" t="s">
+      <c r="W121" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
+    <row r="122" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
         <v>86</v>
       </c>
-      <c r="D121" s="2">
-        <f>SUM(D96:D99)</f>
+      <c r="D122" s="2">
+        <f>SUM(D97:D100)</f>
         <v>148863</v>
       </c>
-      <c r="E121" s="2">
-        <f t="shared" ref="E121:U121" si="78">SUM(E96:E99)</f>
+      <c r="E122" s="2">
+        <f t="shared" ref="E122:U122" si="83">SUM(E97:E100)</f>
         <v>151562</v>
       </c>
-      <c r="F121" s="2">
-        <f t="shared" si="78"/>
+      <c r="F122" s="2">
+        <f t="shared" si="83"/>
         <v>158334</v>
       </c>
-      <c r="G121" s="2">
-        <f t="shared" si="78"/>
+      <c r="G122" s="2">
+        <f t="shared" si="83"/>
         <v>167090</v>
       </c>
-      <c r="H121" s="2">
-        <f t="shared" si="78"/>
+      <c r="H122" s="2">
+        <f t="shared" si="83"/>
         <v>182856</v>
       </c>
-      <c r="I121" s="2">
-        <f t="shared" si="78"/>
+      <c r="I122" s="2">
+        <f t="shared" si="83"/>
         <v>192947</v>
       </c>
-      <c r="J121" s="2">
-        <f t="shared" si="78"/>
+      <c r="J122" s="2">
+        <f t="shared" si="83"/>
         <v>195151</v>
       </c>
-      <c r="K121" s="2">
-        <f t="shared" si="78"/>
+      <c r="K122" s="2">
+        <f t="shared" si="83"/>
         <v>203663</v>
       </c>
-      <c r="L121" s="2">
-        <f t="shared" si="78"/>
+      <c r="L122" s="2">
+        <f t="shared" si="83"/>
         <v>207639</v>
       </c>
-      <c r="M121" s="2">
-        <f t="shared" si="78"/>
+      <c r="M122" s="2">
+        <f t="shared" si="83"/>
         <v>209180</v>
       </c>
-      <c r="N121" s="2">
-        <f t="shared" si="78"/>
+      <c r="N122" s="2">
+        <f t="shared" si="83"/>
         <v>213563</v>
       </c>
-      <c r="O121" s="2">
-        <f t="shared" si="78"/>
+      <c r="O122" s="2">
+        <f t="shared" si="83"/>
         <v>221844</v>
       </c>
-      <c r="P121" s="2">
-        <f t="shared" si="78"/>
+      <c r="P122" s="2">
+        <f t="shared" si="83"/>
         <v>221641</v>
       </c>
-      <c r="Q121" s="2">
-        <f t="shared" si="78"/>
+      <c r="Q122" s="2">
+        <f t="shared" si="83"/>
         <v>220672</v>
       </c>
-      <c r="R121" s="2">
-        <f t="shared" si="78"/>
+      <c r="R122" s="2">
+        <f t="shared" si="83"/>
         <v>223085</v>
       </c>
-      <c r="S121" s="2">
-        <f t="shared" si="78"/>
+      <c r="S122" s="2">
+        <f t="shared" si="83"/>
         <v>230747</v>
       </c>
-      <c r="T121" s="2">
-        <f t="shared" si="78"/>
+      <c r="T122" s="2">
+        <f t="shared" si="83"/>
         <v>232498</v>
       </c>
-      <c r="U121" s="2">
-        <f t="shared" si="78"/>
+      <c r="U122" s="2">
+        <f t="shared" si="83"/>
         <v>238400</v>
       </c>
-      <c r="V121" s="2">
+      <c r="V122" s="2">
         <v>225000</v>
       </c>
-      <c r="W121" s="2">
+      <c r="W122" s="2">
         <v>224500</v>
       </c>
     </row>
-    <row r="123" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="T123" s="2"/>
+    <row r="124" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="T124" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16227,12 +16400,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -16288,7 +16461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -16335,7 +16508,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -16370,7 +16543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -16408,7 +16581,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -16467,7 +16640,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>93</v>
       </c>
@@ -16526,7 +16699,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -16582,7 +16755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -16644,7 +16817,7 @@
         <v>-2.4691358024691357E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -16694,7 +16867,7 @@
       </c>
       <c r="S18" s="6"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -16747,7 +16920,7 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -16821,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>93</v>
       </c>

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF20FC-4313-B54E-B217-8F52C3B4229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7BE476-967D-4340-9FEE-443004835ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="500" windowWidth="29860" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10179,7 +10179,7 @@
   <dimension ref="A1:MW124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AC18" sqref="AC18"/>
